--- a/設計書/UML/クラス図/予約システム クラス図.xlsx
+++ b/設計書/UML/クラス図/予約システム クラス図.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nisekyokai/ntmc 最新版/設計書/UML/クラス図/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D0B4F00-9026-0041-BFC5-A4B826B71388}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E787ACB-2D76-4742-A3A4-F28A9D2E113A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{8EC1B6BE-9A3C-4A62-BE98-76F1D3E1C801}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="クラス図" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">クラス図!$A$1:$BP$150</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">クラス図!$A$1:$BU$150</definedName>
   </definedNames>
   <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
@@ -538,6 +538,15 @@
     <xf numFmtId="176" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -573,15 +582,6 @@
     </xf>
     <xf numFmtId="56" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -933,8 +933,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="159737" y="5363887"/>
-          <a:ext cx="3939653" cy="792144"/>
+          <a:off x="159737" y="5271131"/>
+          <a:ext cx="3905747" cy="771559"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="694267"/>
         </a:xfrm>
@@ -1149,8 +1149,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="201735" y="1414601"/>
-          <a:ext cx="3866129" cy="659451"/>
+          <a:off x="201735" y="1414116"/>
+          <a:ext cx="3832223" cy="653639"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="694267"/>
         </a:xfrm>
@@ -1339,362 +1339,239 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>152427</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>54738</xdr:rowOff>
+      <xdr:colOff>175240</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>98535</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>24149</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>105832</xdr:rowOff>
+      <xdr:colOff>10948</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>62038</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="10" name="図形グループ 21">
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="テキスト ボックス 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B1B2BEB-9C38-466E-AC11-083EF62FBA8F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F6528B2-4701-4586-ACB5-D8859BC65DAB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGrpSpPr>
-          <a:grpSpLocks/>
-        </xdr:cNvGrpSpPr>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr bwMode="auto">
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5165585" y="5636054"/>
-          <a:ext cx="2935318" cy="5509866"/>
-          <a:chOff x="320736" y="2410837"/>
-          <a:chExt cx="4538133" cy="661207"/>
+          <a:off x="5299033" y="5736897"/>
+          <a:ext cx="2966915" cy="4101951"/>
         </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="11" name="テキスト ボックス 10">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DF46D11-E1AA-4AE9-912D-1680DC92385F}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="321215" y="2410837"/>
-            <a:ext cx="4536694" cy="203460"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
           <a:solidFill>
-            <a:schemeClr val="lt1"/>
+            <a:schemeClr val="tx1"/>
           </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-              <a:t>(</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
-              <a:t>ユーザーモデル</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-              <a:t>)</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-              <a:t>(c)</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-              <a:t>movies.model.UserModel</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="12" name="テキスト ボックス 11">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F6528B2-4701-4586-ACB5-D8859BC65DAB}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="338666" y="2679073"/>
-            <a:ext cx="4501312" cy="392971"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="lt1"/>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-              <a:t>(</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
-              <a:t>新規会員登録処理</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-              <a:t>) </a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-              <a:t>+createUser(mail : String, name : String, sex : String, </a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-              <a:t>birthday</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
-              <a:t> : String, password : String</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-              <a:t>)</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
-              <a:t> : void</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-              <a:t>(</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
-              <a:t>ログイン処理</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-              <a:t>)</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-              <a:t>+ login(mail: Stiring,  password: String) : UserInfoBeans</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-              <a:t>(</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
-              <a:t>会員情報変更処理</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-              <a:t>)</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-              <a:t>      +changeInfoUser(mail</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
-              <a:t> : String, name : String,password : String</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-              <a:t>)</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
-              <a:t>: UserInfoBeans</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
-              <a:t>(</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" baseline="0"/>
-              <a:t>退会処理</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
-              <a:t>)</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-              <a:t>+unsubFromUser(mail : String, name : String,</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-              <a:t> sex : String, birthday : String, password : String)</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
-              <a:t> : void</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="13" name="テキスト ボックス 12">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91ACB129-4D70-4D64-B2A3-77E3A2AABBFB}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="320736" y="2628450"/>
-            <a:ext cx="4538133" cy="36540"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="lt1"/>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+            <a:t>ユーザーモデル</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>(c) movies.model.UserModel</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+            <a:t>新規会員登録処理</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>+createUser(mail : String, name : String, sex : String, </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>birthday</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+            <a:t> : String, password : String</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+            <a:t> : void</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+            <a:t>ログイン処理</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>+ login(mail: Stiring,  password: String) : UserInfoBeans</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+            <a:t>会員情報変更処理</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>      +changeInfoUser(mail</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+            <a:t> : String, name : String,password : String</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+            <a:t>: UserInfoBeans</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" baseline="0"/>
+            <a:t>退会処理</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>+unsubFromUser(mail : String, name : String,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t> sex : String, birthday : String, password : String)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+            <a:t> : void</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -1725,8 +1602,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5869303" y="11920485"/>
-          <a:ext cx="2230542" cy="4803612"/>
+          <a:off x="5818445" y="11654812"/>
+          <a:ext cx="2211168" cy="4675982"/>
           <a:chOff x="356337" y="2309970"/>
           <a:chExt cx="4449848" cy="516142"/>
         </a:xfrm>
@@ -2069,8 +1946,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="159738" y="4364442"/>
-          <a:ext cx="3952475" cy="855675"/>
+          <a:off x="159738" y="4296389"/>
+          <a:ext cx="3918569" cy="835090"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="694267"/>
         </a:xfrm>
@@ -2285,8 +2162,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="447679" y="13588854"/>
-          <a:ext cx="3901654" cy="782744"/>
+          <a:off x="445257" y="13277893"/>
+          <a:ext cx="3867748" cy="762158"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="694267"/>
         </a:xfrm>
@@ -2501,8 +2378,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="455302" y="14540241"/>
-          <a:ext cx="3913768" cy="784908"/>
+          <a:off x="452880" y="14204577"/>
+          <a:ext cx="3879862" cy="764323"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="694267"/>
         </a:xfrm>
@@ -2691,430 +2568,351 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>87204</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>116700</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>264563</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>37131</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>35278</xdr:colOff>
-      <xdr:row>138</xdr:row>
-      <xdr:rowOff>70555</xdr:rowOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>254754</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>109482</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="30" name="図形グループ 21">
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="テキスト ボックス 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28428462-6281-4832-A485-648DFC27D288}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AB7A908-23AF-438D-97D1-A50BC049AFCE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGrpSpPr>
-          <a:grpSpLocks/>
-        </xdr:cNvGrpSpPr>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr bwMode="auto">
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5935888" y="16927489"/>
-          <a:ext cx="4404215" cy="4944733"/>
-          <a:chOff x="326614" y="2353733"/>
-          <a:chExt cx="4574286" cy="873360"/>
+          <a:off x="5957666" y="16711355"/>
+          <a:ext cx="5113985" cy="5283730"/>
         </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="31" name="テキスト ボックス 30">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABB71084-2B1E-4FD6-8212-C3DE2E642552}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="338666" y="2353733"/>
-            <a:ext cx="4562234" cy="144281"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
           <a:solidFill>
-            <a:schemeClr val="lt1"/>
+            <a:schemeClr val="tx1"/>
           </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-              <a:t>(</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
-              <a:t>映画モデル</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-              <a:t>)</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-              <a:t>(c)movie.model.</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
-              <a:t>Movie</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-              <a:t>Model</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="32" name="テキスト ボックス 31">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AB7A908-23AF-438D-97D1-A50BC049AFCE}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="338666" y="2584910"/>
-            <a:ext cx="4526082" cy="642183"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="lt1"/>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-              <a:t>                                               </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-              <a:t>(</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
-              <a:t>映画一覧処理、映画詳細処理</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-              <a:t>)</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-              <a:t>+ getMovieList() : List&lt;MovieListBeans&gt;</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-              <a:t>(</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
-              <a:t>映画予約処理</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-              <a:t>)</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-              <a:t>+ appointMovie(UserInfoBeans.getUserId) : void</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-              <a:t>(</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
-              <a:t>管理者映画登録処理</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-              <a:t>)       </a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-              <a:t>+</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
-              <a:t> adminRegistMovie(AdminInfoBeans.getAdminId) : void</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-              <a:t>   </a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-              <a:t>(</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
-              <a:t>既知映画予約確認処理</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-              <a:t>)</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-              <a:t>+knownAppointMovie(UserInfoBeans.getUserId) : AppointBeans</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-              <a:t>(</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
-              <a:t>管理者映画更新処理</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-              <a:t>)</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-              <a:t>+adminUpdateMovie(AdminInfoBeans.getAdminId)</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
-              <a:t> : void</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
-              <a:t>(</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" baseline="0"/>
-              <a:t>管理者映画削除処理</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
-              <a:t>)</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
-              <a:t>+adminDeleteMovie(AdminInfoBeans.getAdminId) : void</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
-              <a:t>(</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" baseline="0"/>
-              <a:t>管理者映画状況確認処理</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
-              <a:t>)</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
-              <a:t>+adminCheckMovie(AdminInfoBeans.getAdminId) : MovieListBeans</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="33" name="テキスト ボックス 32">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA8E992A-4965-44A7-AAD9-0AC896AA02B3}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="326614" y="2517413"/>
-            <a:ext cx="4574286" cy="48422"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="lt1"/>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>                                               </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+            <a:t>映画モデル</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>(c)movie.model. MovieModel</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+            <a:t>映画一覧処理、映画詳細処理</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>+ getMovieList() : List&lt;MovieListBeans&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+            <a:t>ユーザー映画予約処理</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>+ appointMovie(UserId : int,movieId : int, movieDate : Date,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>   movieTime : Timestamp,movieSeat : String,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>   movieName : String,movieFee : int , movieTheater : String, movieScreen : String) : void</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+            <a:t>管理者映画登録処理</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>)       </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>+</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+            <a:t> registAdminMovie(movieId: int, movieName : String, movieGenre: String, movieCast : String, movieSummary:String , adminId : int, movieStartDate : Date , movieEndDate : Date ) : void</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>   </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+            <a:t>既知映画予約確認処理</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>+appointKnownMovie(userId :</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+            <a:t> int</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>) : AppointBeans</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+            <a:t>管理者映画更新処理</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>+updateAdminMovie(adminId : int,MovieName</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+            <a:t> : String,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+            <a:t>  MovieGenre : String, MovieCast : String,MovieSummary : String</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+            <a:t> : void</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" baseline="0"/>
+            <a:t>管理者映画削除処理</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+            <a:t>+deleteAdminMovie(movieId : int,movieName : String, movieGenre: String, movieCast : String, movieSummary:String , adminId : int , movieStartDate : Date , movieEndDate : Date)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+            <a:t> : void</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" baseline="0"/>
+            <a:t>管理者映画状況確認処理</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+            <a:t>+checkAdminMovie(adminId : int) : MovieListBeans</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>40</xdr:col>
+      <xdr:col>41</xdr:col>
       <xdr:colOff>242239</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>104120</xdr:rowOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>60327</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>70553</xdr:colOff>
-      <xdr:row>122</xdr:row>
-      <xdr:rowOff>23517</xdr:rowOff>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>111403</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>22281</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -3131,8 +2929,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="11382590" y="15511225"/>
-          <a:ext cx="3170419" cy="3818520"/>
+          <a:off x="11561804" y="16018153"/>
+          <a:ext cx="3458295" cy="5884019"/>
           <a:chOff x="338666" y="2385101"/>
           <a:chExt cx="4538133" cy="559317"/>
         </a:xfrm>
@@ -3185,6 +2983,14 @@
           <a:p>
             <a:pPr algn="ctr"/>
             <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>予約ビーンズ</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
               <a:t>(c)movie.beans.AppointBeans</a:t>
             </a:r>
@@ -3244,7 +3050,7 @@
             </a:pPr>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-              <a:t>+ getMovieId() : int</a:t>
+              <a:t>+ getUserId() : int</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -3255,7 +3061,7 @@
             </a:pPr>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-              <a:t>+ setMovieId() : void</a:t>
+              <a:t>+ setUserId(userId : int) : void</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -3266,11 +3072,7 @@
             </a:pPr>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-              <a:t>+</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
-              <a:t> getMovieDate() : Date</a:t>
+              <a:t>+ getMovieId() : int</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -3280,8 +3082,8 @@
               </a:lnSpc>
             </a:pPr>
             <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
-              <a:t>+ setMovieDate() : void</a:t>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>+ setMovieId(movieId : int) : void</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -3291,8 +3093,12 @@
               </a:lnSpc>
             </a:pPr>
             <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+              <a:t>+</a:t>
+            </a:r>
+            <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
-              <a:t>+ getMovieTime() : TimeStamp</a:t>
+              <a:t> getMovieDate() : Date</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -3303,7 +3109,7 @@
             </a:pPr>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
-              <a:t>+ setMovieTime() : void</a:t>
+              <a:t>+ setMovieDate(movieDate : Date) : void</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -3314,7 +3120,7 @@
             </a:pPr>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
-              <a:t>+ getMovieSeat() : String</a:t>
+              <a:t>+ getMovieTime() : TimeStamp</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -3325,7 +3131,7 @@
             </a:pPr>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
-              <a:t>+ setMovieSeat() : void</a:t>
+              <a:t>+ setMovieTime(movieTime : TimeStamp) : void</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -3336,7 +3142,7 @@
             </a:pPr>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
-              <a:t>+ getMovieName() : String</a:t>
+              <a:t>+ getMovieSeat() : String</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -3347,8 +3153,111 @@
             </a:pPr>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
-              <a:t>+ setMovieName() : void</a:t>
-            </a:r>
+              <a:t>+ setMovieSeat(movieSeat : String) : void</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l">
+              <a:lnSpc>
+                <a:spcPts val="1100"/>
+              </a:lnSpc>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+              <a:t>+ getMovieName() : String</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l">
+              <a:lnSpc>
+                <a:spcPts val="1100"/>
+              </a:lnSpc>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+              <a:t>+ setMovieName(movieName : string) : void</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l">
+              <a:lnSpc>
+                <a:spcPts val="1100"/>
+              </a:lnSpc>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+              <a:t>+ getMovieFee() : int</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l">
+              <a:lnSpc>
+                <a:spcPts val="1100"/>
+              </a:lnSpc>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+              <a:t>+ setMovieFee(movieFee : int) : void</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l">
+              <a:lnSpc>
+                <a:spcPts val="1100"/>
+              </a:lnSpc>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+              <a:t>+ getMovieTheater() : String</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l">
+              <a:lnSpc>
+                <a:spcPts val="1100"/>
+              </a:lnSpc>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+              <a:t>+ setMovieTheater(movieTheater : String) : void</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l">
+              <a:lnSpc>
+                <a:spcPts val="1100"/>
+              </a:lnSpc>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+              <a:t>+ getMovieScreen() : String</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l">
+              <a:lnSpc>
+                <a:spcPts val="1100"/>
+              </a:lnSpc>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+              <a:t>+ setMovieScreen(movieScreen : String) : void</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l">
+              <a:lnSpc>
+                <a:spcPts val="1100"/>
+              </a:lnSpc>
+            </a:pPr>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l">
+              <a:lnSpc>
+                <a:spcPts val="1100"/>
+              </a:lnSpc>
+            </a:pPr>
             <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
           </a:p>
         </xdr:txBody>
@@ -3401,7 +3310,7 @@
           <a:p>
             <a:r>
               <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>- movieId</a:t>
+              <a:t>- userId</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
@@ -3412,6 +3321,17 @@
           <a:p>
             <a:r>
               <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>- movieId</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t> : int</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
               <a:t>- movieDate : Date</a:t>
             </a:r>
           </a:p>
@@ -3435,6 +3355,24 @@
             <a:r>
               <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
               <a:t>- movieName : String</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t>- movieFee : int</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t>- movieTheater : String</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t>- movieScreen : String</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" altLang="ja-JP"/>
           </a:p>
@@ -3452,16 +3390,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>55</xdr:col>
-      <xdr:colOff>11758</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>47473</xdr:rowOff>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>208827</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>47472</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>67</xdr:col>
-      <xdr:colOff>150090</xdr:colOff>
-      <xdr:row>121</xdr:row>
-      <xdr:rowOff>92364</xdr:rowOff>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>233947</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>44560</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -3478,8 +3416,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="15329740" y="14518789"/>
-          <a:ext cx="3480438" cy="4723838"/>
+          <a:off x="15117523" y="16005298"/>
+          <a:ext cx="3338163" cy="5159914"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="599462"/>
         </a:xfrm>
@@ -3532,6 +3470,14 @@
           <a:p>
             <a:pPr algn="ctr"/>
             <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+              <a:t>映画ビーンズ</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
               <a:t>(c)movie.beans.MovieListBeans</a:t>
             </a:r>
@@ -3661,20 +3607,6 @@
             <a:pPr algn="l"/>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
-              <a:t>+ getMovieSeat() : String</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
-              <a:t>+ setMovieSeat() : void</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
               <a:t>+ getAdminId() : int</a:t>
             </a:r>
           </a:p>
@@ -3683,6 +3615,34 @@
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
               <a:t>+ setAdminId() : void</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+              <a:t>+ getMovieStartDate() : Date</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+              <a:t>+ setMovieStartDate(movieStartDate : Date) : void</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+              <a:t>+ getMovieEndDate() : Date</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+              <a:t>+ setMovieEndDate(movieEndDate : Date) : void</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -3773,13 +3733,19 @@
           <a:p>
             <a:r>
               <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
-              <a:t>- movieSeat : String</a:t>
+              <a:t>- adminId : int</a:t>
             </a:r>
           </a:p>
           <a:p>
             <a:r>
               <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
-              <a:t>- adminId : int</a:t>
+              <a:t>- movieStartDate : Date</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t>- movieEndDate : Date</a:t>
             </a:r>
             <a:endParaRPr lang="ja-JP" altLang="en-US"/>
           </a:p>
@@ -3816,8 +3782,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="199908" y="22116418"/>
-          <a:ext cx="4155760" cy="1338970"/>
+          <a:off x="199908" y="21579018"/>
+          <a:ext cx="4119432" cy="1306032"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="886539"/>
         </a:xfrm>
@@ -4043,13 +4009,13 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>200267</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>2706</xdr:rowOff>
+      <xdr:rowOff>528</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>152427</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>145848</xdr:rowOff>
+      <xdr:colOff>175240</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>3649</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4062,13 +4028,13 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="5" idx="3"/>
-          <a:endCxn id="13" idx="1"/>
+          <a:endCxn id="12" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4151378" y="5567775"/>
-          <a:ext cx="1081049" cy="1792379"/>
+          <a:off x="4185439" y="5638890"/>
+          <a:ext cx="1113594" cy="2148983"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4100,13 +4066,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>22526</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>58796</xdr:rowOff>
+      <xdr:colOff>22545</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>43793</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>138407</xdr:colOff>
+      <xdr:colOff>208444</xdr:colOff>
       <xdr:row>74</xdr:row>
       <xdr:rowOff>100573</xdr:rowOff>
     </xdr:to>
@@ -4126,8 +4092,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="6949799" y="11153978"/>
-          <a:ext cx="3163881" cy="341959"/>
+          <a:off x="7138924" y="10893534"/>
+          <a:ext cx="3317106" cy="823160"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4161,13 +4127,13 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>171701</xdr:colOff>
       <xdr:row>86</xdr:row>
-      <xdr:rowOff>53913</xdr:rowOff>
+      <xdr:rowOff>53912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>87204</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>89094</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>264563</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>73306</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4180,13 +4146,13 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="23" idx="3"/>
-          <a:endCxn id="33" idx="1"/>
+          <a:endCxn id="32" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4405034" y="13494746"/>
-          <a:ext cx="1608837" cy="4162681"/>
+          <a:off x="4441529" y="13509343"/>
+          <a:ext cx="1516137" cy="5843877"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4220,13 +4186,13 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>191438</xdr:colOff>
       <xdr:row>93</xdr:row>
-      <xdr:rowOff>124686</xdr:rowOff>
+      <xdr:rowOff>124829</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>87204</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>89094</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>264563</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>73306</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4239,13 +4205,13 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="29" idx="3"/>
-          <a:endCxn id="33" idx="1"/>
+          <a:endCxn id="32" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4424771" y="14635612"/>
-          <a:ext cx="1589100" cy="3021815"/>
+          <a:off x="4461266" y="14653191"/>
+          <a:ext cx="1496400" cy="4700029"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4276,16 +4242,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>156396</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>133683</xdr:rowOff>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>37567</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>22281</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
-      <xdr:colOff>211177</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>104120</xdr:rowOff>
+      <xdr:colOff>156852</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>60327</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4303,8 +4269,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="12967800" y="14293069"/>
-          <a:ext cx="1447324" cy="1218156"/>
+          <a:off x="13405988" y="11530263"/>
+          <a:ext cx="954811" cy="4872959"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4336,15 +4302,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>51</xdr:col>
-      <xdr:colOff>211177</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>133683</xdr:rowOff>
+      <xdr:colOff>156852</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>22281</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>61</xdr:col>
-      <xdr:colOff>80924</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>47473</xdr:rowOff>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>221388</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>47472</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4362,8 +4328,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14415124" y="14293069"/>
-          <a:ext cx="2654835" cy="225720"/>
+          <a:off x="14360799" y="11530263"/>
+          <a:ext cx="2571115" cy="4860104"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4420,8 +4386,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="10678584" y="3827329"/>
-          <a:ext cx="2262172" cy="3164021"/>
+          <a:off x="10586555" y="3775744"/>
+          <a:ext cx="2242797" cy="3077563"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="1068888"/>
         </a:xfrm>
@@ -4669,823 +4635,506 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>88439</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>105670</xdr:rowOff>
+      <xdr:colOff>143181</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>35521</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
-      <xdr:colOff>211667</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>58796</xdr:rowOff>
+      <xdr:colOff>273707</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>43793</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="56" name="図形グループ 21">
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="テキスト ボックス 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8E2DFF6-05B9-4800-9568-F58A323BF0B8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE18C108-1542-449D-AECC-18279663D9B8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGrpSpPr>
-          <a:grpSpLocks/>
-        </xdr:cNvGrpSpPr>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr bwMode="auto">
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8722211" y="7402600"/>
-          <a:ext cx="2908316" cy="4164178"/>
-          <a:chOff x="338664" y="2353733"/>
-          <a:chExt cx="4574954" cy="999369"/>
+          <a:off x="8967491" y="7513193"/>
+          <a:ext cx="2977078" cy="3380341"/>
         </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="57" name="テキスト ボックス 56">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BC76703-CE52-4263-A3A3-A3B6521C29C4}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="338664" y="2353733"/>
-            <a:ext cx="4574954" cy="170305"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
           <a:solidFill>
-            <a:schemeClr val="lt1"/>
+            <a:schemeClr val="tx1"/>
           </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-              <a:t>(</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
-              <a:t>ユーザーダオ</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-              <a:t>)</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-              <a:t>(c)movie.dao.UserDao</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="58" name="テキスト ボックス 57">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE18C108-1542-449D-AECC-18279663D9B8}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="338666" y="2638775"/>
-            <a:ext cx="4538131" cy="714327"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="lt1"/>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
-              <a:t>                             (</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" baseline="0"/>
-              <a:t>新規会員登録処理</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
-              <a:t>)</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
-              <a:t>+createNewUser(mail : String, name : String,</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
-              <a:t> sex : String, birthday : String, password : String) : void</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-              <a:t>                              (</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
-              <a:t>ログイン処理</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-              <a:t>)</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-              <a:t>+  getFromUser(String mail,String password):          UserInfoBeans</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-              <a:t>                              (</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
-              <a:t>会員情報変更処理</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-              <a:t>) </a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-              <a:t>+updateUser(mail : String, name : String,password : String) : UserInfoBeans</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-              <a:t>                               (</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
-              <a:t>退会処理</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-              <a:t>)</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-              <a:t>+deleteUser(mail : String, name : String, sex : String, </a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-              <a:t>birthday : String, password : String) : void</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="59" name="テキスト ボックス 58">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B045EFDA-2E8B-4DAB-9C73-D9D41572A6B0}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="338666" y="2549253"/>
-            <a:ext cx="4538133" cy="55180"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="lt1"/>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+            <a:t>                             </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" baseline="0"/>
+            <a:t>ユーザーダオ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+            <a:t>(c)movie.dao.UserDao</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" baseline="0"/>
+            <a:t>新規会員登録処理</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+            <a:t>+createNewUser(mail : String, name : String,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+            <a:t> sex : String, birthday : String, password : String) : void</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>                              (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+            <a:t>ログイン処理</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>+  getFromUser(String mail,String password):          UserInfoBeans</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>                              (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+            <a:t>会員情報変更処理</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>+updateUser(mail : String, name : String,password : String) : UserInfoBeans</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>                               (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+            <a:t>退会処理</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>+deleteUser(mail : String, name : String, sex : String, </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>birthday : String, password : String) : void</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>45</xdr:col>
-      <xdr:colOff>10160</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>13245</xdr:rowOff>
+      <xdr:colOff>12913</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>88313</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>58</xdr:col>
-      <xdr:colOff>133684</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>133683</xdr:rowOff>
+      <xdr:colOff>22280</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>22281</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="190" name="グループ化 189">
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="テキスト ボックス 66">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91C24DB5-EBA3-1848-8ECC-C7DA1FC65B88}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{540043E7-7A9F-4A35-8B25-5A781403E591}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="12543055" y="7778070"/>
-          <a:ext cx="3744138" cy="6514999"/>
-          <a:chOff x="12502144" y="7490919"/>
-          <a:chExt cx="4070781" cy="1357762"/>
+          <a:off x="12545808" y="8009102"/>
+          <a:ext cx="3629981" cy="3521161"/>
         </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="66" name="テキスト ボックス 65">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF3977D5-0B2C-4F94-A82C-065474F34ED8}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="12502144" y="7490919"/>
-            <a:ext cx="4070781" cy="243488"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
           <a:solidFill>
-            <a:schemeClr val="bg1"/>
+            <a:schemeClr val="tx1"/>
           </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-              <a:t>(</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
-              <a:t>映画ダオ</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-              <a:t>)</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-              <a:t>(c)movie.dao.MovieDao</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="67" name="テキスト ボックス 66">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{540043E7-7A9F-4A35-8B25-5A781403E591}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="12516728" y="7896754"/>
-            <a:ext cx="4041613" cy="951927"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr">
-              <a:lnSpc>
-                <a:spcPts val="1000"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-              <a:t>(</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
-              <a:t>管理者映画登録処理</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-              <a:t>)</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l">
-              <a:lnSpc>
-                <a:spcPts val="1000"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-              <a:t>+  insertMovie( movieId: int,</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
-              <a:t> movieName</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-              <a:t> : String,</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l">
-              <a:lnSpc>
-                <a:spcPts val="1000"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
-              <a:t>     movieGenre</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-              <a:t>: String, movieCast : String, movieSummary</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
-              <a:t> :                String, movieSeat : String, adminId : int </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-              <a:t> ) : void</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l">
-              <a:lnSpc>
-                <a:spcPts val="1000"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr">
-              <a:lnSpc>
-                <a:spcPts val="1000"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-              <a:t>(</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
-              <a:t>映画一覧処理、映画詳細処理</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-              <a:t>)</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l">
-              <a:lnSpc>
-                <a:spcPts val="1000"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-              <a:t>+ getMovieList() :List&lt;GatchaListBeans&gt; </a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l">
-              <a:lnSpc>
-                <a:spcPts val="1000"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr">
-              <a:lnSpc>
-                <a:spcPts val="1000"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-              <a:t>(</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
-              <a:t>ユーザー映画予約処理</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-              <a:t>)</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l">
-              <a:lnSpc>
-                <a:spcPts val="1000"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-              <a:t>+insertMovieAppoint(movieId : int, movieDate : Date,</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l">
-              <a:lnSpc>
-                <a:spcPts val="1000"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-              <a:t>   movieTime : Timestamp,movieSeat : String,</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l">
-              <a:lnSpc>
-                <a:spcPts val="1000"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-              <a:t>   movieName : String) : void</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-              <a:t>(</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
-              <a:t>既知映画予約確認処理</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-              <a:t>)</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-              <a:t>+knownAppointMovie(UserInfoBeans.getUserId)</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
-              <a:t> :</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
-              <a:t>AppointBeans</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
-              <a:t>(</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" baseline="0"/>
-              <a:t>予約取り消し処理</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
-              <a:t>)</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
-              <a:t>+deleteAppointMovie(UserInfoBeans.getUserId) : void</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
-              <a:t>(</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" baseline="0"/>
-              <a:t>管理者映画情報更新処理</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
-              <a:t>)</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
-              <a:t>+updateMovie(AdminInfoBeans.getAdminId) : void</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
-              <a:t>(</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" baseline="0"/>
-              <a:t>管理者映画予約削除処理</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
-              <a:t>)</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
-              <a:t>+deleteMovie(AdminInfoBeans.getAdminId) : void</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="68" name="テキスト ボックス 67">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92B0E46F-9FD6-40FB-B4FA-F164074950CF}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="12516728" y="7768343"/>
-            <a:ext cx="4041615" cy="88064"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPts val="1000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+            <a:t>映画ダオ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPts val="1000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>(c)movie.dao.MovieDao</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPts val="1000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPts val="1000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPts val="1000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+            <a:t>管理者映画登録処理</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>+  insertMovie( movieId: int,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+            <a:t> movieName</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t> : String,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+            <a:t>     movieGenre</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>: String, movieCast : String, movieSummary</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+            <a:t> :                String, movieSeat : String, adminId : int </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t> ) : void</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPts val="1000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+            <a:t>映画一覧処理、映画詳細処理</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>+ getMovieList() :List&lt;GatchaListBeans&gt; </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" baseline="0"/>
+            <a:t>管理者映画情報更新処理</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+            <a:t>+updateMovie(adminId : int,MovieName : String,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+            <a:t>  MovieGenre : String, MovieCast : String,MovieSummary : String) :   void</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" baseline="0"/>
+            <a:t>管理者映画予約削除処理</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+            <a:t>+deleteMovie(adminId : int) : void</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>24149</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>147277</xdr:rowOff>
+      <xdr:colOff>10948</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>3649</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>88440</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>99452</xdr:rowOff>
+      <xdr:colOff>143181</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>39657</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5497,14 +5146,14 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="13" idx="3"/>
-          <a:endCxn id="59" idx="1"/>
+          <a:stCxn id="12" idx="3"/>
+          <a:endCxn id="58" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8208593" y="7473296"/>
-          <a:ext cx="628736" cy="716526"/>
+          <a:off x="8265948" y="7787873"/>
+          <a:ext cx="701543" cy="1415491"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5535,16 +5184,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>35278</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>33359</xdr:rowOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>254754</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>133279</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>45</xdr:col>
-      <xdr:colOff>23574</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>88735</xdr:rowOff>
+      <xdr:colOff>12913</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>73306</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5556,14 +5205,14 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="33" idx="3"/>
+          <a:stCxn id="32" idx="3"/>
           <a:endCxn id="67" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="10340103" y="12009236"/>
-          <a:ext cx="2216366" cy="5982043"/>
+          <a:off x="10838087" y="9769683"/>
+          <a:ext cx="1707721" cy="9921781"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5620,8 +5269,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="159490" y="6303064"/>
-          <a:ext cx="3957796" cy="796774"/>
+          <a:off x="159490" y="6185606"/>
+          <a:ext cx="3923890" cy="776189"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="694267"/>
         </a:xfrm>
@@ -5810,13 +5459,13 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>218163</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>8268</xdr:rowOff>
+      <xdr:rowOff>6091</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>152427</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>145848</xdr:rowOff>
+      <xdr:colOff>175240</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>3649</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5829,13 +5478,13 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="72" idx="3"/>
-          <a:endCxn id="13" idx="1"/>
+          <a:endCxn id="12" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4169274" y="6472921"/>
-          <a:ext cx="1063153" cy="887233"/>
+          <a:off x="4203335" y="6564108"/>
+          <a:ext cx="1095698" cy="1223765"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5892,8 +5541,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="187785" y="3018204"/>
-          <a:ext cx="3934645" cy="786738"/>
+          <a:off x="187785" y="2987205"/>
+          <a:ext cx="3900739" cy="766152"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="694267"/>
         </a:xfrm>
@@ -6108,8 +5757,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="441332" y="15553460"/>
-          <a:ext cx="3916884" cy="770634"/>
+          <a:off x="438910" y="15193094"/>
+          <a:ext cx="3882978" cy="750048"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="694267"/>
         </a:xfrm>
@@ -6301,13 +5950,13 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>213090</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>111985</xdr:rowOff>
+      <xdr:rowOff>113015</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>152427</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>145848</xdr:rowOff>
+      <xdr:colOff>175240</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>3649</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6320,13 +5969,13 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="21" idx="3"/>
-          <a:endCxn id="13" idx="1"/>
+          <a:endCxn id="12" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4164201" y="4627541"/>
-          <a:ext cx="1068226" cy="2732613"/>
+          <a:off x="4198262" y="4678446"/>
+          <a:ext cx="1100771" cy="3109427"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -6383,8 +6032,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="430475" y="12655724"/>
-          <a:ext cx="3865572" cy="708983"/>
+          <a:off x="428053" y="12369465"/>
+          <a:ext cx="3831666" cy="692516"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="694267"/>
         </a:xfrm>
@@ -6599,8 +6248,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="195385" y="2158968"/>
-          <a:ext cx="3890240" cy="748195"/>
+          <a:off x="195385" y="2148554"/>
+          <a:ext cx="3856334" cy="731727"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="694267"/>
         </a:xfrm>
@@ -6815,8 +6464,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="274471" y="9152955"/>
-          <a:ext cx="3854717" cy="726224"/>
+          <a:off x="274471" y="8961389"/>
+          <a:ext cx="3820811" cy="705639"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="694267"/>
         </a:xfrm>
@@ -7008,13 +6657,13 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>118415</xdr:colOff>
       <xdr:row>81</xdr:row>
-      <xdr:rowOff>71757</xdr:rowOff>
+      <xdr:rowOff>71693</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>87204</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>89094</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>264563</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>73306</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7027,13 +6676,13 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="88" idx="3"/>
-          <a:endCxn id="33" idx="1"/>
+          <a:endCxn id="32" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4351748" y="12748238"/>
-          <a:ext cx="1662123" cy="4909189"/>
+          <a:off x="4388243" y="12760745"/>
+          <a:ext cx="1569423" cy="6592475"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -7090,8 +6739,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="266433" y="10038437"/>
-          <a:ext cx="3872479" cy="711239"/>
+          <a:off x="266433" y="9822169"/>
+          <a:ext cx="3838573" cy="690653"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="694267"/>
         </a:xfrm>
@@ -7283,13 +6932,13 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>180584</xdr:colOff>
       <xdr:row>100</xdr:row>
-      <xdr:rowOff>36279</xdr:rowOff>
+      <xdr:rowOff>35999</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>87204</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>89094</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>264563</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>73306</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7302,13 +6951,13 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="81" idx="3"/>
-          <a:endCxn id="33" idx="1"/>
+          <a:endCxn id="32" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4413917" y="15617298"/>
-          <a:ext cx="1599954" cy="2040129"/>
+          <a:off x="4450412" y="15637292"/>
+          <a:ext cx="1507254" cy="3715928"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -7365,8 +7014,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="408766" y="16540305"/>
-          <a:ext cx="3916884" cy="769645"/>
+          <a:off x="406344" y="16151119"/>
+          <a:ext cx="3882978" cy="749060"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="694267"/>
         </a:xfrm>
@@ -7558,13 +7207,13 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>148018</xdr:colOff>
       <xdr:row>106</xdr:row>
-      <xdr:rowOff>83784</xdr:rowOff>
+      <xdr:rowOff>83909</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>87204</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>89094</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>264563</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>73306</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7577,13 +7226,13 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="116" idx="3"/>
-          <a:endCxn id="33" idx="1"/>
+          <a:endCxn id="32" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4381351" y="16582025"/>
-          <a:ext cx="1632520" cy="1075402"/>
+          <a:off x="4417846" y="16604857"/>
+          <a:ext cx="1539820" cy="2748363"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -7640,8 +7289,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="268589" y="17474340"/>
-          <a:ext cx="4245037" cy="934653"/>
+          <a:off x="268589" y="17060452"/>
+          <a:ext cx="4206288" cy="909950"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="694267"/>
         </a:xfrm>
@@ -7833,13 +7482,13 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>140124</xdr:colOff>
       <xdr:row>76</xdr:row>
-      <xdr:rowOff>1848</xdr:rowOff>
+      <xdr:rowOff>1569</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>87204</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>89094</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>264563</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>73306</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7852,13 +7501,13 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="141" idx="3"/>
-          <a:endCxn id="33" idx="1"/>
+          <a:endCxn id="32" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4373457" y="11913978"/>
-          <a:ext cx="1640414" cy="5743449"/>
+          <a:off x="4409952" y="11924241"/>
+          <a:ext cx="1547714" cy="7428979"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -7890,15 +7539,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>57486</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>3888</xdr:rowOff>
+      <xdr:colOff>46538</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>134554</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>87204</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>89094</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>264563</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>73306</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7910,14 +7559,13 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="121" idx="3"/>
-          <a:endCxn id="33" idx="1"/>
+          <a:endCxn id="32" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4573042" y="17572221"/>
-          <a:ext cx="1440829" cy="85206"/>
+          <a:off x="4601021" y="17575157"/>
+          <a:ext cx="1356645" cy="1778063"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -7974,8 +7622,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="184530" y="18658483"/>
-          <a:ext cx="4377117" cy="895150"/>
+          <a:off x="184530" y="18215775"/>
+          <a:ext cx="4338368" cy="870448"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="694267"/>
         </a:xfrm>
@@ -8190,8 +7838,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="379153" y="19830915"/>
-          <a:ext cx="3914626" cy="770632"/>
+          <a:off x="376731" y="19355270"/>
+          <a:ext cx="3880720" cy="750047"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="694267"/>
         </a:xfrm>
@@ -8406,8 +8054,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="225170" y="20904433"/>
-          <a:ext cx="4317807" cy="1005781"/>
+          <a:off x="225170" y="20399969"/>
+          <a:ext cx="4279058" cy="981078"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="694267"/>
         </a:xfrm>
@@ -8598,14 +8246,14 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>105507</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>89094</xdr:rowOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>77951</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>87204</xdr:colOff>
-      <xdr:row>120</xdr:row>
-      <xdr:rowOff>78045</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>264563</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>73306</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8618,13 +8266,13 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="126" idx="3"/>
-          <a:endCxn id="33" idx="1"/>
+          <a:endCxn id="32" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4621063" y="17657427"/>
-          <a:ext cx="1392808" cy="1059044"/>
+        <a:xfrm>
+          <a:off x="4659990" y="18744761"/>
+          <a:ext cx="1297676" cy="608459"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -8657,14 +8305,14 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>116147</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>89094</xdr:rowOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>73306</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>87204</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>264563</xdr:colOff>
       <xdr:row>127</xdr:row>
-      <xdr:rowOff>99587</xdr:rowOff>
+      <xdr:rowOff>99712</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8677,13 +8325,13 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="130" idx="3"/>
-          <a:endCxn id="33" idx="1"/>
+          <a:endCxn id="32" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4349480" y="17657427"/>
-          <a:ext cx="1664391" cy="2150679"/>
+          <a:off x="4385975" y="19353220"/>
+          <a:ext cx="1571691" cy="486233"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -8714,132 +8362,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>150054</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>6351</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>86837</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>73306</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>211178</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>13245</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="198" name="グループ化 197">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E563478-CD69-874D-8640-716415AF4AC1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="10176370" y="6991351"/>
-          <a:ext cx="4238755" cy="786719"/>
-          <a:chOff x="10398415" y="6870920"/>
-          <a:chExt cx="4333848" cy="773273"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="178" name="カギ線コネクタ 177">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F30F8464-DCA5-6844-AA14-176A56B31962}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr>
-            <a:stCxn id="57" idx="0"/>
-            <a:endCxn id="54" idx="2"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="5400000" flipH="1" flipV="1">
-            <a:off x="11030314" y="6239021"/>
-            <a:ext cx="406126" cy="1669923"/>
-          </a:xfrm>
-          <a:prstGeom prst="bentConnector3">
-            <a:avLst>
-              <a:gd name="adj1" fmla="val 50000"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:ln w="15875">
-            <a:tailEnd type="triangle"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="192" name="カギ線コネクタ 191">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC996EAB-18E7-974A-B8E0-FA5328708DF4}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr>
-            <a:endCxn id="66" idx="0"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="12061814" y="7076776"/>
-            <a:ext cx="2670449" cy="567417"/>
-          </a:xfrm>
-          <a:prstGeom prst="bentConnector2">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="15875"/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>86837</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>89094</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>87204</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>264563</xdr:colOff>
       <xdr:row>135</xdr:row>
-      <xdr:rowOff>35582</xdr:rowOff>
+      <xdr:rowOff>35488</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8852,13 +8384,13 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="134" idx="3"/>
-          <a:endCxn id="33" idx="1"/>
+          <a:endCxn id="32" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4602393" y="17657427"/>
-          <a:ext cx="1411478" cy="3309636"/>
+          <a:off x="4641320" y="19353220"/>
+          <a:ext cx="1316346" cy="1648216"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -8915,8 +8447,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="452184" y="11802279"/>
-          <a:ext cx="3865572" cy="713417"/>
+          <a:off x="449762" y="11540723"/>
+          <a:ext cx="3831666" cy="692831"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="694267"/>
         </a:xfrm>
@@ -9131,8 +8663,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4350352" y="1417142"/>
-          <a:ext cx="5884206" cy="770339"/>
+          <a:off x="4314024" y="1416657"/>
+          <a:ext cx="5833348" cy="760410"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="694267"/>
         </a:xfrm>
@@ -9347,8 +8879,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="274320" y="10778958"/>
-          <a:ext cx="3872479" cy="707674"/>
+          <a:off x="274320" y="10542104"/>
+          <a:ext cx="3838573" cy="691206"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="694267"/>
         </a:xfrm>
@@ -9563,8 +9095,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4353315" y="2313250"/>
-          <a:ext cx="5907357" cy="796773"/>
+          <a:off x="4316987" y="2298719"/>
+          <a:ext cx="5856499" cy="776188"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="694267"/>
         </a:xfrm>
@@ -9776,8 +9308,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4368132" y="3202294"/>
-          <a:ext cx="5884206" cy="786737"/>
+          <a:off x="4331804" y="3167178"/>
+          <a:ext cx="5833348" cy="766151"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="694267"/>
         </a:xfrm>
@@ -9968,14 +9500,14 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>212899</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>147049</xdr:rowOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>3649</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>152427</xdr:colOff>
+      <xdr:colOff>175240</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>134659</xdr:rowOff>
+      <xdr:rowOff>134925</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -9988,13 +9520,13 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="161" idx="3"/>
-          <a:endCxn id="13" idx="1"/>
+          <a:endCxn id="12" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4195619" y="7502889"/>
-          <a:ext cx="1077448" cy="749610"/>
+          <a:off x="4198071" y="7787873"/>
+          <a:ext cx="1100962" cy="437828"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -10051,8 +9583,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="177377" y="8005880"/>
-          <a:ext cx="3934645" cy="786737"/>
+          <a:off x="177377" y="7843134"/>
+          <a:ext cx="3900739" cy="766152"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="694267"/>
         </a:xfrm>
@@ -10267,8 +9799,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8687815" y="12083962"/>
-          <a:ext cx="1978357" cy="4446051"/>
+          <a:off x="8612739" y="11814172"/>
+          <a:ext cx="1961404" cy="4326655"/>
           <a:chOff x="356337" y="2309970"/>
           <a:chExt cx="4449848" cy="516142"/>
         </a:xfrm>
@@ -10518,13 +10050,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>207582</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>58796</xdr:rowOff>
+      <xdr:colOff>211380</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>43793</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>138407</xdr:colOff>
+      <xdr:colOff>208444</xdr:colOff>
       <xdr:row>75</xdr:row>
       <xdr:rowOff>108085</xdr:rowOff>
     </xdr:to>
@@ -10544,8 +10076,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="9628673" y="11153978"/>
-          <a:ext cx="485007" cy="499562"/>
+          <a:off x="9889656" y="10893534"/>
+          <a:ext cx="566374" cy="983948"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -10602,8 +10134,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="172720" y="7161285"/>
-          <a:ext cx="3939653" cy="792143"/>
+          <a:off x="172720" y="7019124"/>
+          <a:ext cx="3905747" cy="771558"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="694267"/>
         </a:xfrm>
@@ -10795,13 +10327,13 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>213250</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>79317</xdr:rowOff>
+      <xdr:rowOff>79623</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>152427</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>147049</xdr:rowOff>
+      <xdr:colOff>175240</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>3649</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -10814,13 +10346,499 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="174" idx="3"/>
-          <a:endCxn id="13" idx="1"/>
+          <a:endCxn id="12" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4195970" y="7435157"/>
-          <a:ext cx="1077097" cy="67732"/>
+          <a:off x="4198422" y="7404020"/>
+          <a:ext cx="1100611" cy="383853"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>177801</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>55479</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>66843</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>111404</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="202" name="テキスト ボックス 201">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A72C5BC3-EE66-FF4F-A094-DCCF0155628A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16888327" y="7976268"/>
+          <a:ext cx="2674130" cy="3643118"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+            <a:t>                             </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" baseline="0"/>
+            <a:t>予約ダオ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+            <a:t>(c)movie.dao.AppointDao</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" baseline="0"/>
+            <a:t>ユーザー映画予約処理</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+            <a:t>+insertMovieAppoint(userId : int , movieId : int, movieDate : Date,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+            <a:t>   movieTime : Timestamp,movieSeat : String,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+            <a:t>   movieName : String) : void</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" baseline="0"/>
+            <a:t>既知映画予約確認処理</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+            <a:t>+appointMovieKnown(userId : int) :</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+            <a:t>AppointBeans</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" baseline="0"/>
+            <a:t>予約取り消し処理</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+            <a:t>+deleteMovieAppoint(userId : int) : void</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>208443</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>6351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>122322</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>88313</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="212" name="グループ化 211">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54C55306-FD9B-9744-AC1C-1FB0222FC5A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="10147573" y="6853308"/>
+          <a:ext cx="7920401" cy="993048"/>
+          <a:chOff x="10234759" y="6991351"/>
+          <a:chExt cx="7990633" cy="1017751"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="198" name="グループ化 197">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E563478-CD69-874D-8640-716415AF4AC1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="10234759" y="6991351"/>
+            <a:ext cx="4126040" cy="1017751"/>
+            <a:chOff x="10456843" y="6870920"/>
+            <a:chExt cx="4219668" cy="1001617"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="178" name="カギ線コネクタ 177">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F30F8464-DCA5-6844-AA14-176A56B31962}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="58" idx="0"/>
+              <a:endCxn id="54" idx="2"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="5400000" flipH="1" flipV="1">
+              <a:off x="10942140" y="6385623"/>
+              <a:ext cx="642274" cy="1612867"/>
+            </a:xfrm>
+            <a:prstGeom prst="bentConnector3">
+              <a:avLst>
+                <a:gd name="adj1" fmla="val 50000"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:ln w="15875">
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="192" name="カギ線コネクタ 191">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC996EAB-18E7-974A-B8E0-FA5328708DF4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr>
+              <a:endCxn id="67" idx="0"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12061814" y="7197208"/>
+              <a:ext cx="2614697" cy="675329"/>
+            </a:xfrm>
+            <a:prstGeom prst="bentConnector2">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="15875"/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="207" name="カギ線コネクタ 206">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07629C5A-8058-5F40-94E5-1D107B79183F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:endCxn id="202" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="14337632" y="7330351"/>
+            <a:ext cx="3887760" cy="645917"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector2">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="15875"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>221388</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>111404</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>122322</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>47472</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="213" name="直線コネクタ 212">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBA0325B-0947-BB4B-B422-2176DB29C423}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="202" idx="2"/>
+          <a:endCxn id="39" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="16931914" y="11619386"/>
+          <a:ext cx="1293478" cy="4770981"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>37567</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>111404</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>122322</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>60327</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="214" name="直線コネクタ 213">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCD4D542-ADEF-C449-B26B-867B7EC6FA1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="202" idx="2"/>
+          <a:endCxn id="35" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="13405988" y="11619386"/>
+          <a:ext cx="4819404" cy="4783836"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -11152,10 +11170,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BP150"/>
+  <dimension ref="A1:BU150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D94" zoomScale="114" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AO133" sqref="AO133"/>
+    <sheetView tabSelected="1" topLeftCell="H3" zoomScale="92" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AO129" sqref="AO129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.83203125" defaultRowHeight="12.75" customHeight="1"/>
@@ -11163,138 +11181,138 @@
     <col min="1" max="4" width="3.6640625" style="4" customWidth="1"/>
     <col min="5" max="6" width="3.6640625" style="23" customWidth="1"/>
     <col min="7" max="54" width="3.6640625" style="4" customWidth="1"/>
-    <col min="55" max="68" width="3.6640625" style="20" customWidth="1"/>
-    <col min="69" max="72" width="3.6640625" style="4" customWidth="1"/>
-    <col min="73" max="274" width="11.83203125" style="4"/>
-    <col min="275" max="328" width="3.6640625" style="4" customWidth="1"/>
-    <col min="329" max="530" width="11.83203125" style="4"/>
-    <col min="531" max="584" width="3.6640625" style="4" customWidth="1"/>
-    <col min="585" max="786" width="11.83203125" style="4"/>
-    <col min="787" max="840" width="3.6640625" style="4" customWidth="1"/>
-    <col min="841" max="1042" width="11.83203125" style="4"/>
-    <col min="1043" max="1096" width="3.6640625" style="4" customWidth="1"/>
-    <col min="1097" max="1298" width="11.83203125" style="4"/>
-    <col min="1299" max="1352" width="3.6640625" style="4" customWidth="1"/>
-    <col min="1353" max="1554" width="11.83203125" style="4"/>
-    <col min="1555" max="1608" width="3.6640625" style="4" customWidth="1"/>
-    <col min="1609" max="1810" width="11.83203125" style="4"/>
-    <col min="1811" max="1864" width="3.6640625" style="4" customWidth="1"/>
-    <col min="1865" max="2066" width="11.83203125" style="4"/>
-    <col min="2067" max="2120" width="3.6640625" style="4" customWidth="1"/>
-    <col min="2121" max="2322" width="11.83203125" style="4"/>
-    <col min="2323" max="2376" width="3.6640625" style="4" customWidth="1"/>
-    <col min="2377" max="2578" width="11.83203125" style="4"/>
-    <col min="2579" max="2632" width="3.6640625" style="4" customWidth="1"/>
-    <col min="2633" max="2834" width="11.83203125" style="4"/>
-    <col min="2835" max="2888" width="3.6640625" style="4" customWidth="1"/>
-    <col min="2889" max="3090" width="11.83203125" style="4"/>
-    <col min="3091" max="3144" width="3.6640625" style="4" customWidth="1"/>
-    <col min="3145" max="3346" width="11.83203125" style="4"/>
-    <col min="3347" max="3400" width="3.6640625" style="4" customWidth="1"/>
-    <col min="3401" max="3602" width="11.83203125" style="4"/>
-    <col min="3603" max="3656" width="3.6640625" style="4" customWidth="1"/>
-    <col min="3657" max="3858" width="11.83203125" style="4"/>
-    <col min="3859" max="3912" width="3.6640625" style="4" customWidth="1"/>
-    <col min="3913" max="4114" width="11.83203125" style="4"/>
-    <col min="4115" max="4168" width="3.6640625" style="4" customWidth="1"/>
-    <col min="4169" max="4370" width="11.83203125" style="4"/>
-    <col min="4371" max="4424" width="3.6640625" style="4" customWidth="1"/>
-    <col min="4425" max="4626" width="11.83203125" style="4"/>
-    <col min="4627" max="4680" width="3.6640625" style="4" customWidth="1"/>
-    <col min="4681" max="4882" width="11.83203125" style="4"/>
-    <col min="4883" max="4936" width="3.6640625" style="4" customWidth="1"/>
-    <col min="4937" max="5138" width="11.83203125" style="4"/>
-    <col min="5139" max="5192" width="3.6640625" style="4" customWidth="1"/>
-    <col min="5193" max="5394" width="11.83203125" style="4"/>
-    <col min="5395" max="5448" width="3.6640625" style="4" customWidth="1"/>
-    <col min="5449" max="5650" width="11.83203125" style="4"/>
-    <col min="5651" max="5704" width="3.6640625" style="4" customWidth="1"/>
-    <col min="5705" max="5906" width="11.83203125" style="4"/>
-    <col min="5907" max="5960" width="3.6640625" style="4" customWidth="1"/>
-    <col min="5961" max="6162" width="11.83203125" style="4"/>
-    <col min="6163" max="6216" width="3.6640625" style="4" customWidth="1"/>
-    <col min="6217" max="6418" width="11.83203125" style="4"/>
-    <col min="6419" max="6472" width="3.6640625" style="4" customWidth="1"/>
-    <col min="6473" max="6674" width="11.83203125" style="4"/>
-    <col min="6675" max="6728" width="3.6640625" style="4" customWidth="1"/>
-    <col min="6729" max="6930" width="11.83203125" style="4"/>
-    <col min="6931" max="6984" width="3.6640625" style="4" customWidth="1"/>
-    <col min="6985" max="7186" width="11.83203125" style="4"/>
-    <col min="7187" max="7240" width="3.6640625" style="4" customWidth="1"/>
-    <col min="7241" max="7442" width="11.83203125" style="4"/>
-    <col min="7443" max="7496" width="3.6640625" style="4" customWidth="1"/>
-    <col min="7497" max="7698" width="11.83203125" style="4"/>
-    <col min="7699" max="7752" width="3.6640625" style="4" customWidth="1"/>
-    <col min="7753" max="7954" width="11.83203125" style="4"/>
-    <col min="7955" max="8008" width="3.6640625" style="4" customWidth="1"/>
-    <col min="8009" max="8210" width="11.83203125" style="4"/>
-    <col min="8211" max="8264" width="3.6640625" style="4" customWidth="1"/>
-    <col min="8265" max="8466" width="11.83203125" style="4"/>
-    <col min="8467" max="8520" width="3.6640625" style="4" customWidth="1"/>
-    <col min="8521" max="8722" width="11.83203125" style="4"/>
-    <col min="8723" max="8776" width="3.6640625" style="4" customWidth="1"/>
-    <col min="8777" max="8978" width="11.83203125" style="4"/>
-    <col min="8979" max="9032" width="3.6640625" style="4" customWidth="1"/>
-    <col min="9033" max="9234" width="11.83203125" style="4"/>
-    <col min="9235" max="9288" width="3.6640625" style="4" customWidth="1"/>
-    <col min="9289" max="9490" width="11.83203125" style="4"/>
-    <col min="9491" max="9544" width="3.6640625" style="4" customWidth="1"/>
-    <col min="9545" max="9746" width="11.83203125" style="4"/>
-    <col min="9747" max="9800" width="3.6640625" style="4" customWidth="1"/>
-    <col min="9801" max="10002" width="11.83203125" style="4"/>
-    <col min="10003" max="10056" width="3.6640625" style="4" customWidth="1"/>
-    <col min="10057" max="10258" width="11.83203125" style="4"/>
-    <col min="10259" max="10312" width="3.6640625" style="4" customWidth="1"/>
-    <col min="10313" max="10514" width="11.83203125" style="4"/>
-    <col min="10515" max="10568" width="3.6640625" style="4" customWidth="1"/>
-    <col min="10569" max="10770" width="11.83203125" style="4"/>
-    <col min="10771" max="10824" width="3.6640625" style="4" customWidth="1"/>
-    <col min="10825" max="11026" width="11.83203125" style="4"/>
-    <col min="11027" max="11080" width="3.6640625" style="4" customWidth="1"/>
-    <col min="11081" max="11282" width="11.83203125" style="4"/>
-    <col min="11283" max="11336" width="3.6640625" style="4" customWidth="1"/>
-    <col min="11337" max="11538" width="11.83203125" style="4"/>
-    <col min="11539" max="11592" width="3.6640625" style="4" customWidth="1"/>
-    <col min="11593" max="11794" width="11.83203125" style="4"/>
-    <col min="11795" max="11848" width="3.6640625" style="4" customWidth="1"/>
-    <col min="11849" max="12050" width="11.83203125" style="4"/>
-    <col min="12051" max="12104" width="3.6640625" style="4" customWidth="1"/>
-    <col min="12105" max="12306" width="11.83203125" style="4"/>
-    <col min="12307" max="12360" width="3.6640625" style="4" customWidth="1"/>
-    <col min="12361" max="12562" width="11.83203125" style="4"/>
-    <col min="12563" max="12616" width="3.6640625" style="4" customWidth="1"/>
-    <col min="12617" max="12818" width="11.83203125" style="4"/>
-    <col min="12819" max="12872" width="3.6640625" style="4" customWidth="1"/>
-    <col min="12873" max="13074" width="11.83203125" style="4"/>
-    <col min="13075" max="13128" width="3.6640625" style="4" customWidth="1"/>
-    <col min="13129" max="13330" width="11.83203125" style="4"/>
-    <col min="13331" max="13384" width="3.6640625" style="4" customWidth="1"/>
-    <col min="13385" max="13586" width="11.83203125" style="4"/>
-    <col min="13587" max="13640" width="3.6640625" style="4" customWidth="1"/>
-    <col min="13641" max="13842" width="11.83203125" style="4"/>
-    <col min="13843" max="13896" width="3.6640625" style="4" customWidth="1"/>
-    <col min="13897" max="14098" width="11.83203125" style="4"/>
-    <col min="14099" max="14152" width="3.6640625" style="4" customWidth="1"/>
-    <col min="14153" max="14354" width="11.83203125" style="4"/>
-    <col min="14355" max="14408" width="3.6640625" style="4" customWidth="1"/>
-    <col min="14409" max="14610" width="11.83203125" style="4"/>
-    <col min="14611" max="14664" width="3.6640625" style="4" customWidth="1"/>
-    <col min="14665" max="14866" width="11.83203125" style="4"/>
-    <col min="14867" max="14920" width="3.6640625" style="4" customWidth="1"/>
-    <col min="14921" max="15122" width="11.83203125" style="4"/>
-    <col min="15123" max="15176" width="3.6640625" style="4" customWidth="1"/>
-    <col min="15177" max="15378" width="11.83203125" style="4"/>
-    <col min="15379" max="15432" width="3.6640625" style="4" customWidth="1"/>
-    <col min="15433" max="15634" width="11.83203125" style="4"/>
-    <col min="15635" max="15688" width="3.6640625" style="4" customWidth="1"/>
-    <col min="15689" max="15890" width="11.83203125" style="4"/>
-    <col min="15891" max="15944" width="3.6640625" style="4" customWidth="1"/>
-    <col min="15945" max="16146" width="11.83203125" style="4"/>
-    <col min="16147" max="16200" width="3.6640625" style="4" customWidth="1"/>
-    <col min="16201" max="16384" width="11.83203125" style="4"/>
+    <col min="55" max="73" width="3.6640625" style="20" customWidth="1"/>
+    <col min="74" max="77" width="3.6640625" style="4" customWidth="1"/>
+    <col min="78" max="279" width="11.83203125" style="4"/>
+    <col min="280" max="333" width="3.6640625" style="4" customWidth="1"/>
+    <col min="334" max="535" width="11.83203125" style="4"/>
+    <col min="536" max="589" width="3.6640625" style="4" customWidth="1"/>
+    <col min="590" max="791" width="11.83203125" style="4"/>
+    <col min="792" max="845" width="3.6640625" style="4" customWidth="1"/>
+    <col min="846" max="1047" width="11.83203125" style="4"/>
+    <col min="1048" max="1101" width="3.6640625" style="4" customWidth="1"/>
+    <col min="1102" max="1303" width="11.83203125" style="4"/>
+    <col min="1304" max="1357" width="3.6640625" style="4" customWidth="1"/>
+    <col min="1358" max="1559" width="11.83203125" style="4"/>
+    <col min="1560" max="1613" width="3.6640625" style="4" customWidth="1"/>
+    <col min="1614" max="1815" width="11.83203125" style="4"/>
+    <col min="1816" max="1869" width="3.6640625" style="4" customWidth="1"/>
+    <col min="1870" max="2071" width="11.83203125" style="4"/>
+    <col min="2072" max="2125" width="3.6640625" style="4" customWidth="1"/>
+    <col min="2126" max="2327" width="11.83203125" style="4"/>
+    <col min="2328" max="2381" width="3.6640625" style="4" customWidth="1"/>
+    <col min="2382" max="2583" width="11.83203125" style="4"/>
+    <col min="2584" max="2637" width="3.6640625" style="4" customWidth="1"/>
+    <col min="2638" max="2839" width="11.83203125" style="4"/>
+    <col min="2840" max="2893" width="3.6640625" style="4" customWidth="1"/>
+    <col min="2894" max="3095" width="11.83203125" style="4"/>
+    <col min="3096" max="3149" width="3.6640625" style="4" customWidth="1"/>
+    <col min="3150" max="3351" width="11.83203125" style="4"/>
+    <col min="3352" max="3405" width="3.6640625" style="4" customWidth="1"/>
+    <col min="3406" max="3607" width="11.83203125" style="4"/>
+    <col min="3608" max="3661" width="3.6640625" style="4" customWidth="1"/>
+    <col min="3662" max="3863" width="11.83203125" style="4"/>
+    <col min="3864" max="3917" width="3.6640625" style="4" customWidth="1"/>
+    <col min="3918" max="4119" width="11.83203125" style="4"/>
+    <col min="4120" max="4173" width="3.6640625" style="4" customWidth="1"/>
+    <col min="4174" max="4375" width="11.83203125" style="4"/>
+    <col min="4376" max="4429" width="3.6640625" style="4" customWidth="1"/>
+    <col min="4430" max="4631" width="11.83203125" style="4"/>
+    <col min="4632" max="4685" width="3.6640625" style="4" customWidth="1"/>
+    <col min="4686" max="4887" width="11.83203125" style="4"/>
+    <col min="4888" max="4941" width="3.6640625" style="4" customWidth="1"/>
+    <col min="4942" max="5143" width="11.83203125" style="4"/>
+    <col min="5144" max="5197" width="3.6640625" style="4" customWidth="1"/>
+    <col min="5198" max="5399" width="11.83203125" style="4"/>
+    <col min="5400" max="5453" width="3.6640625" style="4" customWidth="1"/>
+    <col min="5454" max="5655" width="11.83203125" style="4"/>
+    <col min="5656" max="5709" width="3.6640625" style="4" customWidth="1"/>
+    <col min="5710" max="5911" width="11.83203125" style="4"/>
+    <col min="5912" max="5965" width="3.6640625" style="4" customWidth="1"/>
+    <col min="5966" max="6167" width="11.83203125" style="4"/>
+    <col min="6168" max="6221" width="3.6640625" style="4" customWidth="1"/>
+    <col min="6222" max="6423" width="11.83203125" style="4"/>
+    <col min="6424" max="6477" width="3.6640625" style="4" customWidth="1"/>
+    <col min="6478" max="6679" width="11.83203125" style="4"/>
+    <col min="6680" max="6733" width="3.6640625" style="4" customWidth="1"/>
+    <col min="6734" max="6935" width="11.83203125" style="4"/>
+    <col min="6936" max="6989" width="3.6640625" style="4" customWidth="1"/>
+    <col min="6990" max="7191" width="11.83203125" style="4"/>
+    <col min="7192" max="7245" width="3.6640625" style="4" customWidth="1"/>
+    <col min="7246" max="7447" width="11.83203125" style="4"/>
+    <col min="7448" max="7501" width="3.6640625" style="4" customWidth="1"/>
+    <col min="7502" max="7703" width="11.83203125" style="4"/>
+    <col min="7704" max="7757" width="3.6640625" style="4" customWidth="1"/>
+    <col min="7758" max="7959" width="11.83203125" style="4"/>
+    <col min="7960" max="8013" width="3.6640625" style="4" customWidth="1"/>
+    <col min="8014" max="8215" width="11.83203125" style="4"/>
+    <col min="8216" max="8269" width="3.6640625" style="4" customWidth="1"/>
+    <col min="8270" max="8471" width="11.83203125" style="4"/>
+    <col min="8472" max="8525" width="3.6640625" style="4" customWidth="1"/>
+    <col min="8526" max="8727" width="11.83203125" style="4"/>
+    <col min="8728" max="8781" width="3.6640625" style="4" customWidth="1"/>
+    <col min="8782" max="8983" width="11.83203125" style="4"/>
+    <col min="8984" max="9037" width="3.6640625" style="4" customWidth="1"/>
+    <col min="9038" max="9239" width="11.83203125" style="4"/>
+    <col min="9240" max="9293" width="3.6640625" style="4" customWidth="1"/>
+    <col min="9294" max="9495" width="11.83203125" style="4"/>
+    <col min="9496" max="9549" width="3.6640625" style="4" customWidth="1"/>
+    <col min="9550" max="9751" width="11.83203125" style="4"/>
+    <col min="9752" max="9805" width="3.6640625" style="4" customWidth="1"/>
+    <col min="9806" max="10007" width="11.83203125" style="4"/>
+    <col min="10008" max="10061" width="3.6640625" style="4" customWidth="1"/>
+    <col min="10062" max="10263" width="11.83203125" style="4"/>
+    <col min="10264" max="10317" width="3.6640625" style="4" customWidth="1"/>
+    <col min="10318" max="10519" width="11.83203125" style="4"/>
+    <col min="10520" max="10573" width="3.6640625" style="4" customWidth="1"/>
+    <col min="10574" max="10775" width="11.83203125" style="4"/>
+    <col min="10776" max="10829" width="3.6640625" style="4" customWidth="1"/>
+    <col min="10830" max="11031" width="11.83203125" style="4"/>
+    <col min="11032" max="11085" width="3.6640625" style="4" customWidth="1"/>
+    <col min="11086" max="11287" width="11.83203125" style="4"/>
+    <col min="11288" max="11341" width="3.6640625" style="4" customWidth="1"/>
+    <col min="11342" max="11543" width="11.83203125" style="4"/>
+    <col min="11544" max="11597" width="3.6640625" style="4" customWidth="1"/>
+    <col min="11598" max="11799" width="11.83203125" style="4"/>
+    <col min="11800" max="11853" width="3.6640625" style="4" customWidth="1"/>
+    <col min="11854" max="12055" width="11.83203125" style="4"/>
+    <col min="12056" max="12109" width="3.6640625" style="4" customWidth="1"/>
+    <col min="12110" max="12311" width="11.83203125" style="4"/>
+    <col min="12312" max="12365" width="3.6640625" style="4" customWidth="1"/>
+    <col min="12366" max="12567" width="11.83203125" style="4"/>
+    <col min="12568" max="12621" width="3.6640625" style="4" customWidth="1"/>
+    <col min="12622" max="12823" width="11.83203125" style="4"/>
+    <col min="12824" max="12877" width="3.6640625" style="4" customWidth="1"/>
+    <col min="12878" max="13079" width="11.83203125" style="4"/>
+    <col min="13080" max="13133" width="3.6640625" style="4" customWidth="1"/>
+    <col min="13134" max="13335" width="11.83203125" style="4"/>
+    <col min="13336" max="13389" width="3.6640625" style="4" customWidth="1"/>
+    <col min="13390" max="13591" width="11.83203125" style="4"/>
+    <col min="13592" max="13645" width="3.6640625" style="4" customWidth="1"/>
+    <col min="13646" max="13847" width="11.83203125" style="4"/>
+    <col min="13848" max="13901" width="3.6640625" style="4" customWidth="1"/>
+    <col min="13902" max="14103" width="11.83203125" style="4"/>
+    <col min="14104" max="14157" width="3.6640625" style="4" customWidth="1"/>
+    <col min="14158" max="14359" width="11.83203125" style="4"/>
+    <col min="14360" max="14413" width="3.6640625" style="4" customWidth="1"/>
+    <col min="14414" max="14615" width="11.83203125" style="4"/>
+    <col min="14616" max="14669" width="3.6640625" style="4" customWidth="1"/>
+    <col min="14670" max="14871" width="11.83203125" style="4"/>
+    <col min="14872" max="14925" width="3.6640625" style="4" customWidth="1"/>
+    <col min="14926" max="15127" width="11.83203125" style="4"/>
+    <col min="15128" max="15181" width="3.6640625" style="4" customWidth="1"/>
+    <col min="15182" max="15383" width="11.83203125" style="4"/>
+    <col min="15384" max="15437" width="3.6640625" style="4" customWidth="1"/>
+    <col min="15438" max="15639" width="11.83203125" style="4"/>
+    <col min="15640" max="15693" width="3.6640625" style="4" customWidth="1"/>
+    <col min="15694" max="15895" width="11.83203125" style="4"/>
+    <col min="15896" max="15949" width="3.6640625" style="4" customWidth="1"/>
+    <col min="15950" max="16151" width="11.83203125" style="4"/>
+    <col min="16152" max="16205" width="3.6640625" style="4" customWidth="1"/>
+    <col min="16206" max="16384" width="11.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" ht="20">
+    <row r="1" spans="1:73" ht="20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11364,403 +11382,433 @@
       <c r="BM1" s="2"/>
       <c r="BN1" s="2"/>
       <c r="BO1" s="2"/>
-      <c r="BP1" s="3"/>
+      <c r="BP1" s="2"/>
+      <c r="BQ1" s="2"/>
+      <c r="BR1" s="2"/>
+      <c r="BS1" s="2"/>
+      <c r="BT1" s="2"/>
+      <c r="BU1" s="3"/>
     </row>
-    <row r="2" spans="1:68" ht="14.25" customHeight="1">
-      <c r="A2" s="33" t="s">
+    <row r="2" spans="1:73" ht="14.25" customHeight="1">
+      <c r="A2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="34" t="s">
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="37" t="s">
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38"/>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="38"/>
-      <c r="AG2" s="38"/>
-      <c r="AH2" s="38"/>
-      <c r="AI2" s="38"/>
-      <c r="AJ2" s="38"/>
-      <c r="AK2" s="38"/>
-      <c r="AL2" s="38"/>
-      <c r="AM2" s="38"/>
-      <c r="AN2" s="38"/>
-      <c r="AO2" s="38"/>
-      <c r="AP2" s="38"/>
-      <c r="AQ2" s="38"/>
-      <c r="AR2" s="38"/>
-      <c r="AS2" s="38"/>
-      <c r="AT2" s="38"/>
-      <c r="AU2" s="38"/>
-      <c r="AV2" s="38"/>
-      <c r="AW2" s="38"/>
-      <c r="AX2" s="39"/>
-      <c r="AY2" s="40" t="s">
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="41"/>
+      <c r="V2" s="41"/>
+      <c r="W2" s="41"/>
+      <c r="X2" s="41"/>
+      <c r="Y2" s="41"/>
+      <c r="Z2" s="41"/>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="41"/>
+      <c r="AD2" s="41"/>
+      <c r="AE2" s="41"/>
+      <c r="AF2" s="41"/>
+      <c r="AG2" s="41"/>
+      <c r="AH2" s="41"/>
+      <c r="AI2" s="41"/>
+      <c r="AJ2" s="41"/>
+      <c r="AK2" s="41"/>
+      <c r="AL2" s="41"/>
+      <c r="AM2" s="41"/>
+      <c r="AN2" s="41"/>
+      <c r="AO2" s="41"/>
+      <c r="AP2" s="41"/>
+      <c r="AQ2" s="41"/>
+      <c r="AR2" s="41"/>
+      <c r="AS2" s="41"/>
+      <c r="AT2" s="41"/>
+      <c r="AU2" s="41"/>
+      <c r="AV2" s="41"/>
+      <c r="AW2" s="41"/>
+      <c r="AX2" s="42"/>
+      <c r="AY2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="AZ2" s="40"/>
-      <c r="BA2" s="40"/>
-      <c r="BB2" s="41" t="s">
+      <c r="AZ2" s="43"/>
+      <c r="BA2" s="43"/>
+      <c r="BB2" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="BC2" s="42"/>
-      <c r="BD2" s="42"/>
-      <c r="BE2" s="42"/>
-      <c r="BF2" s="42"/>
-      <c r="BG2" s="42"/>
-      <c r="BH2" s="42"/>
-      <c r="BI2" s="42"/>
-      <c r="BJ2" s="42"/>
-      <c r="BK2" s="42"/>
-      <c r="BL2" s="42"/>
-      <c r="BM2" s="42"/>
-      <c r="BN2" s="42"/>
-      <c r="BO2" s="42"/>
-      <c r="BP2" s="43"/>
+      <c r="BC2" s="45"/>
+      <c r="BD2" s="45"/>
+      <c r="BE2" s="45"/>
+      <c r="BF2" s="45"/>
+      <c r="BG2" s="45"/>
+      <c r="BH2" s="45"/>
+      <c r="BI2" s="45"/>
+      <c r="BJ2" s="45"/>
+      <c r="BK2" s="45"/>
+      <c r="BL2" s="45"/>
+      <c r="BM2" s="45"/>
+      <c r="BN2" s="45"/>
+      <c r="BO2" s="45"/>
+      <c r="BP2" s="45"/>
+      <c r="BQ2" s="45"/>
+      <c r="BR2" s="45"/>
+      <c r="BS2" s="45"/>
+      <c r="BT2" s="45"/>
+      <c r="BU2" s="46"/>
     </row>
-    <row r="3" spans="1:68" ht="14.25" customHeight="1">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="34" t="s">
+    <row r="3" spans="1:73" ht="14.25" customHeight="1">
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="37" t="s">
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="38"/>
-      <c r="W3" s="38"/>
-      <c r="X3" s="38"/>
-      <c r="Y3" s="38"/>
-      <c r="Z3" s="38"/>
-      <c r="AA3" s="38"/>
-      <c r="AB3" s="38"/>
-      <c r="AC3" s="38"/>
-      <c r="AD3" s="38"/>
-      <c r="AE3" s="38"/>
-      <c r="AF3" s="38"/>
-      <c r="AG3" s="38"/>
-      <c r="AH3" s="38"/>
-      <c r="AI3" s="38"/>
-      <c r="AJ3" s="38"/>
-      <c r="AK3" s="38"/>
-      <c r="AL3" s="38"/>
-      <c r="AM3" s="38"/>
-      <c r="AN3" s="38"/>
-      <c r="AO3" s="38"/>
-      <c r="AP3" s="38"/>
-      <c r="AQ3" s="38"/>
-      <c r="AR3" s="38"/>
-      <c r="AS3" s="38"/>
-      <c r="AT3" s="38"/>
-      <c r="AU3" s="38"/>
-      <c r="AV3" s="38"/>
-      <c r="AW3" s="38"/>
-      <c r="AX3" s="39"/>
-      <c r="AY3" s="40" t="s">
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
+      <c r="V3" s="41"/>
+      <c r="W3" s="41"/>
+      <c r="X3" s="41"/>
+      <c r="Y3" s="41"/>
+      <c r="Z3" s="41"/>
+      <c r="AA3" s="41"/>
+      <c r="AB3" s="41"/>
+      <c r="AC3" s="41"/>
+      <c r="AD3" s="41"/>
+      <c r="AE3" s="41"/>
+      <c r="AF3" s="41"/>
+      <c r="AG3" s="41"/>
+      <c r="AH3" s="41"/>
+      <c r="AI3" s="41"/>
+      <c r="AJ3" s="41"/>
+      <c r="AK3" s="41"/>
+      <c r="AL3" s="41"/>
+      <c r="AM3" s="41"/>
+      <c r="AN3" s="41"/>
+      <c r="AO3" s="41"/>
+      <c r="AP3" s="41"/>
+      <c r="AQ3" s="41"/>
+      <c r="AR3" s="41"/>
+      <c r="AS3" s="41"/>
+      <c r="AT3" s="41"/>
+      <c r="AU3" s="41"/>
+      <c r="AV3" s="41"/>
+      <c r="AW3" s="41"/>
+      <c r="AX3" s="42"/>
+      <c r="AY3" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="AZ3" s="40"/>
-      <c r="BA3" s="40"/>
-      <c r="BB3" s="44">
+      <c r="AZ3" s="43"/>
+      <c r="BA3" s="43"/>
+      <c r="BB3" s="47">
         <v>43608</v>
       </c>
-      <c r="BC3" s="42"/>
-      <c r="BD3" s="42"/>
-      <c r="BE3" s="42"/>
-      <c r="BF3" s="42"/>
-      <c r="BG3" s="42"/>
-      <c r="BH3" s="42"/>
-      <c r="BI3" s="42"/>
-      <c r="BJ3" s="42"/>
-      <c r="BK3" s="42"/>
-      <c r="BL3" s="42"/>
-      <c r="BM3" s="42"/>
-      <c r="BN3" s="42"/>
-      <c r="BO3" s="42"/>
-      <c r="BP3" s="43"/>
+      <c r="BC3" s="45"/>
+      <c r="BD3" s="45"/>
+      <c r="BE3" s="45"/>
+      <c r="BF3" s="45"/>
+      <c r="BG3" s="45"/>
+      <c r="BH3" s="45"/>
+      <c r="BI3" s="45"/>
+      <c r="BJ3" s="45"/>
+      <c r="BK3" s="45"/>
+      <c r="BL3" s="45"/>
+      <c r="BM3" s="45"/>
+      <c r="BN3" s="45"/>
+      <c r="BO3" s="45"/>
+      <c r="BP3" s="45"/>
+      <c r="BQ3" s="45"/>
+      <c r="BR3" s="45"/>
+      <c r="BS3" s="45"/>
+      <c r="BT3" s="45"/>
+      <c r="BU3" s="46"/>
     </row>
-    <row r="4" spans="1:68" ht="14.25" customHeight="1">
-      <c r="A4" s="33"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="34" t="s">
+    <row r="4" spans="1:73" ht="14.25" customHeight="1">
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="37" t="s">
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="38"/>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="38"/>
-      <c r="AD4" s="38"/>
-      <c r="AE4" s="38"/>
-      <c r="AF4" s="38"/>
-      <c r="AG4" s="38"/>
-      <c r="AH4" s="38"/>
-      <c r="AI4" s="38"/>
-      <c r="AJ4" s="38"/>
-      <c r="AK4" s="38"/>
-      <c r="AL4" s="38"/>
-      <c r="AM4" s="38"/>
-      <c r="AN4" s="38"/>
-      <c r="AO4" s="38"/>
-      <c r="AP4" s="38"/>
-      <c r="AQ4" s="38"/>
-      <c r="AR4" s="38"/>
-      <c r="AS4" s="38"/>
-      <c r="AT4" s="38"/>
-      <c r="AU4" s="38"/>
-      <c r="AV4" s="38"/>
-      <c r="AW4" s="38"/>
-      <c r="AX4" s="39"/>
-      <c r="AY4" s="40" t="s">
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="41"/>
+      <c r="U4" s="41"/>
+      <c r="V4" s="41"/>
+      <c r="W4" s="41"/>
+      <c r="X4" s="41"/>
+      <c r="Y4" s="41"/>
+      <c r="Z4" s="41"/>
+      <c r="AA4" s="41"/>
+      <c r="AB4" s="41"/>
+      <c r="AC4" s="41"/>
+      <c r="AD4" s="41"/>
+      <c r="AE4" s="41"/>
+      <c r="AF4" s="41"/>
+      <c r="AG4" s="41"/>
+      <c r="AH4" s="41"/>
+      <c r="AI4" s="41"/>
+      <c r="AJ4" s="41"/>
+      <c r="AK4" s="41"/>
+      <c r="AL4" s="41"/>
+      <c r="AM4" s="41"/>
+      <c r="AN4" s="41"/>
+      <c r="AO4" s="41"/>
+      <c r="AP4" s="41"/>
+      <c r="AQ4" s="41"/>
+      <c r="AR4" s="41"/>
+      <c r="AS4" s="41"/>
+      <c r="AT4" s="41"/>
+      <c r="AU4" s="41"/>
+      <c r="AV4" s="41"/>
+      <c r="AW4" s="41"/>
+      <c r="AX4" s="42"/>
+      <c r="AY4" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="AZ4" s="40"/>
-      <c r="BA4" s="40"/>
-      <c r="BB4" s="41" t="s">
+      <c r="AZ4" s="43"/>
+      <c r="BA4" s="43"/>
+      <c r="BB4" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="BC4" s="42"/>
-      <c r="BD4" s="42"/>
-      <c r="BE4" s="42"/>
-      <c r="BF4" s="42"/>
-      <c r="BG4" s="42"/>
-      <c r="BH4" s="42"/>
-      <c r="BI4" s="42"/>
-      <c r="BJ4" s="42"/>
-      <c r="BK4" s="42"/>
-      <c r="BL4" s="42"/>
-      <c r="BM4" s="42"/>
-      <c r="BN4" s="42"/>
-      <c r="BO4" s="42"/>
-      <c r="BP4" s="43"/>
+      <c r="BC4" s="45"/>
+      <c r="BD4" s="45"/>
+      <c r="BE4" s="45"/>
+      <c r="BF4" s="45"/>
+      <c r="BG4" s="45"/>
+      <c r="BH4" s="45"/>
+      <c r="BI4" s="45"/>
+      <c r="BJ4" s="45"/>
+      <c r="BK4" s="45"/>
+      <c r="BL4" s="45"/>
+      <c r="BM4" s="45"/>
+      <c r="BN4" s="45"/>
+      <c r="BO4" s="45"/>
+      <c r="BP4" s="45"/>
+      <c r="BQ4" s="45"/>
+      <c r="BR4" s="45"/>
+      <c r="BS4" s="45"/>
+      <c r="BT4" s="45"/>
+      <c r="BU4" s="46"/>
     </row>
-    <row r="5" spans="1:68" ht="14.25" customHeight="1">
-      <c r="A5" s="33" t="s">
+    <row r="5" spans="1:73" ht="14.25" customHeight="1">
+      <c r="A5" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="34" t="s">
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="37" t="s">
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="38"/>
-      <c r="S5" s="38"/>
-      <c r="T5" s="38"/>
-      <c r="U5" s="38"/>
-      <c r="V5" s="38"/>
-      <c r="W5" s="38"/>
-      <c r="X5" s="38"/>
-      <c r="Y5" s="38"/>
-      <c r="Z5" s="38"/>
-      <c r="AA5" s="38"/>
-      <c r="AB5" s="38"/>
-      <c r="AC5" s="38"/>
-      <c r="AD5" s="38"/>
-      <c r="AE5" s="38"/>
-      <c r="AF5" s="38"/>
-      <c r="AG5" s="38"/>
-      <c r="AH5" s="38"/>
-      <c r="AI5" s="38"/>
-      <c r="AJ5" s="38"/>
-      <c r="AK5" s="38"/>
-      <c r="AL5" s="38"/>
-      <c r="AM5" s="38"/>
-      <c r="AN5" s="38"/>
-      <c r="AO5" s="38"/>
-      <c r="AP5" s="38"/>
-      <c r="AQ5" s="38"/>
-      <c r="AR5" s="38"/>
-      <c r="AS5" s="38"/>
-      <c r="AT5" s="38"/>
-      <c r="AU5" s="38"/>
-      <c r="AV5" s="38"/>
-      <c r="AW5" s="38"/>
-      <c r="AX5" s="39"/>
-      <c r="AY5" s="40" t="s">
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="41"/>
+      <c r="R5" s="41"/>
+      <c r="S5" s="41"/>
+      <c r="T5" s="41"/>
+      <c r="U5" s="41"/>
+      <c r="V5" s="41"/>
+      <c r="W5" s="41"/>
+      <c r="X5" s="41"/>
+      <c r="Y5" s="41"/>
+      <c r="Z5" s="41"/>
+      <c r="AA5" s="41"/>
+      <c r="AB5" s="41"/>
+      <c r="AC5" s="41"/>
+      <c r="AD5" s="41"/>
+      <c r="AE5" s="41"/>
+      <c r="AF5" s="41"/>
+      <c r="AG5" s="41"/>
+      <c r="AH5" s="41"/>
+      <c r="AI5" s="41"/>
+      <c r="AJ5" s="41"/>
+      <c r="AK5" s="41"/>
+      <c r="AL5" s="41"/>
+      <c r="AM5" s="41"/>
+      <c r="AN5" s="41"/>
+      <c r="AO5" s="41"/>
+      <c r="AP5" s="41"/>
+      <c r="AQ5" s="41"/>
+      <c r="AR5" s="41"/>
+      <c r="AS5" s="41"/>
+      <c r="AT5" s="41"/>
+      <c r="AU5" s="41"/>
+      <c r="AV5" s="41"/>
+      <c r="AW5" s="41"/>
+      <c r="AX5" s="42"/>
+      <c r="AY5" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="AZ5" s="40"/>
-      <c r="BA5" s="40"/>
-      <c r="BB5" s="41" t="s">
+      <c r="AZ5" s="43"/>
+      <c r="BA5" s="43"/>
+      <c r="BB5" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="BC5" s="42"/>
-      <c r="BD5" s="42"/>
-      <c r="BE5" s="42"/>
-      <c r="BF5" s="42"/>
-      <c r="BG5" s="42"/>
-      <c r="BH5" s="42"/>
-      <c r="BI5" s="42"/>
-      <c r="BJ5" s="42"/>
-      <c r="BK5" s="42"/>
-      <c r="BL5" s="42"/>
-      <c r="BM5" s="42"/>
-      <c r="BN5" s="42"/>
-      <c r="BO5" s="42"/>
-      <c r="BP5" s="43"/>
+      <c r="BC5" s="45"/>
+      <c r="BD5" s="45"/>
+      <c r="BE5" s="45"/>
+      <c r="BF5" s="45"/>
+      <c r="BG5" s="45"/>
+      <c r="BH5" s="45"/>
+      <c r="BI5" s="45"/>
+      <c r="BJ5" s="45"/>
+      <c r="BK5" s="45"/>
+      <c r="BL5" s="45"/>
+      <c r="BM5" s="45"/>
+      <c r="BN5" s="45"/>
+      <c r="BO5" s="45"/>
+      <c r="BP5" s="45"/>
+      <c r="BQ5" s="45"/>
+      <c r="BR5" s="45"/>
+      <c r="BS5" s="45"/>
+      <c r="BT5" s="45"/>
+      <c r="BU5" s="46"/>
     </row>
-    <row r="6" spans="1:68" ht="14.25" customHeight="1">
-      <c r="A6" s="33"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="34" t="s">
+    <row r="6" spans="1:73" ht="14.25" customHeight="1">
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="37" t="s">
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="38"/>
-      <c r="T6" s="38"/>
-      <c r="U6" s="38"/>
-      <c r="V6" s="38"/>
-      <c r="W6" s="38"/>
-      <c r="X6" s="38"/>
-      <c r="Y6" s="38"/>
-      <c r="Z6" s="38"/>
-      <c r="AA6" s="38"/>
-      <c r="AB6" s="38"/>
-      <c r="AC6" s="38"/>
-      <c r="AD6" s="38"/>
-      <c r="AE6" s="38"/>
-      <c r="AF6" s="38"/>
-      <c r="AG6" s="38"/>
-      <c r="AH6" s="38"/>
-      <c r="AI6" s="38"/>
-      <c r="AJ6" s="38"/>
-      <c r="AK6" s="38"/>
-      <c r="AL6" s="38"/>
-      <c r="AM6" s="38"/>
-      <c r="AN6" s="38"/>
-      <c r="AO6" s="38"/>
-      <c r="AP6" s="38"/>
-      <c r="AQ6" s="38"/>
-      <c r="AR6" s="38"/>
-      <c r="AS6" s="38"/>
-      <c r="AT6" s="38"/>
-      <c r="AU6" s="38"/>
-      <c r="AV6" s="38"/>
-      <c r="AW6" s="38"/>
-      <c r="AX6" s="39"/>
-      <c r="AY6" s="40" t="s">
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="41"/>
+      <c r="S6" s="41"/>
+      <c r="T6" s="41"/>
+      <c r="U6" s="41"/>
+      <c r="V6" s="41"/>
+      <c r="W6" s="41"/>
+      <c r="X6" s="41"/>
+      <c r="Y6" s="41"/>
+      <c r="Z6" s="41"/>
+      <c r="AA6" s="41"/>
+      <c r="AB6" s="41"/>
+      <c r="AC6" s="41"/>
+      <c r="AD6" s="41"/>
+      <c r="AE6" s="41"/>
+      <c r="AF6" s="41"/>
+      <c r="AG6" s="41"/>
+      <c r="AH6" s="41"/>
+      <c r="AI6" s="41"/>
+      <c r="AJ6" s="41"/>
+      <c r="AK6" s="41"/>
+      <c r="AL6" s="41"/>
+      <c r="AM6" s="41"/>
+      <c r="AN6" s="41"/>
+      <c r="AO6" s="41"/>
+      <c r="AP6" s="41"/>
+      <c r="AQ6" s="41"/>
+      <c r="AR6" s="41"/>
+      <c r="AS6" s="41"/>
+      <c r="AT6" s="41"/>
+      <c r="AU6" s="41"/>
+      <c r="AV6" s="41"/>
+      <c r="AW6" s="41"/>
+      <c r="AX6" s="42"/>
+      <c r="AY6" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="AZ6" s="40"/>
-      <c r="BA6" s="40"/>
-      <c r="BB6" s="41" t="s">
+      <c r="AZ6" s="43"/>
+      <c r="BA6" s="43"/>
+      <c r="BB6" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="BC6" s="42"/>
-      <c r="BD6" s="42"/>
-      <c r="BE6" s="42"/>
-      <c r="BF6" s="42"/>
-      <c r="BG6" s="42"/>
-      <c r="BH6" s="42"/>
-      <c r="BI6" s="42"/>
-      <c r="BJ6" s="42"/>
-      <c r="BK6" s="42"/>
-      <c r="BL6" s="42"/>
-      <c r="BM6" s="42"/>
-      <c r="BN6" s="42"/>
-      <c r="BO6" s="42"/>
-      <c r="BP6" s="43"/>
+      <c r="BC6" s="45"/>
+      <c r="BD6" s="45"/>
+      <c r="BE6" s="45"/>
+      <c r="BF6" s="45"/>
+      <c r="BG6" s="45"/>
+      <c r="BH6" s="45"/>
+      <c r="BI6" s="45"/>
+      <c r="BJ6" s="45"/>
+      <c r="BK6" s="45"/>
+      <c r="BL6" s="45"/>
+      <c r="BM6" s="45"/>
+      <c r="BN6" s="45"/>
+      <c r="BO6" s="45"/>
+      <c r="BP6" s="45"/>
+      <c r="BQ6" s="45"/>
+      <c r="BR6" s="45"/>
+      <c r="BS6" s="45"/>
+      <c r="BT6" s="45"/>
+      <c r="BU6" s="46"/>
     </row>
-    <row r="7" spans="1:68" ht="14.25" customHeight="1">
+    <row r="7" spans="1:73" ht="14.25" customHeight="1">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -11828,9 +11876,14 @@
       <c r="BM7" s="10"/>
       <c r="BN7" s="10"/>
       <c r="BO7" s="10"/>
-      <c r="BP7" s="11"/>
+      <c r="BP7" s="10"/>
+      <c r="BQ7" s="10"/>
+      <c r="BR7" s="10"/>
+      <c r="BS7" s="10"/>
+      <c r="BT7" s="10"/>
+      <c r="BU7" s="11"/>
     </row>
-    <row r="8" spans="1:68" ht="14.25" customHeight="1">
+    <row r="8" spans="1:73" ht="14.25" customHeight="1">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -11900,9 +11953,14 @@
       <c r="BM8" s="10"/>
       <c r="BN8" s="10"/>
       <c r="BO8" s="10"/>
-      <c r="BP8" s="11"/>
+      <c r="BP8" s="10"/>
+      <c r="BQ8" s="10"/>
+      <c r="BR8" s="10"/>
+      <c r="BS8" s="10"/>
+      <c r="BT8" s="10"/>
+      <c r="BU8" s="11"/>
     </row>
-    <row r="9" spans="1:68" ht="14.25" customHeight="1">
+    <row r="9" spans="1:73" ht="14.25" customHeight="1">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -11978,9 +12036,14 @@
       <c r="BM9" s="10"/>
       <c r="BN9" s="10"/>
       <c r="BO9" s="10"/>
-      <c r="BP9" s="11"/>
+      <c r="BP9" s="10"/>
+      <c r="BQ9" s="10"/>
+      <c r="BR9" s="10"/>
+      <c r="BS9" s="10"/>
+      <c r="BT9" s="10"/>
+      <c r="BU9" s="11"/>
     </row>
-    <row r="10" spans="1:68" ht="12.75" customHeight="1">
+    <row r="10" spans="1:73" ht="12.75" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -12056,9 +12119,14 @@
       <c r="BM10" s="10"/>
       <c r="BN10" s="10"/>
       <c r="BO10" s="10"/>
-      <c r="BP10" s="11"/>
+      <c r="BP10" s="10"/>
+      <c r="BQ10" s="10"/>
+      <c r="BR10" s="10"/>
+      <c r="BS10" s="10"/>
+      <c r="BT10" s="10"/>
+      <c r="BU10" s="11"/>
     </row>
-    <row r="11" spans="1:68" ht="12.75" customHeight="1">
+    <row r="11" spans="1:73" ht="12.75" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -12130,9 +12198,14 @@
       <c r="BM11" s="10"/>
       <c r="BN11" s="10"/>
       <c r="BO11" s="10"/>
-      <c r="BP11" s="11"/>
+      <c r="BP11" s="10"/>
+      <c r="BQ11" s="10"/>
+      <c r="BR11" s="10"/>
+      <c r="BS11" s="10"/>
+      <c r="BT11" s="10"/>
+      <c r="BU11" s="11"/>
     </row>
-    <row r="12" spans="1:68" ht="12.75" customHeight="1">
+    <row r="12" spans="1:73" ht="12.75" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -12204,9 +12277,14 @@
       <c r="BM12" s="10"/>
       <c r="BN12" s="10"/>
       <c r="BO12" s="10"/>
-      <c r="BP12" s="11"/>
+      <c r="BP12" s="10"/>
+      <c r="BQ12" s="10"/>
+      <c r="BR12" s="10"/>
+      <c r="BS12" s="10"/>
+      <c r="BT12" s="10"/>
+      <c r="BU12" s="11"/>
     </row>
-    <row r="13" spans="1:68" ht="12.75" customHeight="1">
+    <row r="13" spans="1:73" ht="12.75" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -12274,9 +12352,14 @@
       <c r="BM13" s="17"/>
       <c r="BN13" s="17"/>
       <c r="BO13" s="17"/>
-      <c r="BP13" s="18"/>
+      <c r="BP13" s="17"/>
+      <c r="BQ13" s="17"/>
+      <c r="BR13" s="17"/>
+      <c r="BS13" s="17"/>
+      <c r="BT13" s="17"/>
+      <c r="BU13" s="18"/>
     </row>
-    <row r="14" spans="1:68" ht="12.75" customHeight="1">
+    <row r="14" spans="1:73" ht="12.75" customHeight="1">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -12343,9 +12426,14 @@
       <c r="BM14" s="7"/>
       <c r="BN14" s="7"/>
       <c r="BO14" s="7"/>
-      <c r="BP14" s="8"/>
+      <c r="BP14" s="7"/>
+      <c r="BQ14" s="7"/>
+      <c r="BR14" s="7"/>
+      <c r="BS14" s="7"/>
+      <c r="BT14" s="7"/>
+      <c r="BU14" s="8"/>
     </row>
-    <row r="15" spans="1:68" ht="12.75" customHeight="1">
+    <row r="15" spans="1:73" ht="12.75" customHeight="1">
       <c r="A15" s="6"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -12412,9 +12500,14 @@
       <c r="BM15" s="7"/>
       <c r="BN15" s="7"/>
       <c r="BO15" s="7"/>
-      <c r="BP15" s="8"/>
+      <c r="BP15" s="7"/>
+      <c r="BQ15" s="7"/>
+      <c r="BR15" s="7"/>
+      <c r="BS15" s="7"/>
+      <c r="BT15" s="7"/>
+      <c r="BU15" s="8"/>
     </row>
-    <row r="16" spans="1:68" ht="12.75" customHeight="1">
+    <row r="16" spans="1:73" ht="12.75" customHeight="1">
       <c r="A16" s="6"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -12481,9 +12574,14 @@
       <c r="BM16" s="7"/>
       <c r="BN16" s="7"/>
       <c r="BO16" s="7"/>
-      <c r="BP16" s="8"/>
+      <c r="BP16" s="7"/>
+      <c r="BQ16" s="7"/>
+      <c r="BR16" s="7"/>
+      <c r="BS16" s="7"/>
+      <c r="BT16" s="7"/>
+      <c r="BU16" s="8"/>
     </row>
-    <row r="17" spans="1:68" ht="12.75" customHeight="1">
+    <row r="17" spans="1:73" ht="12.75" customHeight="1">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -12550,9 +12648,14 @@
       <c r="BM17" s="7"/>
       <c r="BN17" s="7"/>
       <c r="BO17" s="7"/>
-      <c r="BP17" s="8"/>
+      <c r="BP17" s="7"/>
+      <c r="BQ17" s="7"/>
+      <c r="BR17" s="7"/>
+      <c r="BS17" s="7"/>
+      <c r="BT17" s="7"/>
+      <c r="BU17" s="8"/>
     </row>
-    <row r="18" spans="1:68" ht="12.75" customHeight="1">
+    <row r="18" spans="1:73" ht="12.75" customHeight="1">
       <c r="A18" s="6"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -12619,9 +12722,14 @@
       <c r="BM18" s="7"/>
       <c r="BN18" s="7"/>
       <c r="BO18" s="7"/>
-      <c r="BP18" s="8"/>
+      <c r="BP18" s="7"/>
+      <c r="BQ18" s="7"/>
+      <c r="BR18" s="7"/>
+      <c r="BS18" s="7"/>
+      <c r="BT18" s="7"/>
+      <c r="BU18" s="8"/>
     </row>
-    <row r="19" spans="1:68" ht="12.75" customHeight="1">
+    <row r="19" spans="1:73" ht="12.75" customHeight="1">
       <c r="A19" s="6"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -12688,9 +12796,14 @@
       <c r="BM19" s="7"/>
       <c r="BN19" s="7"/>
       <c r="BO19" s="7"/>
-      <c r="BP19" s="8"/>
+      <c r="BP19" s="7"/>
+      <c r="BQ19" s="7"/>
+      <c r="BR19" s="7"/>
+      <c r="BS19" s="7"/>
+      <c r="BT19" s="7"/>
+      <c r="BU19" s="8"/>
     </row>
-    <row r="20" spans="1:68" ht="12.75" customHeight="1">
+    <row r="20" spans="1:73" ht="12.75" customHeight="1">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -12757,9 +12870,14 @@
       <c r="BM20" s="7"/>
       <c r="BN20" s="7"/>
       <c r="BO20" s="7"/>
-      <c r="BP20" s="8"/>
+      <c r="BP20" s="7"/>
+      <c r="BQ20" s="7"/>
+      <c r="BR20" s="7"/>
+      <c r="BS20" s="7"/>
+      <c r="BT20" s="7"/>
+      <c r="BU20" s="8"/>
     </row>
-    <row r="21" spans="1:68" ht="12.75" customHeight="1">
+    <row r="21" spans="1:73" ht="12.75" customHeight="1">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -12826,9 +12944,14 @@
       <c r="BM21" s="7"/>
       <c r="BN21" s="7"/>
       <c r="BO21" s="7"/>
-      <c r="BP21" s="8"/>
+      <c r="BP21" s="7"/>
+      <c r="BQ21" s="7"/>
+      <c r="BR21" s="7"/>
+      <c r="BS21" s="7"/>
+      <c r="BT21" s="7"/>
+      <c r="BU21" s="8"/>
     </row>
-    <row r="22" spans="1:68" ht="12.75" customHeight="1">
+    <row r="22" spans="1:73" ht="12.75" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -12895,9 +13018,14 @@
       <c r="BM22" s="7"/>
       <c r="BN22" s="7"/>
       <c r="BO22" s="7"/>
-      <c r="BP22" s="8"/>
+      <c r="BP22" s="7"/>
+      <c r="BQ22" s="7"/>
+      <c r="BR22" s="7"/>
+      <c r="BS22" s="7"/>
+      <c r="BT22" s="7"/>
+      <c r="BU22" s="8"/>
     </row>
-    <row r="23" spans="1:68" ht="12.75" customHeight="1">
+    <row r="23" spans="1:73" ht="12.75" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -12964,9 +13092,14 @@
       <c r="BM23" s="7"/>
       <c r="BN23" s="7"/>
       <c r="BO23" s="7"/>
-      <c r="BP23" s="8"/>
+      <c r="BP23" s="7"/>
+      <c r="BQ23" s="7"/>
+      <c r="BR23" s="7"/>
+      <c r="BS23" s="7"/>
+      <c r="BT23" s="7"/>
+      <c r="BU23" s="8"/>
     </row>
-    <row r="24" spans="1:68" ht="12.75" customHeight="1">
+    <row r="24" spans="1:73" ht="12.75" customHeight="1">
       <c r="A24" s="6"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -13033,9 +13166,14 @@
       <c r="BM24" s="7"/>
       <c r="BN24" s="7"/>
       <c r="BO24" s="7"/>
-      <c r="BP24" s="8"/>
+      <c r="BP24" s="7"/>
+      <c r="BQ24" s="7"/>
+      <c r="BR24" s="7"/>
+      <c r="BS24" s="7"/>
+      <c r="BT24" s="7"/>
+      <c r="BU24" s="8"/>
     </row>
-    <row r="25" spans="1:68" ht="12.75" customHeight="1">
+    <row r="25" spans="1:73" ht="12.75" customHeight="1">
       <c r="A25" s="6"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -13102,9 +13240,14 @@
       <c r="BM25" s="7"/>
       <c r="BN25" s="7"/>
       <c r="BO25" s="7"/>
-      <c r="BP25" s="8"/>
+      <c r="BP25" s="7"/>
+      <c r="BQ25" s="7"/>
+      <c r="BR25" s="7"/>
+      <c r="BS25" s="7"/>
+      <c r="BT25" s="7"/>
+      <c r="BU25" s="8"/>
     </row>
-    <row r="26" spans="1:68" ht="12.75" customHeight="1">
+    <row r="26" spans="1:73" ht="12.75" customHeight="1">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -13171,9 +13314,14 @@
       <c r="BM26" s="7"/>
       <c r="BN26" s="7"/>
       <c r="BO26" s="7"/>
-      <c r="BP26" s="8"/>
+      <c r="BP26" s="7"/>
+      <c r="BQ26" s="7"/>
+      <c r="BR26" s="7"/>
+      <c r="BS26" s="7"/>
+      <c r="BT26" s="7"/>
+      <c r="BU26" s="8"/>
     </row>
-    <row r="27" spans="1:68" ht="12.75" customHeight="1">
+    <row r="27" spans="1:73" ht="12.75" customHeight="1">
       <c r="A27" s="6"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -13240,9 +13388,14 @@
       <c r="BM27" s="7"/>
       <c r="BN27" s="7"/>
       <c r="BO27" s="7"/>
-      <c r="BP27" s="8"/>
+      <c r="BP27" s="7"/>
+      <c r="BQ27" s="7"/>
+      <c r="BR27" s="7"/>
+      <c r="BS27" s="7"/>
+      <c r="BT27" s="7"/>
+      <c r="BU27" s="8"/>
     </row>
-    <row r="28" spans="1:68" ht="12.75" customHeight="1">
+    <row r="28" spans="1:73" ht="12.75" customHeight="1">
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -13309,9 +13462,14 @@
       <c r="BM28" s="7"/>
       <c r="BN28" s="7"/>
       <c r="BO28" s="7"/>
-      <c r="BP28" s="8"/>
+      <c r="BP28" s="7"/>
+      <c r="BQ28" s="7"/>
+      <c r="BR28" s="7"/>
+      <c r="BS28" s="7"/>
+      <c r="BT28" s="7"/>
+      <c r="BU28" s="8"/>
     </row>
-    <row r="29" spans="1:68" ht="12.75" customHeight="1">
+    <row r="29" spans="1:73" ht="12.75" customHeight="1">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -13378,9 +13536,14 @@
       <c r="BM29" s="7"/>
       <c r="BN29" s="7"/>
       <c r="BO29" s="7"/>
-      <c r="BP29" s="8"/>
+      <c r="BP29" s="7"/>
+      <c r="BQ29" s="7"/>
+      <c r="BR29" s="7"/>
+      <c r="BS29" s="7"/>
+      <c r="BT29" s="7"/>
+      <c r="BU29" s="8"/>
     </row>
-    <row r="30" spans="1:68" ht="12.75" customHeight="1">
+    <row r="30" spans="1:73" ht="12.75" customHeight="1">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -13447,9 +13610,14 @@
       <c r="BM30" s="7"/>
       <c r="BN30" s="7"/>
       <c r="BO30" s="7"/>
-      <c r="BP30" s="8"/>
+      <c r="BP30" s="7"/>
+      <c r="BQ30" s="7"/>
+      <c r="BR30" s="7"/>
+      <c r="BS30" s="7"/>
+      <c r="BT30" s="7"/>
+      <c r="BU30" s="8"/>
     </row>
-    <row r="31" spans="1:68" ht="12.75" customHeight="1">
+    <row r="31" spans="1:73" ht="12.75" customHeight="1">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -13476,16 +13644,16 @@
       <c r="X31" s="7"/>
       <c r="Y31" s="7"/>
       <c r="Z31" s="7"/>
-      <c r="AA31" s="45" t="s">
+      <c r="AA31" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="AB31" s="46"/>
-      <c r="AC31" s="46"/>
-      <c r="AD31" s="46"/>
-      <c r="AE31" s="46"/>
-      <c r="AF31" s="46"/>
-      <c r="AG31" s="46"/>
-      <c r="AH31" s="46"/>
+      <c r="AB31" s="34"/>
+      <c r="AC31" s="34"/>
+      <c r="AD31" s="34"/>
+      <c r="AE31" s="34"/>
+      <c r="AF31" s="34"/>
+      <c r="AG31" s="34"/>
+      <c r="AH31" s="34"/>
       <c r="AI31" s="7"/>
       <c r="AJ31" s="7"/>
       <c r="AK31" s="7"/>
@@ -13518,9 +13686,14 @@
       <c r="BM31" s="7"/>
       <c r="BN31" s="7"/>
       <c r="BO31" s="7"/>
-      <c r="BP31" s="8"/>
+      <c r="BP31" s="7"/>
+      <c r="BQ31" s="7"/>
+      <c r="BR31" s="7"/>
+      <c r="BS31" s="7"/>
+      <c r="BT31" s="7"/>
+      <c r="BU31" s="8"/>
     </row>
-    <row r="32" spans="1:68" ht="12.75" customHeight="1">
+    <row r="32" spans="1:73" ht="12.75" customHeight="1">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -13587,9 +13760,14 @@
       <c r="BM32" s="7"/>
       <c r="BN32" s="7"/>
       <c r="BO32" s="7"/>
-      <c r="BP32" s="8"/>
+      <c r="BP32" s="7"/>
+      <c r="BQ32" s="7"/>
+      <c r="BR32" s="7"/>
+      <c r="BS32" s="7"/>
+      <c r="BT32" s="7"/>
+      <c r="BU32" s="8"/>
     </row>
-    <row r="33" spans="1:68" ht="12.75" customHeight="1">
+    <row r="33" spans="1:73" ht="12.75" customHeight="1">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -13656,9 +13834,14 @@
       <c r="BM33" s="7"/>
       <c r="BN33" s="7"/>
       <c r="BO33" s="7"/>
-      <c r="BP33" s="8"/>
+      <c r="BP33" s="7"/>
+      <c r="BQ33" s="7"/>
+      <c r="BR33" s="7"/>
+      <c r="BS33" s="7"/>
+      <c r="BT33" s="7"/>
+      <c r="BU33" s="8"/>
     </row>
-    <row r="34" spans="1:68" ht="12.75" customHeight="1">
+    <row r="34" spans="1:73" ht="12.75" customHeight="1">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -13725,9 +13908,14 @@
       <c r="BM34" s="7"/>
       <c r="BN34" s="7"/>
       <c r="BO34" s="7"/>
-      <c r="BP34" s="8"/>
+      <c r="BP34" s="7"/>
+      <c r="BQ34" s="7"/>
+      <c r="BR34" s="7"/>
+      <c r="BS34" s="7"/>
+      <c r="BT34" s="7"/>
+      <c r="BU34" s="8"/>
     </row>
-    <row r="35" spans="1:68" ht="12.75" customHeight="1">
+    <row r="35" spans="1:73" ht="12.75" customHeight="1">
       <c r="A35" s="6"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -13794,9 +13982,14 @@
       <c r="BM35" s="7"/>
       <c r="BN35" s="7"/>
       <c r="BO35" s="7"/>
-      <c r="BP35" s="8"/>
+      <c r="BP35" s="7"/>
+      <c r="BQ35" s="7"/>
+      <c r="BR35" s="7"/>
+      <c r="BS35" s="7"/>
+      <c r="BT35" s="7"/>
+      <c r="BU35" s="8"/>
     </row>
-    <row r="36" spans="1:68" ht="12.75" customHeight="1">
+    <row r="36" spans="1:73" ht="12.75" customHeight="1">
       <c r="A36" s="6"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -13863,9 +14056,14 @@
       <c r="BM36" s="7"/>
       <c r="BN36" s="7"/>
       <c r="BO36" s="7"/>
-      <c r="BP36" s="8"/>
+      <c r="BP36" s="7"/>
+      <c r="BQ36" s="7"/>
+      <c r="BR36" s="7"/>
+      <c r="BS36" s="7"/>
+      <c r="BT36" s="7"/>
+      <c r="BU36" s="8"/>
     </row>
-    <row r="37" spans="1:68" ht="12.75" customHeight="1">
+    <row r="37" spans="1:73" ht="12.75" customHeight="1">
       <c r="A37" s="6"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -13932,9 +14130,14 @@
       <c r="BM37" s="7"/>
       <c r="BN37" s="7"/>
       <c r="BO37" s="7"/>
-      <c r="BP37" s="8"/>
+      <c r="BP37" s="7"/>
+      <c r="BQ37" s="7"/>
+      <c r="BR37" s="7"/>
+      <c r="BS37" s="7"/>
+      <c r="BT37" s="7"/>
+      <c r="BU37" s="8"/>
     </row>
-    <row r="38" spans="1:68" ht="12.75" customHeight="1">
+    <row r="38" spans="1:73" ht="12.75" customHeight="1">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -14001,9 +14204,14 @@
       <c r="BM38" s="7"/>
       <c r="BN38" s="7"/>
       <c r="BO38" s="7"/>
-      <c r="BP38" s="8"/>
+      <c r="BP38" s="7"/>
+      <c r="BQ38" s="7"/>
+      <c r="BR38" s="7"/>
+      <c r="BS38" s="7"/>
+      <c r="BT38" s="7"/>
+      <c r="BU38" s="8"/>
     </row>
-    <row r="39" spans="1:68" ht="12.75" customHeight="1">
+    <row r="39" spans="1:73" ht="12.75" customHeight="1">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -14062,9 +14270,14 @@
       <c r="BM39" s="7"/>
       <c r="BN39" s="7"/>
       <c r="BO39" s="7"/>
-      <c r="BP39" s="8"/>
+      <c r="BP39" s="7"/>
+      <c r="BQ39" s="7"/>
+      <c r="BR39" s="7"/>
+      <c r="BS39" s="7"/>
+      <c r="BT39" s="7"/>
+      <c r="BU39" s="8"/>
     </row>
-    <row r="40" spans="1:68" ht="12.75" customHeight="1">
+    <row r="40" spans="1:73" ht="12.75" customHeight="1">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -14125,9 +14338,14 @@
       <c r="BM40" s="7"/>
       <c r="BN40" s="7"/>
       <c r="BO40" s="7"/>
-      <c r="BP40" s="8"/>
+      <c r="BP40" s="7"/>
+      <c r="BQ40" s="7"/>
+      <c r="BR40" s="7"/>
+      <c r="BS40" s="7"/>
+      <c r="BT40" s="7"/>
+      <c r="BU40" s="8"/>
     </row>
-    <row r="41" spans="1:68" ht="12.75" customHeight="1">
+    <row r="41" spans="1:73" ht="12.75" customHeight="1">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -14188,9 +14406,14 @@
       <c r="BM41" s="7"/>
       <c r="BN41" s="7"/>
       <c r="BO41" s="7"/>
-      <c r="BP41" s="8"/>
+      <c r="BP41" s="7"/>
+      <c r="BQ41" s="7"/>
+      <c r="BR41" s="7"/>
+      <c r="BS41" s="7"/>
+      <c r="BT41" s="7"/>
+      <c r="BU41" s="8"/>
     </row>
-    <row r="42" spans="1:68" ht="12.75" customHeight="1">
+    <row r="42" spans="1:73" ht="12.75" customHeight="1">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -14250,9 +14473,14 @@
       <c r="BM42" s="7"/>
       <c r="BN42" s="7"/>
       <c r="BO42" s="7"/>
-      <c r="BP42" s="8"/>
+      <c r="BP42" s="7"/>
+      <c r="BQ42" s="7"/>
+      <c r="BR42" s="7"/>
+      <c r="BS42" s="7"/>
+      <c r="BT42" s="7"/>
+      <c r="BU42" s="8"/>
     </row>
-    <row r="43" spans="1:68" ht="12.75" customHeight="1">
+    <row r="43" spans="1:73" ht="12.75" customHeight="1">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -14320,9 +14548,14 @@
       <c r="BM43" s="7"/>
       <c r="BN43" s="7"/>
       <c r="BO43" s="7"/>
-      <c r="BP43" s="8"/>
+      <c r="BP43" s="7"/>
+      <c r="BQ43" s="7"/>
+      <c r="BR43" s="7"/>
+      <c r="BS43" s="7"/>
+      <c r="BT43" s="7"/>
+      <c r="BU43" s="8"/>
     </row>
-    <row r="44" spans="1:68" ht="12.75" customHeight="1">
+    <row r="44" spans="1:73" ht="12.75" customHeight="1">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -14390,9 +14623,14 @@
       <c r="BM44" s="7"/>
       <c r="BN44" s="7"/>
       <c r="BO44" s="7"/>
-      <c r="BP44" s="8"/>
+      <c r="BP44" s="7"/>
+      <c r="BQ44" s="7"/>
+      <c r="BR44" s="7"/>
+      <c r="BS44" s="7"/>
+      <c r="BT44" s="7"/>
+      <c r="BU44" s="8"/>
     </row>
-    <row r="45" spans="1:68" ht="12.75" customHeight="1">
+    <row r="45" spans="1:73" ht="12.75" customHeight="1">
       <c r="A45" s="6"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -14460,9 +14698,14 @@
       <c r="BM45" s="7"/>
       <c r="BN45" s="7"/>
       <c r="BO45" s="7"/>
-      <c r="BP45" s="8"/>
+      <c r="BP45" s="7"/>
+      <c r="BQ45" s="7"/>
+      <c r="BR45" s="7"/>
+      <c r="BS45" s="7"/>
+      <c r="BT45" s="7"/>
+      <c r="BU45" s="8"/>
     </row>
-    <row r="46" spans="1:68" ht="12.75" customHeight="1">
+    <row r="46" spans="1:73" ht="12.75" customHeight="1">
       <c r="A46" s="6"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -14530,9 +14773,14 @@
       <c r="BM46" s="7"/>
       <c r="BN46" s="7"/>
       <c r="BO46" s="7"/>
-      <c r="BP46" s="8"/>
+      <c r="BP46" s="7"/>
+      <c r="BQ46" s="7"/>
+      <c r="BR46" s="7"/>
+      <c r="BS46" s="7"/>
+      <c r="BT46" s="7"/>
+      <c r="BU46" s="8"/>
     </row>
-    <row r="47" spans="1:68" ht="12.75" customHeight="1">
+    <row r="47" spans="1:73" ht="12.75" customHeight="1">
       <c r="A47" s="6"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -14599,9 +14847,14 @@
       <c r="BM47" s="7"/>
       <c r="BN47" s="7"/>
       <c r="BO47" s="7"/>
-      <c r="BP47" s="8"/>
+      <c r="BP47" s="7"/>
+      <c r="BQ47" s="7"/>
+      <c r="BR47" s="7"/>
+      <c r="BS47" s="7"/>
+      <c r="BT47" s="7"/>
+      <c r="BU47" s="8"/>
     </row>
-    <row r="48" spans="1:68" ht="12.75" customHeight="1">
+    <row r="48" spans="1:73" ht="12.75" customHeight="1">
       <c r="A48" s="6"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -14667,9 +14920,14 @@
       <c r="BM48" s="7"/>
       <c r="BN48" s="7"/>
       <c r="BO48" s="7"/>
-      <c r="BP48" s="8"/>
+      <c r="BP48" s="7"/>
+      <c r="BQ48" s="7"/>
+      <c r="BR48" s="7"/>
+      <c r="BS48" s="7"/>
+      <c r="BT48" s="7"/>
+      <c r="BU48" s="8"/>
     </row>
-    <row r="49" spans="1:68" ht="12.75" customHeight="1">
+    <row r="49" spans="1:73" ht="12.75" customHeight="1">
       <c r="A49" s="6"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -14733,9 +14991,14 @@
       <c r="BM49" s="7"/>
       <c r="BN49" s="7"/>
       <c r="BO49" s="7"/>
-      <c r="BP49" s="8"/>
+      <c r="BP49" s="7"/>
+      <c r="BQ49" s="7"/>
+      <c r="BR49" s="7"/>
+      <c r="BS49" s="7"/>
+      <c r="BT49" s="7"/>
+      <c r="BU49" s="8"/>
     </row>
-    <row r="50" spans="1:68" ht="12.75" customHeight="1">
+    <row r="50" spans="1:73" ht="12.75" customHeight="1">
       <c r="A50" s="6"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -14794,9 +15057,14 @@
       <c r="BM50" s="7"/>
       <c r="BN50" s="7"/>
       <c r="BO50" s="7"/>
-      <c r="BP50" s="8"/>
+      <c r="BP50" s="7"/>
+      <c r="BQ50" s="7"/>
+      <c r="BR50" s="7"/>
+      <c r="BS50" s="7"/>
+      <c r="BT50" s="7"/>
+      <c r="BU50" s="8"/>
     </row>
-    <row r="51" spans="1:68" ht="12.75" customHeight="1">
+    <row r="51" spans="1:73" ht="12.75" customHeight="1">
       <c r="A51" s="6"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
@@ -14855,9 +15123,14 @@
       <c r="BM51" s="7"/>
       <c r="BN51" s="7"/>
       <c r="BO51" s="7"/>
-      <c r="BP51" s="8"/>
+      <c r="BP51" s="7"/>
+      <c r="BQ51" s="7"/>
+      <c r="BR51" s="7"/>
+      <c r="BS51" s="7"/>
+      <c r="BT51" s="7"/>
+      <c r="BU51" s="8"/>
     </row>
-    <row r="52" spans="1:68" ht="12.75" customHeight="1">
+    <row r="52" spans="1:73" ht="12.75" customHeight="1">
       <c r="A52" s="6"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
@@ -14916,9 +15189,14 @@
       <c r="BM52" s="7"/>
       <c r="BN52" s="7"/>
       <c r="BO52" s="7"/>
-      <c r="BP52" s="8"/>
+      <c r="BP52" s="7"/>
+      <c r="BQ52" s="7"/>
+      <c r="BR52" s="7"/>
+      <c r="BS52" s="7"/>
+      <c r="BT52" s="7"/>
+      <c r="BU52" s="8"/>
     </row>
-    <row r="53" spans="1:68" ht="12.75" customHeight="1">
+    <row r="53" spans="1:73" ht="12.75" customHeight="1">
       <c r="A53" s="6"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
@@ -14977,9 +15255,14 @@
       <c r="BM53" s="7"/>
       <c r="BN53" s="7"/>
       <c r="BO53" s="7"/>
-      <c r="BP53" s="8"/>
+      <c r="BP53" s="7"/>
+      <c r="BQ53" s="7"/>
+      <c r="BR53" s="7"/>
+      <c r="BS53" s="7"/>
+      <c r="BT53" s="7"/>
+      <c r="BU53" s="8"/>
     </row>
-    <row r="54" spans="1:68" ht="12.75" customHeight="1">
+    <row r="54" spans="1:73" ht="12.75" customHeight="1">
       <c r="A54" s="6"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
@@ -15038,9 +15321,14 @@
       <c r="BM54" s="7"/>
       <c r="BN54" s="7"/>
       <c r="BO54" s="7"/>
-      <c r="BP54" s="8"/>
+      <c r="BP54" s="7"/>
+      <c r="BQ54" s="7"/>
+      <c r="BR54" s="7"/>
+      <c r="BS54" s="7"/>
+      <c r="BT54" s="7"/>
+      <c r="BU54" s="8"/>
     </row>
-    <row r="55" spans="1:68" ht="12.75" customHeight="1">
+    <row r="55" spans="1:73" ht="12.75" customHeight="1">
       <c r="A55" s="6"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -15099,9 +15387,14 @@
       <c r="BM55" s="7"/>
       <c r="BN55" s="7"/>
       <c r="BO55" s="7"/>
-      <c r="BP55" s="8"/>
+      <c r="BP55" s="7"/>
+      <c r="BQ55" s="7"/>
+      <c r="BR55" s="7"/>
+      <c r="BS55" s="7"/>
+      <c r="BT55" s="7"/>
+      <c r="BU55" s="8"/>
     </row>
-    <row r="56" spans="1:68" ht="12.75" customHeight="1">
+    <row r="56" spans="1:73" ht="12.75" customHeight="1">
       <c r="A56" s="6"/>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
@@ -15160,9 +15453,14 @@
       <c r="BM56" s="7"/>
       <c r="BN56" s="7"/>
       <c r="BO56" s="7"/>
-      <c r="BP56" s="8"/>
+      <c r="BP56" s="7"/>
+      <c r="BQ56" s="7"/>
+      <c r="BR56" s="7"/>
+      <c r="BS56" s="7"/>
+      <c r="BT56" s="7"/>
+      <c r="BU56" s="8"/>
     </row>
-    <row r="57" spans="1:68" ht="12.75" customHeight="1">
+    <row r="57" spans="1:73" ht="12.75" customHeight="1">
       <c r="A57" s="6"/>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
@@ -15221,9 +15519,14 @@
       <c r="BM57" s="7"/>
       <c r="BN57" s="7"/>
       <c r="BO57" s="7"/>
-      <c r="BP57" s="8"/>
+      <c r="BP57" s="7"/>
+      <c r="BQ57" s="7"/>
+      <c r="BR57" s="7"/>
+      <c r="BS57" s="7"/>
+      <c r="BT57" s="7"/>
+      <c r="BU57" s="8"/>
     </row>
-    <row r="58" spans="1:68" ht="12.75" customHeight="1">
+    <row r="58" spans="1:73" ht="12.75" customHeight="1">
       <c r="A58" s="6"/>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
@@ -15282,9 +15585,14 @@
       <c r="BM58" s="7"/>
       <c r="BN58" s="7"/>
       <c r="BO58" s="7"/>
-      <c r="BP58" s="8"/>
+      <c r="BP58" s="7"/>
+      <c r="BQ58" s="7"/>
+      <c r="BR58" s="7"/>
+      <c r="BS58" s="7"/>
+      <c r="BT58" s="7"/>
+      <c r="BU58" s="8"/>
     </row>
-    <row r="59" spans="1:68" ht="12.75" customHeight="1">
+    <row r="59" spans="1:73" ht="12.75" customHeight="1">
       <c r="A59" s="6"/>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
@@ -15343,9 +15651,14 @@
       <c r="BM59" s="7"/>
       <c r="BN59" s="7"/>
       <c r="BO59" s="7"/>
-      <c r="BP59" s="8"/>
+      <c r="BP59" s="7"/>
+      <c r="BQ59" s="7"/>
+      <c r="BR59" s="7"/>
+      <c r="BS59" s="7"/>
+      <c r="BT59" s="7"/>
+      <c r="BU59" s="8"/>
     </row>
-    <row r="60" spans="1:68" ht="12.75" customHeight="1">
+    <row r="60" spans="1:73" ht="12.75" customHeight="1">
       <c r="A60" s="6"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
@@ -15404,9 +15717,14 @@
       <c r="BM60" s="7"/>
       <c r="BN60" s="7"/>
       <c r="BO60" s="7"/>
-      <c r="BP60" s="8"/>
+      <c r="BP60" s="7"/>
+      <c r="BQ60" s="7"/>
+      <c r="BR60" s="7"/>
+      <c r="BS60" s="7"/>
+      <c r="BT60" s="7"/>
+      <c r="BU60" s="8"/>
     </row>
-    <row r="61" spans="1:68" ht="12.75" customHeight="1">
+    <row r="61" spans="1:73" ht="12.75" customHeight="1">
       <c r="A61" s="6"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
@@ -15465,9 +15783,14 @@
       <c r="BM61" s="7"/>
       <c r="BN61" s="7"/>
       <c r="BO61" s="7"/>
-      <c r="BP61" s="8"/>
+      <c r="BP61" s="7"/>
+      <c r="BQ61" s="7"/>
+      <c r="BR61" s="7"/>
+      <c r="BS61" s="7"/>
+      <c r="BT61" s="7"/>
+      <c r="BU61" s="8"/>
     </row>
-    <row r="62" spans="1:68" ht="12.75" customHeight="1">
+    <row r="62" spans="1:73" ht="12.75" customHeight="1">
       <c r="A62" s="6"/>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
@@ -15526,9 +15849,14 @@
       <c r="BM62" s="7"/>
       <c r="BN62" s="7"/>
       <c r="BO62" s="7"/>
-      <c r="BP62" s="8"/>
+      <c r="BP62" s="7"/>
+      <c r="BQ62" s="7"/>
+      <c r="BR62" s="7"/>
+      <c r="BS62" s="7"/>
+      <c r="BT62" s="7"/>
+      <c r="BU62" s="8"/>
     </row>
-    <row r="63" spans="1:68" ht="12.75" customHeight="1">
+    <row r="63" spans="1:73" ht="12.75" customHeight="1">
       <c r="A63" s="6"/>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
@@ -15587,9 +15915,14 @@
       <c r="BM63" s="7"/>
       <c r="BN63" s="7"/>
       <c r="BO63" s="7"/>
-      <c r="BP63" s="8"/>
+      <c r="BP63" s="7"/>
+      <c r="BQ63" s="7"/>
+      <c r="BR63" s="7"/>
+      <c r="BS63" s="7"/>
+      <c r="BT63" s="7"/>
+      <c r="BU63" s="8"/>
     </row>
-    <row r="64" spans="1:68" ht="12.75" customHeight="1">
+    <row r="64" spans="1:73" ht="12.75" customHeight="1">
       <c r="A64" s="6"/>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
@@ -15648,9 +15981,14 @@
       <c r="BM64" s="7"/>
       <c r="BN64" s="7"/>
       <c r="BO64" s="7"/>
-      <c r="BP64" s="8"/>
+      <c r="BP64" s="7"/>
+      <c r="BQ64" s="7"/>
+      <c r="BR64" s="7"/>
+      <c r="BS64" s="7"/>
+      <c r="BT64" s="7"/>
+      <c r="BU64" s="8"/>
     </row>
-    <row r="65" spans="1:68" ht="12.75" customHeight="1">
+    <row r="65" spans="1:73" ht="12.75" customHeight="1">
       <c r="A65" s="6"/>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
@@ -15709,9 +16047,14 @@
       <c r="BM65" s="7"/>
       <c r="BN65" s="7"/>
       <c r="BO65" s="7"/>
-      <c r="BP65" s="8"/>
+      <c r="BP65" s="7"/>
+      <c r="BQ65" s="7"/>
+      <c r="BR65" s="7"/>
+      <c r="BS65" s="7"/>
+      <c r="BT65" s="7"/>
+      <c r="BU65" s="8"/>
     </row>
-    <row r="66" spans="1:68" ht="12.75" customHeight="1">
+    <row r="66" spans="1:73" ht="12.75" customHeight="1">
       <c r="A66" s="6"/>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
@@ -15770,9 +16113,14 @@
       <c r="BM66" s="7"/>
       <c r="BN66" s="7"/>
       <c r="BO66" s="7"/>
-      <c r="BP66" s="8"/>
+      <c r="BP66" s="7"/>
+      <c r="BQ66" s="7"/>
+      <c r="BR66" s="7"/>
+      <c r="BS66" s="7"/>
+      <c r="BT66" s="7"/>
+      <c r="BU66" s="8"/>
     </row>
-    <row r="67" spans="1:68" ht="12.75" customHeight="1">
+    <row r="67" spans="1:73" ht="12.75" customHeight="1">
       <c r="A67" s="6"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -15831,9 +16179,14 @@
       <c r="BM67" s="7"/>
       <c r="BN67" s="7"/>
       <c r="BO67" s="7"/>
-      <c r="BP67" s="8"/>
+      <c r="BP67" s="7"/>
+      <c r="BQ67" s="7"/>
+      <c r="BR67" s="7"/>
+      <c r="BS67" s="7"/>
+      <c r="BT67" s="7"/>
+      <c r="BU67" s="8"/>
     </row>
-    <row r="68" spans="1:68" ht="12.75" customHeight="1">
+    <row r="68" spans="1:73" ht="12.75" customHeight="1">
       <c r="A68" s="6"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
@@ -15892,9 +16245,14 @@
       <c r="BM68" s="7"/>
       <c r="BN68" s="7"/>
       <c r="BO68" s="7"/>
-      <c r="BP68" s="8"/>
+      <c r="BP68" s="7"/>
+      <c r="BQ68" s="7"/>
+      <c r="BR68" s="7"/>
+      <c r="BS68" s="7"/>
+      <c r="BT68" s="7"/>
+      <c r="BU68" s="8"/>
     </row>
-    <row r="69" spans="1:68" ht="12.75" customHeight="1">
+    <row r="69" spans="1:73" ht="12.75" customHeight="1">
       <c r="A69" s="6"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
@@ -15954,9 +16312,14 @@
       <c r="BM69" s="7"/>
       <c r="BN69" s="7"/>
       <c r="BO69" s="7"/>
-      <c r="BP69" s="8"/>
+      <c r="BP69" s="7"/>
+      <c r="BQ69" s="7"/>
+      <c r="BR69" s="7"/>
+      <c r="BS69" s="7"/>
+      <c r="BT69" s="7"/>
+      <c r="BU69" s="8"/>
     </row>
-    <row r="70" spans="1:68" ht="12.75" customHeight="1">
+    <row r="70" spans="1:73" ht="12.75" customHeight="1">
       <c r="A70" s="6"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
@@ -16016,9 +16379,14 @@
       <c r="BM70" s="7"/>
       <c r="BN70" s="7"/>
       <c r="BO70" s="7"/>
-      <c r="BP70" s="8"/>
+      <c r="BP70" s="7"/>
+      <c r="BQ70" s="7"/>
+      <c r="BR70" s="7"/>
+      <c r="BS70" s="7"/>
+      <c r="BT70" s="7"/>
+      <c r="BU70" s="8"/>
     </row>
-    <row r="71" spans="1:68" ht="12.75" customHeight="1">
+    <row r="71" spans="1:73" ht="12.75" customHeight="1">
       <c r="A71" s="6"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
@@ -16078,9 +16446,14 @@
       <c r="BM71" s="7"/>
       <c r="BN71" s="7"/>
       <c r="BO71" s="7"/>
-      <c r="BP71" s="8"/>
+      <c r="BP71" s="7"/>
+      <c r="BQ71" s="7"/>
+      <c r="BR71" s="7"/>
+      <c r="BS71" s="7"/>
+      <c r="BT71" s="7"/>
+      <c r="BU71" s="8"/>
     </row>
-    <row r="72" spans="1:68" ht="12.75" customHeight="1">
+    <row r="72" spans="1:73" ht="12.75" customHeight="1">
       <c r="A72" s="6"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
@@ -16140,9 +16513,14 @@
       <c r="BM72" s="7"/>
       <c r="BN72" s="7"/>
       <c r="BO72" s="7"/>
-      <c r="BP72" s="8"/>
+      <c r="BP72" s="7"/>
+      <c r="BQ72" s="7"/>
+      <c r="BR72" s="7"/>
+      <c r="BS72" s="7"/>
+      <c r="BT72" s="7"/>
+      <c r="BU72" s="8"/>
     </row>
-    <row r="73" spans="1:68" ht="12.75" customHeight="1">
+    <row r="73" spans="1:73" ht="12.75" customHeight="1">
       <c r="A73" s="6"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
@@ -16202,9 +16580,14 @@
       <c r="BM73" s="7"/>
       <c r="BN73" s="7"/>
       <c r="BO73" s="7"/>
-      <c r="BP73" s="8"/>
+      <c r="BP73" s="7"/>
+      <c r="BQ73" s="7"/>
+      <c r="BR73" s="7"/>
+      <c r="BS73" s="7"/>
+      <c r="BT73" s="7"/>
+      <c r="BU73" s="8"/>
     </row>
-    <row r="74" spans="1:68" ht="12.75" customHeight="1">
+    <row r="74" spans="1:73" ht="12.75" customHeight="1">
       <c r="A74" s="6"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -16264,9 +16647,14 @@
       <c r="BM74" s="7"/>
       <c r="BN74" s="7"/>
       <c r="BO74" s="7"/>
-      <c r="BP74" s="8"/>
+      <c r="BP74" s="7"/>
+      <c r="BQ74" s="7"/>
+      <c r="BR74" s="7"/>
+      <c r="BS74" s="7"/>
+      <c r="BT74" s="7"/>
+      <c r="BU74" s="8"/>
     </row>
-    <row r="75" spans="1:68" ht="12.75" customHeight="1">
+    <row r="75" spans="1:73" ht="12.75" customHeight="1">
       <c r="A75" s="6"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
@@ -16326,9 +16714,14 @@
       <c r="BM75" s="7"/>
       <c r="BN75" s="7"/>
       <c r="BO75" s="7"/>
-      <c r="BP75" s="8"/>
+      <c r="BP75" s="7"/>
+      <c r="BQ75" s="7"/>
+      <c r="BR75" s="7"/>
+      <c r="BS75" s="7"/>
+      <c r="BT75" s="7"/>
+      <c r="BU75" s="8"/>
     </row>
-    <row r="76" spans="1:68" ht="12.75" customHeight="1">
+    <row r="76" spans="1:73" ht="12.75" customHeight="1">
       <c r="A76" s="6"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
@@ -16388,9 +16781,14 @@
       <c r="BM76" s="7"/>
       <c r="BN76" s="7"/>
       <c r="BO76" s="7"/>
-      <c r="BP76" s="8"/>
+      <c r="BP76" s="7"/>
+      <c r="BQ76" s="7"/>
+      <c r="BR76" s="7"/>
+      <c r="BS76" s="7"/>
+      <c r="BT76" s="7"/>
+      <c r="BU76" s="8"/>
     </row>
-    <row r="77" spans="1:68" ht="12.75" customHeight="1">
+    <row r="77" spans="1:73" ht="12.75" customHeight="1">
       <c r="A77" s="6"/>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
@@ -16450,9 +16848,14 @@
       <c r="BM77" s="7"/>
       <c r="BN77" s="7"/>
       <c r="BO77" s="7"/>
-      <c r="BP77" s="8"/>
+      <c r="BP77" s="7"/>
+      <c r="BQ77" s="7"/>
+      <c r="BR77" s="7"/>
+      <c r="BS77" s="7"/>
+      <c r="BT77" s="7"/>
+      <c r="BU77" s="8"/>
     </row>
-    <row r="78" spans="1:68" ht="12.75" customHeight="1">
+    <row r="78" spans="1:73" ht="12.75" customHeight="1">
       <c r="A78" s="6"/>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
@@ -16520,9 +16923,14 @@
       <c r="BM78" s="7"/>
       <c r="BN78" s="7"/>
       <c r="BO78" s="7"/>
-      <c r="BP78" s="8"/>
+      <c r="BP78" s="7"/>
+      <c r="BQ78" s="7"/>
+      <c r="BR78" s="7"/>
+      <c r="BS78" s="7"/>
+      <c r="BT78" s="7"/>
+      <c r="BU78" s="8"/>
     </row>
-    <row r="79" spans="1:68" ht="12.75" customHeight="1">
+    <row r="79" spans="1:73" ht="12.75" customHeight="1">
       <c r="A79" s="6"/>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
@@ -16590,9 +16998,14 @@
       <c r="BM79" s="7"/>
       <c r="BN79" s="7"/>
       <c r="BO79" s="7"/>
-      <c r="BP79" s="8"/>
+      <c r="BP79" s="7"/>
+      <c r="BQ79" s="7"/>
+      <c r="BR79" s="7"/>
+      <c r="BS79" s="7"/>
+      <c r="BT79" s="7"/>
+      <c r="BU79" s="8"/>
     </row>
-    <row r="80" spans="1:68" ht="12.75" customHeight="1">
+    <row r="80" spans="1:73" ht="12.75" customHeight="1">
       <c r="A80" s="6"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
@@ -16660,9 +17073,14 @@
       <c r="BM80" s="7"/>
       <c r="BN80" s="7"/>
       <c r="BO80" s="7"/>
-      <c r="BP80" s="8"/>
+      <c r="BP80" s="7"/>
+      <c r="BQ80" s="7"/>
+      <c r="BR80" s="7"/>
+      <c r="BS80" s="7"/>
+      <c r="BT80" s="7"/>
+      <c r="BU80" s="8"/>
     </row>
-    <row r="81" spans="1:68" ht="12.75" customHeight="1">
+    <row r="81" spans="1:73" ht="12.75" customHeight="1">
       <c r="A81" s="6"/>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
@@ -16730,9 +17148,14 @@
       <c r="BM81" s="7"/>
       <c r="BN81" s="7"/>
       <c r="BO81" s="7"/>
-      <c r="BP81" s="8"/>
+      <c r="BP81" s="7"/>
+      <c r="BQ81" s="7"/>
+      <c r="BR81" s="7"/>
+      <c r="BS81" s="7"/>
+      <c r="BT81" s="7"/>
+      <c r="BU81" s="8"/>
     </row>
-    <row r="82" spans="1:68" ht="12.75" customHeight="1">
+    <row r="82" spans="1:73" ht="12.75" customHeight="1">
       <c r="A82" s="6"/>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
@@ -16800,9 +17223,14 @@
       <c r="BM82" s="7"/>
       <c r="BN82" s="7"/>
       <c r="BO82" s="7"/>
-      <c r="BP82" s="8"/>
+      <c r="BP82" s="7"/>
+      <c r="BQ82" s="7"/>
+      <c r="BR82" s="7"/>
+      <c r="BS82" s="7"/>
+      <c r="BT82" s="7"/>
+      <c r="BU82" s="8"/>
     </row>
-    <row r="83" spans="1:68" ht="12.75" customHeight="1">
+    <row r="83" spans="1:73" ht="12.75" customHeight="1">
       <c r="A83" s="6"/>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
@@ -16870,9 +17298,14 @@
       <c r="BM83" s="7"/>
       <c r="BN83" s="7"/>
       <c r="BO83" s="7"/>
-      <c r="BP83" s="8"/>
+      <c r="BP83" s="7"/>
+      <c r="BQ83" s="7"/>
+      <c r="BR83" s="7"/>
+      <c r="BS83" s="7"/>
+      <c r="BT83" s="7"/>
+      <c r="BU83" s="8"/>
     </row>
-    <row r="84" spans="1:68" ht="12.75" customHeight="1">
+    <row r="84" spans="1:73" ht="12.75" customHeight="1">
       <c r="A84" s="6"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
@@ -16940,9 +17373,14 @@
       <c r="BM84" s="7"/>
       <c r="BN84" s="7"/>
       <c r="BO84" s="7"/>
-      <c r="BP84" s="8"/>
+      <c r="BP84" s="7"/>
+      <c r="BQ84" s="7"/>
+      <c r="BR84" s="7"/>
+      <c r="BS84" s="7"/>
+      <c r="BT84" s="7"/>
+      <c r="BU84" s="8"/>
     </row>
-    <row r="85" spans="1:68" ht="12.75" customHeight="1">
+    <row r="85" spans="1:73" ht="12.75" customHeight="1">
       <c r="A85" s="6"/>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
@@ -17010,9 +17448,14 @@
       <c r="BM85" s="7"/>
       <c r="BN85" s="7"/>
       <c r="BO85" s="7"/>
-      <c r="BP85" s="8"/>
+      <c r="BP85" s="7"/>
+      <c r="BQ85" s="7"/>
+      <c r="BR85" s="7"/>
+      <c r="BS85" s="7"/>
+      <c r="BT85" s="7"/>
+      <c r="BU85" s="8"/>
     </row>
-    <row r="86" spans="1:68" ht="12.75" customHeight="1">
+    <row r="86" spans="1:73" ht="12.75" customHeight="1">
       <c r="A86" s="6"/>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
@@ -17080,9 +17523,14 @@
       <c r="BM86" s="7"/>
       <c r="BN86" s="7"/>
       <c r="BO86" s="7"/>
-      <c r="BP86" s="8"/>
+      <c r="BP86" s="7"/>
+      <c r="BQ86" s="7"/>
+      <c r="BR86" s="7"/>
+      <c r="BS86" s="7"/>
+      <c r="BT86" s="7"/>
+      <c r="BU86" s="8"/>
     </row>
-    <row r="87" spans="1:68" ht="12.75" customHeight="1">
+    <row r="87" spans="1:73" ht="12.75" customHeight="1">
       <c r="A87" s="6"/>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
@@ -17131,9 +17579,9 @@
       <c r="AT87" s="7"/>
       <c r="AU87" s="7"/>
       <c r="AV87" s="7"/>
-      <c r="BP87" s="21"/>
+      <c r="BU87" s="21"/>
     </row>
-    <row r="88" spans="1:68" ht="12.75" customHeight="1">
+    <row r="88" spans="1:73" ht="12.75" customHeight="1">
       <c r="A88" s="6"/>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
@@ -17182,9 +17630,9 @@
       <c r="AT88" s="7"/>
       <c r="AU88" s="7"/>
       <c r="AV88" s="7"/>
-      <c r="BP88" s="21"/>
+      <c r="BU88" s="21"/>
     </row>
-    <row r="89" spans="1:68" ht="12.75" customHeight="1">
+    <row r="89" spans="1:73" ht="12.75" customHeight="1">
       <c r="A89" s="6"/>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
@@ -17233,236 +17681,236 @@
       <c r="AT89" s="7"/>
       <c r="AU89" s="7"/>
       <c r="AV89" s="7"/>
-      <c r="BP89" s="21"/>
+      <c r="BU89" s="21"/>
     </row>
-    <row r="90" spans="1:68" ht="12.75" customHeight="1">
+    <row r="90" spans="1:73" ht="12.75" customHeight="1">
       <c r="A90" s="22"/>
-      <c r="BP90" s="21"/>
+      <c r="BU90" s="21"/>
     </row>
-    <row r="91" spans="1:68" ht="12.75" customHeight="1">
+    <row r="91" spans="1:73" ht="12.75" customHeight="1">
       <c r="A91" s="22"/>
-      <c r="BP91" s="21"/>
+      <c r="BU91" s="21"/>
     </row>
-    <row r="92" spans="1:68" ht="12.75" customHeight="1">
+    <row r="92" spans="1:73" ht="12.75" customHeight="1">
       <c r="A92" s="22"/>
-      <c r="AQ92" s="47" t="s">
+      <c r="AQ92" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="AR92" s="47"/>
-      <c r="AS92" s="47"/>
-      <c r="AT92" s="47"/>
-      <c r="AU92" s="47"/>
-      <c r="BP92" s="21"/>
+      <c r="AR92" s="35"/>
+      <c r="AS92" s="35"/>
+      <c r="AT92" s="35"/>
+      <c r="AU92" s="35"/>
+      <c r="BU92" s="21"/>
     </row>
-    <row r="93" spans="1:68" ht="12.75" customHeight="1">
+    <row r="93" spans="1:73" ht="12.75" customHeight="1">
       <c r="A93" s="22"/>
-      <c r="AQ93" s="47"/>
-      <c r="AR93" s="47"/>
-      <c r="AS93" s="47"/>
-      <c r="AT93" s="47"/>
-      <c r="AU93" s="47"/>
-      <c r="BP93" s="21"/>
+      <c r="AQ93" s="35"/>
+      <c r="AR93" s="35"/>
+      <c r="AS93" s="35"/>
+      <c r="AT93" s="35"/>
+      <c r="AU93" s="35"/>
+      <c r="BU93" s="21"/>
     </row>
-    <row r="94" spans="1:68" ht="12.75" customHeight="1">
+    <row r="94" spans="1:73" ht="12.75" customHeight="1">
       <c r="A94" s="22"/>
-      <c r="AQ94" s="47"/>
-      <c r="AR94" s="47"/>
-      <c r="AS94" s="47"/>
-      <c r="AT94" s="47"/>
-      <c r="AU94" s="47"/>
-      <c r="BP94" s="21"/>
+      <c r="AQ94" s="35"/>
+      <c r="AR94" s="35"/>
+      <c r="AS94" s="35"/>
+      <c r="AT94" s="35"/>
+      <c r="AU94" s="35"/>
+      <c r="BU94" s="21"/>
     </row>
-    <row r="95" spans="1:68" ht="12.75" customHeight="1">
+    <row r="95" spans="1:73" ht="12.75" customHeight="1">
       <c r="A95" s="22"/>
-      <c r="AQ95" s="47"/>
-      <c r="AR95" s="47"/>
-      <c r="AS95" s="47"/>
-      <c r="AT95" s="47"/>
-      <c r="AU95" s="47"/>
-      <c r="BP95" s="21"/>
+      <c r="AQ95" s="35"/>
+      <c r="AR95" s="35"/>
+      <c r="AS95" s="35"/>
+      <c r="AT95" s="35"/>
+      <c r="AU95" s="35"/>
+      <c r="BU95" s="21"/>
     </row>
-    <row r="96" spans="1:68" ht="12.75" customHeight="1">
+    <row r="96" spans="1:73" ht="12.75" customHeight="1">
       <c r="A96" s="22"/>
-      <c r="AQ96" s="47"/>
-      <c r="AR96" s="47"/>
-      <c r="AS96" s="47"/>
-      <c r="AT96" s="47"/>
-      <c r="AU96" s="47"/>
-      <c r="BP96" s="21"/>
+      <c r="AQ96" s="35"/>
+      <c r="AR96" s="35"/>
+      <c r="AS96" s="35"/>
+      <c r="AT96" s="35"/>
+      <c r="AU96" s="35"/>
+      <c r="BU96" s="21"/>
     </row>
-    <row r="97" spans="1:68" ht="12.75" customHeight="1">
+    <row r="97" spans="1:73" ht="12.75" customHeight="1">
       <c r="A97" s="22"/>
-      <c r="BP97" s="21"/>
+      <c r="BU97" s="21"/>
     </row>
-    <row r="98" spans="1:68" ht="12.75" customHeight="1">
+    <row r="98" spans="1:73" ht="12.75" customHeight="1">
       <c r="A98" s="22"/>
-      <c r="BP98" s="21"/>
+      <c r="BU98" s="21"/>
     </row>
-    <row r="99" spans="1:68" ht="12.75" customHeight="1">
+    <row r="99" spans="1:73" ht="12.75" customHeight="1">
       <c r="A99" s="22"/>
-      <c r="BP99" s="21"/>
+      <c r="BU99" s="21"/>
     </row>
-    <row r="100" spans="1:68" ht="12.75" customHeight="1">
+    <row r="100" spans="1:73" ht="12.75" customHeight="1">
       <c r="A100" s="22"/>
-      <c r="BP100" s="21"/>
+      <c r="BU100" s="21"/>
     </row>
-    <row r="101" spans="1:68" ht="12.75" customHeight="1">
+    <row r="101" spans="1:73" ht="12.75" customHeight="1">
       <c r="A101" s="22"/>
-      <c r="BP101" s="21"/>
+      <c r="BU101" s="21"/>
     </row>
-    <row r="102" spans="1:68" ht="12.75" customHeight="1">
+    <row r="102" spans="1:73" ht="12.75" customHeight="1">
       <c r="A102" s="22"/>
-      <c r="BP102" s="21"/>
+      <c r="BU102" s="21"/>
     </row>
-    <row r="103" spans="1:68" ht="12.75" customHeight="1">
+    <row r="103" spans="1:73" ht="12.75" customHeight="1">
       <c r="A103" s="22"/>
-      <c r="BP103" s="21"/>
+      <c r="BU103" s="21"/>
     </row>
-    <row r="104" spans="1:68" ht="12.75" customHeight="1">
+    <row r="104" spans="1:73" ht="12.75" customHeight="1">
       <c r="A104" s="22"/>
-      <c r="BP104" s="21"/>
+      <c r="BU104" s="21"/>
     </row>
-    <row r="105" spans="1:68" ht="12.75" customHeight="1">
+    <row r="105" spans="1:73" ht="12.75" customHeight="1">
       <c r="A105" s="22"/>
-      <c r="BP105" s="21"/>
+      <c r="BU105" s="21"/>
     </row>
-    <row r="106" spans="1:68" ht="12.75" customHeight="1">
+    <row r="106" spans="1:73" ht="12.75" customHeight="1">
       <c r="A106" s="22"/>
-      <c r="BP106" s="21"/>
+      <c r="BU106" s="21"/>
     </row>
-    <row r="107" spans="1:68" ht="12.75" customHeight="1">
+    <row r="107" spans="1:73" ht="12.75" customHeight="1">
       <c r="A107" s="22"/>
-      <c r="BP107" s="21"/>
+      <c r="BU107" s="21"/>
     </row>
-    <row r="108" spans="1:68" ht="12.75" customHeight="1">
+    <row r="108" spans="1:73" ht="12.75" customHeight="1">
       <c r="A108" s="22"/>
-      <c r="BP108" s="21"/>
+      <c r="BU108" s="21"/>
     </row>
-    <row r="109" spans="1:68" ht="12.75" customHeight="1">
+    <row r="109" spans="1:73" ht="12.75" customHeight="1">
       <c r="A109" s="22"/>
-      <c r="BP109" s="21"/>
+      <c r="BU109" s="21"/>
     </row>
-    <row r="110" spans="1:68" ht="12.75" customHeight="1">
+    <row r="110" spans="1:73" ht="12.75" customHeight="1">
       <c r="A110" s="22"/>
-      <c r="BP110" s="21"/>
+      <c r="BU110" s="21"/>
     </row>
-    <row r="111" spans="1:68" ht="12.75" customHeight="1">
+    <row r="111" spans="1:73" ht="12.75" customHeight="1">
       <c r="A111" s="22"/>
-      <c r="BP111" s="21"/>
+      <c r="BU111" s="21"/>
     </row>
-    <row r="112" spans="1:68" ht="12.75" customHeight="1">
+    <row r="112" spans="1:73" ht="12.75" customHeight="1">
       <c r="A112" s="22"/>
-      <c r="BP112" s="21"/>
+      <c r="BU112" s="21"/>
     </row>
-    <row r="113" spans="1:68" ht="12.75" customHeight="1">
+    <row r="113" spans="1:73" ht="12.75" customHeight="1">
       <c r="A113" s="22"/>
-      <c r="BP113" s="21"/>
+      <c r="BU113" s="21"/>
     </row>
-    <row r="114" spans="1:68" ht="12.75" customHeight="1">
+    <row r="114" spans="1:73" ht="12.75" customHeight="1">
       <c r="A114" s="22"/>
-      <c r="BP114" s="21"/>
+      <c r="BU114" s="21"/>
     </row>
-    <row r="115" spans="1:68" ht="12.75" customHeight="1">
+    <row r="115" spans="1:73" ht="12.75" customHeight="1">
       <c r="A115" s="22"/>
-      <c r="BP115" s="21"/>
+      <c r="BU115" s="21"/>
     </row>
-    <row r="116" spans="1:68" ht="12.75" customHeight="1">
+    <row r="116" spans="1:73" ht="12.75" customHeight="1">
       <c r="A116" s="22"/>
-      <c r="BP116" s="21"/>
+      <c r="BU116" s="21"/>
     </row>
-    <row r="117" spans="1:68" ht="12.75" customHeight="1">
+    <row r="117" spans="1:73" ht="12.75" customHeight="1">
       <c r="A117" s="22"/>
-      <c r="BP117" s="21"/>
+      <c r="BU117" s="21"/>
     </row>
-    <row r="118" spans="1:68" ht="12.75" customHeight="1">
+    <row r="118" spans="1:73" ht="12.75" customHeight="1">
       <c r="A118" s="22"/>
-      <c r="BP118" s="21"/>
+      <c r="BU118" s="21"/>
     </row>
-    <row r="119" spans="1:68" ht="12.75" customHeight="1">
+    <row r="119" spans="1:73" ht="12.75" customHeight="1">
       <c r="A119" s="22"/>
-      <c r="BP119" s="21"/>
+      <c r="BU119" s="21"/>
     </row>
-    <row r="120" spans="1:68" ht="12.75" customHeight="1">
+    <row r="120" spans="1:73" ht="12.75" customHeight="1">
       <c r="A120" s="22"/>
-      <c r="BP120" s="21"/>
+      <c r="BU120" s="21"/>
     </row>
-    <row r="121" spans="1:68" ht="12.75" customHeight="1">
+    <row r="121" spans="1:73" ht="12.75" customHeight="1">
       <c r="A121" s="22"/>
-      <c r="BP121" s="21"/>
+      <c r="BU121" s="21"/>
     </row>
-    <row r="122" spans="1:68" ht="12.75" customHeight="1">
+    <row r="122" spans="1:73" ht="12.75" customHeight="1">
       <c r="A122" s="22"/>
-      <c r="BP122" s="21"/>
+      <c r="BU122" s="21"/>
     </row>
-    <row r="123" spans="1:68" ht="12.75" customHeight="1">
+    <row r="123" spans="1:73" ht="12.75" customHeight="1">
       <c r="A123" s="22"/>
-      <c r="BP123" s="21"/>
+      <c r="BU123" s="21"/>
     </row>
-    <row r="124" spans="1:68" ht="12.75" customHeight="1">
+    <row r="124" spans="1:73" ht="12.75" customHeight="1">
       <c r="A124" s="22"/>
-      <c r="BP124" s="21"/>
+      <c r="BU124" s="21"/>
     </row>
-    <row r="125" spans="1:68" ht="12.75" customHeight="1">
+    <row r="125" spans="1:73" ht="12.75" customHeight="1">
       <c r="A125" s="22"/>
-      <c r="BP125" s="21"/>
+      <c r="BU125" s="21"/>
     </row>
-    <row r="126" spans="1:68" ht="12.75" customHeight="1">
+    <row r="126" spans="1:73" ht="12.75" customHeight="1">
       <c r="A126" s="22"/>
-      <c r="BP126" s="21"/>
+      <c r="BU126" s="21"/>
     </row>
-    <row r="127" spans="1:68" ht="12.75" customHeight="1">
+    <row r="127" spans="1:73" ht="12.75" customHeight="1">
       <c r="A127" s="22"/>
-      <c r="BP127" s="21"/>
+      <c r="BU127" s="21"/>
     </row>
-    <row r="128" spans="1:68" ht="12.75" customHeight="1">
+    <row r="128" spans="1:73" ht="12.75" customHeight="1">
       <c r="A128" s="22"/>
-      <c r="BP128" s="21"/>
+      <c r="BU128" s="21"/>
     </row>
-    <row r="129" spans="1:68" ht="12.75" customHeight="1">
+    <row r="129" spans="1:73" ht="12.75" customHeight="1">
       <c r="A129" s="22"/>
-      <c r="BP129" s="21"/>
+      <c r="BU129" s="21"/>
     </row>
-    <row r="130" spans="1:68" ht="12.75" customHeight="1">
+    <row r="130" spans="1:73" ht="12.75" customHeight="1">
       <c r="A130" s="22"/>
-      <c r="BP130" s="21"/>
+      <c r="BU130" s="21"/>
     </row>
-    <row r="131" spans="1:68" ht="12.75" customHeight="1">
+    <row r="131" spans="1:73" ht="12.75" customHeight="1">
       <c r="A131" s="22"/>
-      <c r="BP131" s="21"/>
+      <c r="BU131" s="21"/>
     </row>
-    <row r="132" spans="1:68" ht="12.75" customHeight="1">
+    <row r="132" spans="1:73" ht="12.75" customHeight="1">
       <c r="A132" s="22"/>
-      <c r="BP132" s="21"/>
+      <c r="BU132" s="21"/>
     </row>
-    <row r="133" spans="1:68" ht="12.75" customHeight="1">
+    <row r="133" spans="1:73" ht="12.75" customHeight="1">
       <c r="A133" s="22"/>
-      <c r="BP133" s="21"/>
+      <c r="BU133" s="21"/>
     </row>
-    <row r="134" spans="1:68" ht="12.75" customHeight="1">
+    <row r="134" spans="1:73" ht="12.75" customHeight="1">
       <c r="A134" s="22"/>
-      <c r="BP134" s="21"/>
+      <c r="BU134" s="21"/>
     </row>
-    <row r="135" spans="1:68" ht="12.75" customHeight="1">
+    <row r="135" spans="1:73" ht="12.75" customHeight="1">
       <c r="A135" s="22"/>
-      <c r="BP135" s="21"/>
+      <c r="BU135" s="21"/>
     </row>
-    <row r="136" spans="1:68" ht="12.75" customHeight="1">
+    <row r="136" spans="1:73" ht="12.75" customHeight="1">
       <c r="A136" s="22"/>
-      <c r="BP136" s="21"/>
+      <c r="BU136" s="21"/>
     </row>
-    <row r="137" spans="1:68" ht="12.75" customHeight="1">
+    <row r="137" spans="1:73" ht="12.75" customHeight="1">
       <c r="A137" s="22"/>
-      <c r="BP137" s="21"/>
+      <c r="BU137" s="21"/>
     </row>
-    <row r="138" spans="1:68" ht="12.75" customHeight="1">
+    <row r="138" spans="1:73" ht="12.75" customHeight="1">
       <c r="A138" s="22"/>
-      <c r="BP138" s="21"/>
+      <c r="BU138" s="21"/>
     </row>
-    <row r="139" spans="1:68" ht="12.75" customHeight="1">
+    <row r="139" spans="1:73" ht="12.75" customHeight="1">
       <c r="A139" s="22"/>
-      <c r="BP139" s="21"/>
+      <c r="BU139" s="21"/>
     </row>
-    <row r="140" spans="1:68" s="29" customFormat="1" ht="12.75" customHeight="1">
+    <row r="140" spans="1:73" s="29" customFormat="1" ht="12.75" customHeight="1">
       <c r="A140" s="28"/>
       <c r="E140" s="30"/>
       <c r="F140" s="30"/>
@@ -17479,9 +17927,14 @@
       <c r="BM140" s="31"/>
       <c r="BN140" s="31"/>
       <c r="BO140" s="31"/>
-      <c r="BP140" s="32"/>
+      <c r="BP140" s="31"/>
+      <c r="BQ140" s="31"/>
+      <c r="BR140" s="31"/>
+      <c r="BS140" s="31"/>
+      <c r="BT140" s="31"/>
+      <c r="BU140" s="32"/>
     </row>
-    <row r="141" spans="1:68" s="29" customFormat="1" ht="12.75" customHeight="1">
+    <row r="141" spans="1:73" s="29" customFormat="1" ht="12.75" customHeight="1">
       <c r="A141" s="28"/>
       <c r="E141" s="30"/>
       <c r="F141" s="30"/>
@@ -17498,9 +17951,14 @@
       <c r="BM141" s="31"/>
       <c r="BN141" s="31"/>
       <c r="BO141" s="31"/>
-      <c r="BP141" s="32"/>
+      <c r="BP141" s="31"/>
+      <c r="BQ141" s="31"/>
+      <c r="BR141" s="31"/>
+      <c r="BS141" s="31"/>
+      <c r="BT141" s="31"/>
+      <c r="BU141" s="32"/>
     </row>
-    <row r="142" spans="1:68" s="29" customFormat="1" ht="12.75" customHeight="1">
+    <row r="142" spans="1:73" s="29" customFormat="1" ht="12.75" customHeight="1">
       <c r="A142" s="28"/>
       <c r="E142" s="30"/>
       <c r="F142" s="30"/>
@@ -17517,9 +17975,14 @@
       <c r="BM142" s="31"/>
       <c r="BN142" s="31"/>
       <c r="BO142" s="31"/>
-      <c r="BP142" s="32"/>
+      <c r="BP142" s="31"/>
+      <c r="BQ142" s="31"/>
+      <c r="BR142" s="31"/>
+      <c r="BS142" s="31"/>
+      <c r="BT142" s="31"/>
+      <c r="BU142" s="32"/>
     </row>
-    <row r="143" spans="1:68" s="29" customFormat="1" ht="12.75" customHeight="1">
+    <row r="143" spans="1:73" s="29" customFormat="1" ht="12.75" customHeight="1">
       <c r="A143" s="28"/>
       <c r="E143" s="30"/>
       <c r="F143" s="30"/>
@@ -17536,9 +17999,14 @@
       <c r="BM143" s="31"/>
       <c r="BN143" s="31"/>
       <c r="BO143" s="31"/>
-      <c r="BP143" s="32"/>
+      <c r="BP143" s="31"/>
+      <c r="BQ143" s="31"/>
+      <c r="BR143" s="31"/>
+      <c r="BS143" s="31"/>
+      <c r="BT143" s="31"/>
+      <c r="BU143" s="32"/>
     </row>
-    <row r="144" spans="1:68" s="29" customFormat="1" ht="12.75" customHeight="1">
+    <row r="144" spans="1:73" s="29" customFormat="1" ht="12.75" customHeight="1">
       <c r="A144" s="28"/>
       <c r="E144" s="30"/>
       <c r="F144" s="30"/>
@@ -17555,29 +18023,34 @@
       <c r="BM144" s="31"/>
       <c r="BN144" s="31"/>
       <c r="BO144" s="31"/>
-      <c r="BP144" s="32"/>
+      <c r="BP144" s="31"/>
+      <c r="BQ144" s="31"/>
+      <c r="BR144" s="31"/>
+      <c r="BS144" s="31"/>
+      <c r="BT144" s="31"/>
+      <c r="BU144" s="32"/>
     </row>
-    <row r="145" spans="1:68" ht="12.75" customHeight="1">
+    <row r="145" spans="1:73" ht="12.75" customHeight="1">
       <c r="A145" s="22"/>
-      <c r="BP145" s="21"/>
+      <c r="BU145" s="21"/>
     </row>
-    <row r="146" spans="1:68" ht="12.75" customHeight="1">
+    <row r="146" spans="1:73" ht="12.75" customHeight="1">
       <c r="A146" s="22"/>
-      <c r="BP146" s="21"/>
+      <c r="BU146" s="21"/>
     </row>
-    <row r="147" spans="1:68" ht="12.75" customHeight="1">
+    <row r="147" spans="1:73" ht="12.75" customHeight="1">
       <c r="A147" s="22"/>
-      <c r="BP147" s="21"/>
+      <c r="BU147" s="21"/>
     </row>
-    <row r="148" spans="1:68" ht="12.75" customHeight="1">
+    <row r="148" spans="1:73" ht="12.75" customHeight="1">
       <c r="A148" s="22"/>
-      <c r="BP148" s="21"/>
+      <c r="BU148" s="21"/>
     </row>
-    <row r="149" spans="1:68" ht="12.75" customHeight="1">
+    <row r="149" spans="1:73" ht="12.75" customHeight="1">
       <c r="A149" s="22"/>
-      <c r="BP149" s="21"/>
+      <c r="BU149" s="21"/>
     </row>
-    <row r="150" spans="1:68" ht="12.75" customHeight="1">
+    <row r="150" spans="1:73" ht="12.75" customHeight="1">
       <c r="A150" s="13"/>
       <c r="B150" s="24"/>
       <c r="C150" s="24"/>
@@ -17645,34 +18118,39 @@
       <c r="BM150" s="26"/>
       <c r="BN150" s="26"/>
       <c r="BO150" s="26"/>
-      <c r="BP150" s="27"/>
+      <c r="BP150" s="26"/>
+      <c r="BQ150" s="26"/>
+      <c r="BR150" s="26"/>
+      <c r="BS150" s="26"/>
+      <c r="BT150" s="26"/>
+      <c r="BU150" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A2:C4"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:AX2"/>
+    <mergeCell ref="AY2:BA2"/>
+    <mergeCell ref="BB2:BU2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="H3:AX3"/>
+    <mergeCell ref="AY3:BA3"/>
+    <mergeCell ref="BB3:BU3"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H4:AX4"/>
+    <mergeCell ref="AY4:BA4"/>
+    <mergeCell ref="BB4:BU4"/>
+    <mergeCell ref="AY5:BA5"/>
+    <mergeCell ref="BB5:BU5"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="H6:AX6"/>
+    <mergeCell ref="AY6:BA6"/>
+    <mergeCell ref="BB6:BU6"/>
     <mergeCell ref="AA31:AH31"/>
     <mergeCell ref="AQ92:AU96"/>
     <mergeCell ref="A5:C6"/>
     <mergeCell ref="D5:G5"/>
     <mergeCell ref="H5:AX5"/>
-    <mergeCell ref="AY5:BA5"/>
-    <mergeCell ref="BB5:BP5"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="H6:AX6"/>
-    <mergeCell ref="AY6:BA6"/>
-    <mergeCell ref="BB6:BP6"/>
-    <mergeCell ref="A2:C4"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H2:AX2"/>
-    <mergeCell ref="AY2:BA2"/>
-    <mergeCell ref="BB2:BP2"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="H3:AX3"/>
-    <mergeCell ref="AY3:BA3"/>
-    <mergeCell ref="BB3:BP3"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="H4:AX4"/>
-    <mergeCell ref="AY4:BA4"/>
-    <mergeCell ref="BB4:BP4"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>

--- a/設計書/UML/クラス図/予約システム クラス図.xlsx
+++ b/設計書/UML/クラス図/予約システム クラス図.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nisekyokai/ntmc 最新版/設計書/UML/クラス図/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nisekyokai/practice/設計書/UML/クラス図/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E787ACB-2D76-4742-A3A4-F28A9D2E113A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D68FDD6-814D-DB4F-9A35-26318C8447E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{8EC1B6BE-9A3C-4A62-BE98-76F1D3E1C801}"/>
   </bookViews>
@@ -871,8 +871,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="161440" y="1388390"/>
-          <a:ext cx="8298051" cy="2626102"/>
+          <a:off x="161440" y="1353088"/>
+          <a:ext cx="10240936" cy="2641601"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -933,8 +933,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="159737" y="5271131"/>
-          <a:ext cx="3905747" cy="771559"/>
+          <a:off x="159737" y="5410519"/>
+          <a:ext cx="3974158" cy="799044"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="694267"/>
         </a:xfrm>
@@ -1149,8 +1149,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="201735" y="1414116"/>
-          <a:ext cx="3832223" cy="653639"/>
+          <a:off x="201735" y="1426333"/>
+          <a:ext cx="3900634" cy="665366"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="694267"/>
         </a:xfrm>
@@ -1602,8 +1602,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5818445" y="11654812"/>
-          <a:ext cx="2211168" cy="4675982"/>
+          <a:off x="5921061" y="12025086"/>
+          <a:ext cx="2250260" cy="4846398"/>
           <a:chOff x="356337" y="2309970"/>
           <a:chExt cx="4449848" cy="516142"/>
         </a:xfrm>
@@ -1946,8 +1946,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="159738" y="4296389"/>
-          <a:ext cx="3918569" cy="835090"/>
+          <a:off x="159738" y="4402793"/>
+          <a:ext cx="3986980" cy="862576"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="694267"/>
         </a:xfrm>
@@ -2162,8 +2162,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="445257" y="13277893"/>
-          <a:ext cx="3867748" cy="762158"/>
+          <a:off x="450143" y="13708638"/>
+          <a:ext cx="3936160" cy="789644"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="694267"/>
         </a:xfrm>
@@ -2378,8 +2378,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="452880" y="14204577"/>
-          <a:ext cx="3879862" cy="764323"/>
+          <a:off x="457766" y="14668306"/>
+          <a:ext cx="3948274" cy="791809"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="694267"/>
         </a:xfrm>
@@ -2721,7 +2721,15 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
-            <a:t>   movieName : String,movieFee : int , movieTheater : String, movieScreen : String) : void</a:t>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>movieFee : int , movieTheater : String, movieScreen : String) : void</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -2929,8 +2937,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="11561804" y="16018153"/>
-          <a:ext cx="3458295" cy="5884019"/>
+          <a:off x="11762151" y="16547849"/>
+          <a:ext cx="3521818" cy="6098414"/>
           <a:chOff x="338666" y="2385101"/>
           <a:chExt cx="4538133" cy="559317"/>
         </a:xfrm>
@@ -3416,8 +3424,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="15117523" y="16005298"/>
-          <a:ext cx="3338163" cy="5159914"/>
+          <a:off x="15381393" y="16534994"/>
+          <a:ext cx="3396802" cy="5346823"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="599462"/>
         </a:xfrm>
@@ -3782,8 +3790,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="199908" y="21579018"/>
-          <a:ext cx="4119432" cy="1306032"/>
+          <a:off x="199908" y="22312114"/>
+          <a:ext cx="4192730" cy="1350011"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="886539"/>
         </a:xfrm>
@@ -4386,8 +4394,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="10586555" y="3775744"/>
-          <a:ext cx="2242797" cy="3077563"/>
+          <a:off x="10772242" y="3860158"/>
+          <a:ext cx="2281889" cy="3193006"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="1068888"/>
         </a:xfrm>
@@ -5269,8 +5277,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="159490" y="6185606"/>
-          <a:ext cx="3923890" cy="776189"/>
+          <a:off x="159490" y="6357977"/>
+          <a:ext cx="3992301" cy="803675"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="694267"/>
         </a:xfrm>
@@ -5541,8 +5549,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="187785" y="2987205"/>
-          <a:ext cx="3900739" cy="766152"/>
+          <a:off x="187785" y="3044133"/>
+          <a:ext cx="3969150" cy="793638"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="694267"/>
         </a:xfrm>
@@ -5757,8 +5765,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="438910" y="15193094"/>
-          <a:ext cx="3882978" cy="750048"/>
+          <a:off x="443796" y="15689806"/>
+          <a:ext cx="3951390" cy="777535"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="694267"/>
         </a:xfrm>
@@ -6032,8 +6040,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="428053" y="12369465"/>
-          <a:ext cx="3831666" cy="692516"/>
+          <a:off x="432939" y="12767226"/>
+          <a:ext cx="3900078" cy="714504"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="694267"/>
         </a:xfrm>
@@ -6248,8 +6256,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="195385" y="2148554"/>
-          <a:ext cx="3856334" cy="731727"/>
+          <a:off x="195385" y="2177995"/>
+          <a:ext cx="3924745" cy="753717"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="694267"/>
         </a:xfrm>
@@ -6464,8 +6472,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="274471" y="8961389"/>
-          <a:ext cx="3820811" cy="705639"/>
+          <a:off x="274471" y="9232712"/>
+          <a:ext cx="3889222" cy="733126"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="694267"/>
         </a:xfrm>
@@ -6739,8 +6747,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="266433" y="9822169"/>
-          <a:ext cx="3838573" cy="690653"/>
+          <a:off x="266433" y="10126476"/>
+          <a:ext cx="3906984" cy="718139"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="694267"/>
         </a:xfrm>
@@ -6806,7 +6814,7 @@
             </a:r>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
-              <a:t>movies.controller.CheckAppointServlet(</a:t>
+              <a:t>movies.controller.CheckAppoinCompServlet(</a:t>
             </a:r>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
@@ -7014,8 +7022,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="406344" y="16151119"/>
-          <a:ext cx="3882978" cy="749060"/>
+          <a:off x="411230" y="16686312"/>
+          <a:ext cx="3951390" cy="776547"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="694267"/>
         </a:xfrm>
@@ -7289,8 +7297,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="268589" y="17060452"/>
-          <a:ext cx="4206288" cy="909950"/>
+          <a:off x="268589" y="17628629"/>
+          <a:ext cx="4284472" cy="942934"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="694267"/>
         </a:xfrm>
@@ -7622,8 +7630,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="184530" y="18215775"/>
-          <a:ext cx="4338368" cy="870448"/>
+          <a:off x="184530" y="18822433"/>
+          <a:ext cx="4416552" cy="903432"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="694267"/>
         </a:xfrm>
@@ -7838,8 +7846,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="376731" y="19355270"/>
-          <a:ext cx="3880720" cy="750047"/>
+          <a:off x="381617" y="20005907"/>
+          <a:ext cx="3949132" cy="777534"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="694267"/>
         </a:xfrm>
@@ -8054,8 +8062,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="225170" y="20399969"/>
-          <a:ext cx="4279058" cy="981078"/>
+          <a:off x="225170" y="21089087"/>
+          <a:ext cx="4357242" cy="1014062"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="694267"/>
         </a:xfrm>
@@ -8447,8 +8455,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="449762" y="11540723"/>
-          <a:ext cx="3831666" cy="692831"/>
+          <a:off x="454648" y="11905500"/>
+          <a:ext cx="3900078" cy="720318"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="694267"/>
         </a:xfrm>
@@ -8663,8 +8671,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4314024" y="1416657"/>
-          <a:ext cx="5833348" cy="760410"/>
+          <a:off x="4387322" y="1428874"/>
+          <a:ext cx="5935964" cy="777634"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="694267"/>
         </a:xfrm>
@@ -8879,8 +8887,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="274320" y="10542104"/>
-          <a:ext cx="3838573" cy="691206"/>
+          <a:off x="274320" y="10873897"/>
+          <a:ext cx="3906984" cy="713195"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="694267"/>
         </a:xfrm>
@@ -9095,8 +9103,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4316987" y="2298719"/>
-          <a:ext cx="5856499" cy="776188"/>
+          <a:off x="4390285" y="2333657"/>
+          <a:ext cx="5959115" cy="803675"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="694267"/>
         </a:xfrm>
@@ -9308,8 +9316,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4331804" y="3167178"/>
-          <a:ext cx="5833348" cy="766151"/>
+          <a:off x="4405102" y="3229603"/>
+          <a:ext cx="5935964" cy="793638"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="694267"/>
         </a:xfrm>
@@ -9583,8 +9591,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="177377" y="7843134"/>
-          <a:ext cx="3900739" cy="766152"/>
+          <a:off x="177377" y="8075976"/>
+          <a:ext cx="3969150" cy="793638"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="694267"/>
         </a:xfrm>
@@ -9650,7 +9658,7 @@
             </a:r>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
-              <a:t>movies.controller.UnsbscribeServlet(</a:t>
+              <a:t>movies.controller.UnsubscribeServlet(</a:t>
             </a:r>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
@@ -9799,8 +9807,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8612739" y="11814172"/>
-          <a:ext cx="1961404" cy="4326655"/>
+          <a:off x="8764220" y="12189943"/>
+          <a:ext cx="1995610" cy="4486077"/>
           <a:chOff x="356337" y="2309970"/>
           <a:chExt cx="4449848" cy="516142"/>
         </a:xfrm>
@@ -10134,8 +10142,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="172720" y="7019124"/>
-          <a:ext cx="3905747" cy="771558"/>
+          <a:off x="172720" y="7224479"/>
+          <a:ext cx="3974158" cy="799045"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="694267"/>
         </a:xfrm>
@@ -10601,8 +10609,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10147573" y="6853308"/>
-          <a:ext cx="7920401" cy="993048"/>
+          <a:off x="10323487" y="7053165"/>
+          <a:ext cx="8062109" cy="1026033"/>
           <a:chOff x="10234759" y="6991351"/>
           <a:chExt cx="7990633" cy="1017751"/>
         </a:xfrm>
@@ -11172,8 +11180,8 @@
   </sheetPr>
   <dimension ref="A1:BU150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H3" zoomScale="92" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AO129" sqref="AO129"/>
+    <sheetView tabSelected="1" topLeftCell="M100" zoomScale="113" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="T82" sqref="T82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.83203125" defaultRowHeight="12.75" customHeight="1"/>

--- a/設計書/UML/クラス図/予約システム クラス図.xlsx
+++ b/設計書/UML/クラス図/予約システム クラス図.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nisekyokai/ntmc 最新版/設計書/UML/クラス図/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vanil\OneDrive\デスクトップ\ntmc\設計書\UML\クラス図\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D0B4F00-9026-0041-BFC5-A4B826B71388}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="113_{4D58C5F4-886B-4C13-B039-819C59CE362C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{8EC1B6BE-9A3C-4A62-BE98-76F1D3E1C801}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{8EC1B6BE-9A3C-4A62-BE98-76F1D3E1C801}"/>
   </bookViews>
   <sheets>
     <sheet name="クラス図" sheetId="2" r:id="rId1"/>
@@ -538,6 +538,15 @@
     <xf numFmtId="176" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -573,15 +582,6 @@
     </xf>
     <xf numFmtId="56" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -933,8 +933,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="159737" y="5363887"/>
-          <a:ext cx="3939653" cy="792144"/>
+          <a:off x="159737" y="5510144"/>
+          <a:ext cx="3850530" cy="828747"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="694267"/>
         </a:xfrm>
@@ -1149,8 +1149,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="201735" y="1414601"/>
-          <a:ext cx="3866129" cy="659451"/>
+          <a:off x="201735" y="1395185"/>
+          <a:ext cx="3777006" cy="671387"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="694267"/>
         </a:xfrm>
@@ -1364,8 +1364,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5165585" y="5636054"/>
-          <a:ext cx="2935318" cy="5509866"/>
+          <a:off x="5050998" y="5796952"/>
+          <a:ext cx="2865294" cy="5766094"/>
           <a:chOff x="320736" y="2410837"/>
           <a:chExt cx="4538133" cy="661207"/>
         </a:xfrm>
@@ -1725,8 +1725,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5869303" y="11920485"/>
-          <a:ext cx="2230542" cy="4803612"/>
+          <a:off x="5735619" y="12374216"/>
+          <a:ext cx="2179615" cy="5030556"/>
           <a:chOff x="356337" y="2309970"/>
           <a:chExt cx="4449848" cy="516142"/>
         </a:xfrm>
@@ -2069,8 +2069,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="159738" y="4364442"/>
-          <a:ext cx="3952475" cy="855675"/>
+          <a:off x="159738" y="4466775"/>
+          <a:ext cx="3863352" cy="892278"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="694267"/>
         </a:xfrm>
@@ -2285,8 +2285,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="447679" y="13588854"/>
-          <a:ext cx="3901654" cy="782744"/>
+          <a:off x="441313" y="14123114"/>
+          <a:ext cx="3812531" cy="819347"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="694267"/>
         </a:xfrm>
@@ -2501,8 +2501,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="455302" y="14540241"/>
-          <a:ext cx="3913768" cy="784908"/>
+          <a:off x="448936" y="15118425"/>
+          <a:ext cx="3824645" cy="821513"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="694267"/>
         </a:xfrm>
@@ -2717,8 +2717,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5935888" y="16927489"/>
-          <a:ext cx="4404215" cy="4944733"/>
+          <a:off x="5802204" y="17615486"/>
+          <a:ext cx="4302360" cy="5178998"/>
           <a:chOff x="326614" y="2353733"/>
           <a:chExt cx="4574286" cy="873360"/>
         </a:xfrm>
@@ -3131,8 +3131,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="11382590" y="15511225"/>
-          <a:ext cx="3170419" cy="3818520"/>
+          <a:off x="11127953" y="16133334"/>
+          <a:ext cx="3094029" cy="4001540"/>
           <a:chOff x="338666" y="2385101"/>
           <a:chExt cx="4538133" cy="559317"/>
         </a:xfrm>
@@ -3478,8 +3478,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="15329740" y="14518789"/>
-          <a:ext cx="3480438" cy="4723838"/>
+          <a:off x="14979615" y="15096973"/>
+          <a:ext cx="3404046" cy="4943462"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="599462"/>
         </a:xfrm>
@@ -3816,8 +3816,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="199908" y="22116418"/>
-          <a:ext cx="4155760" cy="1338970"/>
+          <a:off x="199908" y="23053322"/>
+          <a:ext cx="4060271" cy="1397536"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="886539"/>
         </a:xfrm>
@@ -4420,8 +4420,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="10678584" y="3827329"/>
-          <a:ext cx="2262172" cy="3164021"/>
+          <a:off x="10436680" y="3900378"/>
+          <a:ext cx="2211243" cy="3317758"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="1068888"/>
         </a:xfrm>
@@ -4694,8 +4694,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8722211" y="7402600"/>
-          <a:ext cx="2908316" cy="4164178"/>
+          <a:off x="8524868" y="7644027"/>
+          <a:ext cx="2844656" cy="4361840"/>
           <a:chOff x="338664" y="2353733"/>
           <a:chExt cx="4574954" cy="999369"/>
         </a:xfrm>
@@ -5009,8 +5009,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12543055" y="7778070"/>
-          <a:ext cx="3744138" cy="6514999"/>
+          <a:off x="12256589" y="8041459"/>
+          <a:ext cx="3661381" cy="6815153"/>
           <a:chOff x="12502144" y="7490919"/>
           <a:chExt cx="4070781" cy="1357762"/>
         </a:xfrm>
@@ -5620,8 +5620,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="159490" y="6303064"/>
-          <a:ext cx="3957796" cy="796774"/>
+          <a:off x="159490" y="6493246"/>
+          <a:ext cx="3868673" cy="833378"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="694267"/>
         </a:xfrm>
@@ -5892,8 +5892,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="187785" y="3018204"/>
-          <a:ext cx="3934645" cy="786738"/>
+          <a:off x="187785" y="3054649"/>
+          <a:ext cx="3845522" cy="823342"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="694267"/>
         </a:xfrm>
@@ -6108,8 +6108,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="441332" y="15553460"/>
-          <a:ext cx="3916884" cy="770634"/>
+          <a:off x="434966" y="16175569"/>
+          <a:ext cx="3827761" cy="807238"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="694267"/>
         </a:xfrm>
@@ -6383,8 +6383,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="430475" y="12655724"/>
-          <a:ext cx="3865572" cy="708983"/>
+          <a:off x="424109" y="13146058"/>
+          <a:ext cx="3776449" cy="738267"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="694267"/>
         </a:xfrm>
@@ -6599,8 +6599,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="195385" y="2158968"/>
-          <a:ext cx="3890240" cy="748195"/>
+          <a:off x="195385" y="2158809"/>
+          <a:ext cx="3801117" cy="777478"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="694267"/>
         </a:xfrm>
@@ -6815,8 +6815,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="274471" y="9152955"/>
-          <a:ext cx="3854717" cy="726224"/>
+          <a:off x="274471" y="9474911"/>
+          <a:ext cx="3765594" cy="762829"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="694267"/>
         </a:xfrm>
@@ -7090,8 +7090,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="266433" y="10038437"/>
-          <a:ext cx="3872479" cy="711239"/>
+          <a:off x="266433" y="10404318"/>
+          <a:ext cx="3783356" cy="747843"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="694267"/>
         </a:xfrm>
@@ -7365,8 +7365,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="408766" y="16540305"/>
-          <a:ext cx="3916884" cy="769645"/>
+          <a:off x="402400" y="17213659"/>
+          <a:ext cx="3827761" cy="806250"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="694267"/>
         </a:xfrm>
@@ -7640,8 +7640,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="268589" y="17474340"/>
-          <a:ext cx="4245037" cy="934653"/>
+          <a:off x="268589" y="18191620"/>
+          <a:ext cx="4143183" cy="978577"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="694267"/>
         </a:xfrm>
@@ -7974,8 +7974,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="184530" y="18658483"/>
-          <a:ext cx="4377117" cy="895150"/>
+          <a:off x="184530" y="19427008"/>
+          <a:ext cx="4275263" cy="939075"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="694267"/>
         </a:xfrm>
@@ -8190,8 +8190,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="379153" y="19830915"/>
-          <a:ext cx="3914626" cy="770632"/>
+          <a:off x="372787" y="20658006"/>
+          <a:ext cx="3825503" cy="807237"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="694267"/>
         </a:xfrm>
@@ -8406,8 +8406,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="225170" y="20904433"/>
-          <a:ext cx="4317807" cy="1005781"/>
+          <a:off x="225170" y="21782770"/>
+          <a:ext cx="4215953" cy="1049706"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="694267"/>
         </a:xfrm>
@@ -8738,8 +8738,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10176370" y="6991351"/>
-          <a:ext cx="4238755" cy="786719"/>
+          <a:off x="9947197" y="7218137"/>
+          <a:ext cx="4143267" cy="823322"/>
           <a:chOff x="10398415" y="6870920"/>
           <a:chExt cx="4333848" cy="773273"/>
         </a:xfrm>
@@ -8915,8 +8915,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="452184" y="11802279"/>
-          <a:ext cx="3865572" cy="713417"/>
+          <a:off x="445818" y="12248689"/>
+          <a:ext cx="3776449" cy="750021"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="694267"/>
         </a:xfrm>
@@ -9131,8 +9131,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4350352" y="1417142"/>
-          <a:ext cx="5884206" cy="770339"/>
+          <a:off x="4254863" y="1397726"/>
+          <a:ext cx="5750522" cy="789596"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="694267"/>
         </a:xfrm>
@@ -9347,8 +9347,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="274320" y="10778958"/>
-          <a:ext cx="3872479" cy="707674"/>
+          <a:off x="274320" y="11181443"/>
+          <a:ext cx="3783356" cy="736957"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="694267"/>
         </a:xfrm>
@@ -9563,8 +9563,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4353315" y="2313250"/>
-          <a:ext cx="5907357" cy="796773"/>
+          <a:off x="4257826" y="2320411"/>
+          <a:ext cx="5773673" cy="833378"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="694267"/>
         </a:xfrm>
@@ -9776,8 +9776,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4368132" y="3202294"/>
-          <a:ext cx="5884206" cy="786737"/>
+          <a:off x="4272643" y="3246060"/>
+          <a:ext cx="5750522" cy="823340"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="694267"/>
         </a:xfrm>
@@ -10051,8 +10051,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="177377" y="8005880"/>
-          <a:ext cx="3934645" cy="786737"/>
+          <a:off x="177377" y="8276591"/>
+          <a:ext cx="3845522" cy="823341"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="694267"/>
         </a:xfrm>
@@ -10267,8 +10267,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8687815" y="12083962"/>
-          <a:ext cx="1978357" cy="4446051"/>
+          <a:off x="8490472" y="12545014"/>
+          <a:ext cx="1933796" cy="4658353"/>
           <a:chOff x="356337" y="2309970"/>
           <a:chExt cx="4449848" cy="516142"/>
         </a:xfrm>
@@ -10602,8 +10602,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="172720" y="7161285"/>
-          <a:ext cx="3939653" cy="792143"/>
+          <a:off x="172720" y="7395391"/>
+          <a:ext cx="3850530" cy="828748"/>
           <a:chOff x="338666" y="2353733"/>
           <a:chExt cx="4538133" cy="694267"/>
         </a:xfrm>
@@ -11154,147 +11154,147 @@
   </sheetPr>
   <dimension ref="A1:BP150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D94" zoomScale="114" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="AO133" sqref="AO133"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.83203125" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="3.6640625" style="4" customWidth="1"/>
-    <col min="5" max="6" width="3.6640625" style="23" customWidth="1"/>
-    <col min="7" max="54" width="3.6640625" style="4" customWidth="1"/>
-    <col min="55" max="68" width="3.6640625" style="20" customWidth="1"/>
-    <col min="69" max="72" width="3.6640625" style="4" customWidth="1"/>
-    <col min="73" max="274" width="11.83203125" style="4"/>
-    <col min="275" max="328" width="3.6640625" style="4" customWidth="1"/>
-    <col min="329" max="530" width="11.83203125" style="4"/>
-    <col min="531" max="584" width="3.6640625" style="4" customWidth="1"/>
-    <col min="585" max="786" width="11.83203125" style="4"/>
-    <col min="787" max="840" width="3.6640625" style="4" customWidth="1"/>
-    <col min="841" max="1042" width="11.83203125" style="4"/>
-    <col min="1043" max="1096" width="3.6640625" style="4" customWidth="1"/>
-    <col min="1097" max="1298" width="11.83203125" style="4"/>
-    <col min="1299" max="1352" width="3.6640625" style="4" customWidth="1"/>
-    <col min="1353" max="1554" width="11.83203125" style="4"/>
-    <col min="1555" max="1608" width="3.6640625" style="4" customWidth="1"/>
-    <col min="1609" max="1810" width="11.83203125" style="4"/>
-    <col min="1811" max="1864" width="3.6640625" style="4" customWidth="1"/>
-    <col min="1865" max="2066" width="11.83203125" style="4"/>
-    <col min="2067" max="2120" width="3.6640625" style="4" customWidth="1"/>
-    <col min="2121" max="2322" width="11.83203125" style="4"/>
-    <col min="2323" max="2376" width="3.6640625" style="4" customWidth="1"/>
-    <col min="2377" max="2578" width="11.83203125" style="4"/>
-    <col min="2579" max="2632" width="3.6640625" style="4" customWidth="1"/>
-    <col min="2633" max="2834" width="11.83203125" style="4"/>
-    <col min="2835" max="2888" width="3.6640625" style="4" customWidth="1"/>
-    <col min="2889" max="3090" width="11.83203125" style="4"/>
-    <col min="3091" max="3144" width="3.6640625" style="4" customWidth="1"/>
-    <col min="3145" max="3346" width="11.83203125" style="4"/>
-    <col min="3347" max="3400" width="3.6640625" style="4" customWidth="1"/>
-    <col min="3401" max="3602" width="11.83203125" style="4"/>
-    <col min="3603" max="3656" width="3.6640625" style="4" customWidth="1"/>
-    <col min="3657" max="3858" width="11.83203125" style="4"/>
-    <col min="3859" max="3912" width="3.6640625" style="4" customWidth="1"/>
-    <col min="3913" max="4114" width="11.83203125" style="4"/>
-    <col min="4115" max="4168" width="3.6640625" style="4" customWidth="1"/>
-    <col min="4169" max="4370" width="11.83203125" style="4"/>
-    <col min="4371" max="4424" width="3.6640625" style="4" customWidth="1"/>
-    <col min="4425" max="4626" width="11.83203125" style="4"/>
-    <col min="4627" max="4680" width="3.6640625" style="4" customWidth="1"/>
-    <col min="4681" max="4882" width="11.83203125" style="4"/>
-    <col min="4883" max="4936" width="3.6640625" style="4" customWidth="1"/>
-    <col min="4937" max="5138" width="11.83203125" style="4"/>
-    <col min="5139" max="5192" width="3.6640625" style="4" customWidth="1"/>
-    <col min="5193" max="5394" width="11.83203125" style="4"/>
-    <col min="5395" max="5448" width="3.6640625" style="4" customWidth="1"/>
-    <col min="5449" max="5650" width="11.83203125" style="4"/>
-    <col min="5651" max="5704" width="3.6640625" style="4" customWidth="1"/>
-    <col min="5705" max="5906" width="11.83203125" style="4"/>
-    <col min="5907" max="5960" width="3.6640625" style="4" customWidth="1"/>
-    <col min="5961" max="6162" width="11.83203125" style="4"/>
-    <col min="6163" max="6216" width="3.6640625" style="4" customWidth="1"/>
-    <col min="6217" max="6418" width="11.83203125" style="4"/>
-    <col min="6419" max="6472" width="3.6640625" style="4" customWidth="1"/>
-    <col min="6473" max="6674" width="11.83203125" style="4"/>
-    <col min="6675" max="6728" width="3.6640625" style="4" customWidth="1"/>
-    <col min="6729" max="6930" width="11.83203125" style="4"/>
-    <col min="6931" max="6984" width="3.6640625" style="4" customWidth="1"/>
-    <col min="6985" max="7186" width="11.83203125" style="4"/>
-    <col min="7187" max="7240" width="3.6640625" style="4" customWidth="1"/>
-    <col min="7241" max="7442" width="11.83203125" style="4"/>
-    <col min="7443" max="7496" width="3.6640625" style="4" customWidth="1"/>
-    <col min="7497" max="7698" width="11.83203125" style="4"/>
-    <col min="7699" max="7752" width="3.6640625" style="4" customWidth="1"/>
-    <col min="7753" max="7954" width="11.83203125" style="4"/>
-    <col min="7955" max="8008" width="3.6640625" style="4" customWidth="1"/>
-    <col min="8009" max="8210" width="11.83203125" style="4"/>
-    <col min="8211" max="8264" width="3.6640625" style="4" customWidth="1"/>
-    <col min="8265" max="8466" width="11.83203125" style="4"/>
-    <col min="8467" max="8520" width="3.6640625" style="4" customWidth="1"/>
-    <col min="8521" max="8722" width="11.83203125" style="4"/>
-    <col min="8723" max="8776" width="3.6640625" style="4" customWidth="1"/>
-    <col min="8777" max="8978" width="11.83203125" style="4"/>
-    <col min="8979" max="9032" width="3.6640625" style="4" customWidth="1"/>
-    <col min="9033" max="9234" width="11.83203125" style="4"/>
-    <col min="9235" max="9288" width="3.6640625" style="4" customWidth="1"/>
-    <col min="9289" max="9490" width="11.83203125" style="4"/>
-    <col min="9491" max="9544" width="3.6640625" style="4" customWidth="1"/>
-    <col min="9545" max="9746" width="11.83203125" style="4"/>
-    <col min="9747" max="9800" width="3.6640625" style="4" customWidth="1"/>
-    <col min="9801" max="10002" width="11.83203125" style="4"/>
-    <col min="10003" max="10056" width="3.6640625" style="4" customWidth="1"/>
-    <col min="10057" max="10258" width="11.83203125" style="4"/>
-    <col min="10259" max="10312" width="3.6640625" style="4" customWidth="1"/>
-    <col min="10313" max="10514" width="11.83203125" style="4"/>
-    <col min="10515" max="10568" width="3.6640625" style="4" customWidth="1"/>
-    <col min="10569" max="10770" width="11.83203125" style="4"/>
-    <col min="10771" max="10824" width="3.6640625" style="4" customWidth="1"/>
-    <col min="10825" max="11026" width="11.83203125" style="4"/>
-    <col min="11027" max="11080" width="3.6640625" style="4" customWidth="1"/>
-    <col min="11081" max="11282" width="11.83203125" style="4"/>
-    <col min="11283" max="11336" width="3.6640625" style="4" customWidth="1"/>
-    <col min="11337" max="11538" width="11.83203125" style="4"/>
-    <col min="11539" max="11592" width="3.6640625" style="4" customWidth="1"/>
-    <col min="11593" max="11794" width="11.83203125" style="4"/>
-    <col min="11795" max="11848" width="3.6640625" style="4" customWidth="1"/>
-    <col min="11849" max="12050" width="11.83203125" style="4"/>
-    <col min="12051" max="12104" width="3.6640625" style="4" customWidth="1"/>
-    <col min="12105" max="12306" width="11.83203125" style="4"/>
-    <col min="12307" max="12360" width="3.6640625" style="4" customWidth="1"/>
-    <col min="12361" max="12562" width="11.83203125" style="4"/>
-    <col min="12563" max="12616" width="3.6640625" style="4" customWidth="1"/>
-    <col min="12617" max="12818" width="11.83203125" style="4"/>
-    <col min="12819" max="12872" width="3.6640625" style="4" customWidth="1"/>
-    <col min="12873" max="13074" width="11.83203125" style="4"/>
-    <col min="13075" max="13128" width="3.6640625" style="4" customWidth="1"/>
-    <col min="13129" max="13330" width="11.83203125" style="4"/>
-    <col min="13331" max="13384" width="3.6640625" style="4" customWidth="1"/>
-    <col min="13385" max="13586" width="11.83203125" style="4"/>
-    <col min="13587" max="13640" width="3.6640625" style="4" customWidth="1"/>
-    <col min="13641" max="13842" width="11.83203125" style="4"/>
-    <col min="13843" max="13896" width="3.6640625" style="4" customWidth="1"/>
-    <col min="13897" max="14098" width="11.83203125" style="4"/>
-    <col min="14099" max="14152" width="3.6640625" style="4" customWidth="1"/>
-    <col min="14153" max="14354" width="11.83203125" style="4"/>
-    <col min="14355" max="14408" width="3.6640625" style="4" customWidth="1"/>
-    <col min="14409" max="14610" width="11.83203125" style="4"/>
-    <col min="14611" max="14664" width="3.6640625" style="4" customWidth="1"/>
-    <col min="14665" max="14866" width="11.83203125" style="4"/>
-    <col min="14867" max="14920" width="3.6640625" style="4" customWidth="1"/>
-    <col min="14921" max="15122" width="11.83203125" style="4"/>
-    <col min="15123" max="15176" width="3.6640625" style="4" customWidth="1"/>
-    <col min="15177" max="15378" width="11.83203125" style="4"/>
-    <col min="15379" max="15432" width="3.6640625" style="4" customWidth="1"/>
-    <col min="15433" max="15634" width="11.83203125" style="4"/>
-    <col min="15635" max="15688" width="3.6640625" style="4" customWidth="1"/>
-    <col min="15689" max="15890" width="11.83203125" style="4"/>
-    <col min="15891" max="15944" width="3.6640625" style="4" customWidth="1"/>
-    <col min="15945" max="16146" width="11.83203125" style="4"/>
-    <col min="16147" max="16200" width="3.6640625" style="4" customWidth="1"/>
-    <col min="16201" max="16384" width="11.83203125" style="4"/>
+    <col min="1" max="4" width="3.625" style="4" customWidth="1"/>
+    <col min="5" max="6" width="3.625" style="23" customWidth="1"/>
+    <col min="7" max="54" width="3.625" style="4" customWidth="1"/>
+    <col min="55" max="68" width="3.625" style="20" customWidth="1"/>
+    <col min="69" max="72" width="3.625" style="4" customWidth="1"/>
+    <col min="73" max="274" width="11.875" style="4"/>
+    <col min="275" max="328" width="3.625" style="4" customWidth="1"/>
+    <col min="329" max="530" width="11.875" style="4"/>
+    <col min="531" max="584" width="3.625" style="4" customWidth="1"/>
+    <col min="585" max="786" width="11.875" style="4"/>
+    <col min="787" max="840" width="3.625" style="4" customWidth="1"/>
+    <col min="841" max="1042" width="11.875" style="4"/>
+    <col min="1043" max="1096" width="3.625" style="4" customWidth="1"/>
+    <col min="1097" max="1298" width="11.875" style="4"/>
+    <col min="1299" max="1352" width="3.625" style="4" customWidth="1"/>
+    <col min="1353" max="1554" width="11.875" style="4"/>
+    <col min="1555" max="1608" width="3.625" style="4" customWidth="1"/>
+    <col min="1609" max="1810" width="11.875" style="4"/>
+    <col min="1811" max="1864" width="3.625" style="4" customWidth="1"/>
+    <col min="1865" max="2066" width="11.875" style="4"/>
+    <col min="2067" max="2120" width="3.625" style="4" customWidth="1"/>
+    <col min="2121" max="2322" width="11.875" style="4"/>
+    <col min="2323" max="2376" width="3.625" style="4" customWidth="1"/>
+    <col min="2377" max="2578" width="11.875" style="4"/>
+    <col min="2579" max="2632" width="3.625" style="4" customWidth="1"/>
+    <col min="2633" max="2834" width="11.875" style="4"/>
+    <col min="2835" max="2888" width="3.625" style="4" customWidth="1"/>
+    <col min="2889" max="3090" width="11.875" style="4"/>
+    <col min="3091" max="3144" width="3.625" style="4" customWidth="1"/>
+    <col min="3145" max="3346" width="11.875" style="4"/>
+    <col min="3347" max="3400" width="3.625" style="4" customWidth="1"/>
+    <col min="3401" max="3602" width="11.875" style="4"/>
+    <col min="3603" max="3656" width="3.625" style="4" customWidth="1"/>
+    <col min="3657" max="3858" width="11.875" style="4"/>
+    <col min="3859" max="3912" width="3.625" style="4" customWidth="1"/>
+    <col min="3913" max="4114" width="11.875" style="4"/>
+    <col min="4115" max="4168" width="3.625" style="4" customWidth="1"/>
+    <col min="4169" max="4370" width="11.875" style="4"/>
+    <col min="4371" max="4424" width="3.625" style="4" customWidth="1"/>
+    <col min="4425" max="4626" width="11.875" style="4"/>
+    <col min="4627" max="4680" width="3.625" style="4" customWidth="1"/>
+    <col min="4681" max="4882" width="11.875" style="4"/>
+    <col min="4883" max="4936" width="3.625" style="4" customWidth="1"/>
+    <col min="4937" max="5138" width="11.875" style="4"/>
+    <col min="5139" max="5192" width="3.625" style="4" customWidth="1"/>
+    <col min="5193" max="5394" width="11.875" style="4"/>
+    <col min="5395" max="5448" width="3.625" style="4" customWidth="1"/>
+    <col min="5449" max="5650" width="11.875" style="4"/>
+    <col min="5651" max="5704" width="3.625" style="4" customWidth="1"/>
+    <col min="5705" max="5906" width="11.875" style="4"/>
+    <col min="5907" max="5960" width="3.625" style="4" customWidth="1"/>
+    <col min="5961" max="6162" width="11.875" style="4"/>
+    <col min="6163" max="6216" width="3.625" style="4" customWidth="1"/>
+    <col min="6217" max="6418" width="11.875" style="4"/>
+    <col min="6419" max="6472" width="3.625" style="4" customWidth="1"/>
+    <col min="6473" max="6674" width="11.875" style="4"/>
+    <col min="6675" max="6728" width="3.625" style="4" customWidth="1"/>
+    <col min="6729" max="6930" width="11.875" style="4"/>
+    <col min="6931" max="6984" width="3.625" style="4" customWidth="1"/>
+    <col min="6985" max="7186" width="11.875" style="4"/>
+    <col min="7187" max="7240" width="3.625" style="4" customWidth="1"/>
+    <col min="7241" max="7442" width="11.875" style="4"/>
+    <col min="7443" max="7496" width="3.625" style="4" customWidth="1"/>
+    <col min="7497" max="7698" width="11.875" style="4"/>
+    <col min="7699" max="7752" width="3.625" style="4" customWidth="1"/>
+    <col min="7753" max="7954" width="11.875" style="4"/>
+    <col min="7955" max="8008" width="3.625" style="4" customWidth="1"/>
+    <col min="8009" max="8210" width="11.875" style="4"/>
+    <col min="8211" max="8264" width="3.625" style="4" customWidth="1"/>
+    <col min="8265" max="8466" width="11.875" style="4"/>
+    <col min="8467" max="8520" width="3.625" style="4" customWidth="1"/>
+    <col min="8521" max="8722" width="11.875" style="4"/>
+    <col min="8723" max="8776" width="3.625" style="4" customWidth="1"/>
+    <col min="8777" max="8978" width="11.875" style="4"/>
+    <col min="8979" max="9032" width="3.625" style="4" customWidth="1"/>
+    <col min="9033" max="9234" width="11.875" style="4"/>
+    <col min="9235" max="9288" width="3.625" style="4" customWidth="1"/>
+    <col min="9289" max="9490" width="11.875" style="4"/>
+    <col min="9491" max="9544" width="3.625" style="4" customWidth="1"/>
+    <col min="9545" max="9746" width="11.875" style="4"/>
+    <col min="9747" max="9800" width="3.625" style="4" customWidth="1"/>
+    <col min="9801" max="10002" width="11.875" style="4"/>
+    <col min="10003" max="10056" width="3.625" style="4" customWidth="1"/>
+    <col min="10057" max="10258" width="11.875" style="4"/>
+    <col min="10259" max="10312" width="3.625" style="4" customWidth="1"/>
+    <col min="10313" max="10514" width="11.875" style="4"/>
+    <col min="10515" max="10568" width="3.625" style="4" customWidth="1"/>
+    <col min="10569" max="10770" width="11.875" style="4"/>
+    <col min="10771" max="10824" width="3.625" style="4" customWidth="1"/>
+    <col min="10825" max="11026" width="11.875" style="4"/>
+    <col min="11027" max="11080" width="3.625" style="4" customWidth="1"/>
+    <col min="11081" max="11282" width="11.875" style="4"/>
+    <col min="11283" max="11336" width="3.625" style="4" customWidth="1"/>
+    <col min="11337" max="11538" width="11.875" style="4"/>
+    <col min="11539" max="11592" width="3.625" style="4" customWidth="1"/>
+    <col min="11593" max="11794" width="11.875" style="4"/>
+    <col min="11795" max="11848" width="3.625" style="4" customWidth="1"/>
+    <col min="11849" max="12050" width="11.875" style="4"/>
+    <col min="12051" max="12104" width="3.625" style="4" customWidth="1"/>
+    <col min="12105" max="12306" width="11.875" style="4"/>
+    <col min="12307" max="12360" width="3.625" style="4" customWidth="1"/>
+    <col min="12361" max="12562" width="11.875" style="4"/>
+    <col min="12563" max="12616" width="3.625" style="4" customWidth="1"/>
+    <col min="12617" max="12818" width="11.875" style="4"/>
+    <col min="12819" max="12872" width="3.625" style="4" customWidth="1"/>
+    <col min="12873" max="13074" width="11.875" style="4"/>
+    <col min="13075" max="13128" width="3.625" style="4" customWidth="1"/>
+    <col min="13129" max="13330" width="11.875" style="4"/>
+    <col min="13331" max="13384" width="3.625" style="4" customWidth="1"/>
+    <col min="13385" max="13586" width="11.875" style="4"/>
+    <col min="13587" max="13640" width="3.625" style="4" customWidth="1"/>
+    <col min="13641" max="13842" width="11.875" style="4"/>
+    <col min="13843" max="13896" width="3.625" style="4" customWidth="1"/>
+    <col min="13897" max="14098" width="11.875" style="4"/>
+    <col min="14099" max="14152" width="3.625" style="4" customWidth="1"/>
+    <col min="14153" max="14354" width="11.875" style="4"/>
+    <col min="14355" max="14408" width="3.625" style="4" customWidth="1"/>
+    <col min="14409" max="14610" width="11.875" style="4"/>
+    <col min="14611" max="14664" width="3.625" style="4" customWidth="1"/>
+    <col min="14665" max="14866" width="11.875" style="4"/>
+    <col min="14867" max="14920" width="3.625" style="4" customWidth="1"/>
+    <col min="14921" max="15122" width="11.875" style="4"/>
+    <col min="15123" max="15176" width="3.625" style="4" customWidth="1"/>
+    <col min="15177" max="15378" width="11.875" style="4"/>
+    <col min="15379" max="15432" width="3.625" style="4" customWidth="1"/>
+    <col min="15433" max="15634" width="11.875" style="4"/>
+    <col min="15635" max="15688" width="3.625" style="4" customWidth="1"/>
+    <col min="15689" max="15890" width="11.875" style="4"/>
+    <col min="15891" max="15944" width="3.625" style="4" customWidth="1"/>
+    <col min="15945" max="16146" width="11.875" style="4"/>
+    <col min="16147" max="16200" width="3.625" style="4" customWidth="1"/>
+    <col min="16201" max="16384" width="11.875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" ht="20">
+    <row r="1" spans="1:68" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11367,398 +11367,398 @@
       <c r="BP1" s="3"/>
     </row>
     <row r="2" spans="1:68" ht="14.25" customHeight="1">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="34" t="s">
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="37" t="s">
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38"/>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="38"/>
-      <c r="AG2" s="38"/>
-      <c r="AH2" s="38"/>
-      <c r="AI2" s="38"/>
-      <c r="AJ2" s="38"/>
-      <c r="AK2" s="38"/>
-      <c r="AL2" s="38"/>
-      <c r="AM2" s="38"/>
-      <c r="AN2" s="38"/>
-      <c r="AO2" s="38"/>
-      <c r="AP2" s="38"/>
-      <c r="AQ2" s="38"/>
-      <c r="AR2" s="38"/>
-      <c r="AS2" s="38"/>
-      <c r="AT2" s="38"/>
-      <c r="AU2" s="38"/>
-      <c r="AV2" s="38"/>
-      <c r="AW2" s="38"/>
-      <c r="AX2" s="39"/>
-      <c r="AY2" s="40" t="s">
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="41"/>
+      <c r="V2" s="41"/>
+      <c r="W2" s="41"/>
+      <c r="X2" s="41"/>
+      <c r="Y2" s="41"/>
+      <c r="Z2" s="41"/>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="41"/>
+      <c r="AD2" s="41"/>
+      <c r="AE2" s="41"/>
+      <c r="AF2" s="41"/>
+      <c r="AG2" s="41"/>
+      <c r="AH2" s="41"/>
+      <c r="AI2" s="41"/>
+      <c r="AJ2" s="41"/>
+      <c r="AK2" s="41"/>
+      <c r="AL2" s="41"/>
+      <c r="AM2" s="41"/>
+      <c r="AN2" s="41"/>
+      <c r="AO2" s="41"/>
+      <c r="AP2" s="41"/>
+      <c r="AQ2" s="41"/>
+      <c r="AR2" s="41"/>
+      <c r="AS2" s="41"/>
+      <c r="AT2" s="41"/>
+      <c r="AU2" s="41"/>
+      <c r="AV2" s="41"/>
+      <c r="AW2" s="41"/>
+      <c r="AX2" s="42"/>
+      <c r="AY2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="AZ2" s="40"/>
-      <c r="BA2" s="40"/>
-      <c r="BB2" s="41" t="s">
+      <c r="AZ2" s="43"/>
+      <c r="BA2" s="43"/>
+      <c r="BB2" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="BC2" s="42"/>
-      <c r="BD2" s="42"/>
-      <c r="BE2" s="42"/>
-      <c r="BF2" s="42"/>
-      <c r="BG2" s="42"/>
-      <c r="BH2" s="42"/>
-      <c r="BI2" s="42"/>
-      <c r="BJ2" s="42"/>
-      <c r="BK2" s="42"/>
-      <c r="BL2" s="42"/>
-      <c r="BM2" s="42"/>
-      <c r="BN2" s="42"/>
-      <c r="BO2" s="42"/>
-      <c r="BP2" s="43"/>
+      <c r="BC2" s="45"/>
+      <c r="BD2" s="45"/>
+      <c r="BE2" s="45"/>
+      <c r="BF2" s="45"/>
+      <c r="BG2" s="45"/>
+      <c r="BH2" s="45"/>
+      <c r="BI2" s="45"/>
+      <c r="BJ2" s="45"/>
+      <c r="BK2" s="45"/>
+      <c r="BL2" s="45"/>
+      <c r="BM2" s="45"/>
+      <c r="BN2" s="45"/>
+      <c r="BO2" s="45"/>
+      <c r="BP2" s="46"/>
     </row>
     <row r="3" spans="1:68" ht="14.25" customHeight="1">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="34" t="s">
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="37" t="s">
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="38"/>
-      <c r="W3" s="38"/>
-      <c r="X3" s="38"/>
-      <c r="Y3" s="38"/>
-      <c r="Z3" s="38"/>
-      <c r="AA3" s="38"/>
-      <c r="AB3" s="38"/>
-      <c r="AC3" s="38"/>
-      <c r="AD3" s="38"/>
-      <c r="AE3" s="38"/>
-      <c r="AF3" s="38"/>
-      <c r="AG3" s="38"/>
-      <c r="AH3" s="38"/>
-      <c r="AI3" s="38"/>
-      <c r="AJ3" s="38"/>
-      <c r="AK3" s="38"/>
-      <c r="AL3" s="38"/>
-      <c r="AM3" s="38"/>
-      <c r="AN3" s="38"/>
-      <c r="AO3" s="38"/>
-      <c r="AP3" s="38"/>
-      <c r="AQ3" s="38"/>
-      <c r="AR3" s="38"/>
-      <c r="AS3" s="38"/>
-      <c r="AT3" s="38"/>
-      <c r="AU3" s="38"/>
-      <c r="AV3" s="38"/>
-      <c r="AW3" s="38"/>
-      <c r="AX3" s="39"/>
-      <c r="AY3" s="40" t="s">
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
+      <c r="V3" s="41"/>
+      <c r="W3" s="41"/>
+      <c r="X3" s="41"/>
+      <c r="Y3" s="41"/>
+      <c r="Z3" s="41"/>
+      <c r="AA3" s="41"/>
+      <c r="AB3" s="41"/>
+      <c r="AC3" s="41"/>
+      <c r="AD3" s="41"/>
+      <c r="AE3" s="41"/>
+      <c r="AF3" s="41"/>
+      <c r="AG3" s="41"/>
+      <c r="AH3" s="41"/>
+      <c r="AI3" s="41"/>
+      <c r="AJ3" s="41"/>
+      <c r="AK3" s="41"/>
+      <c r="AL3" s="41"/>
+      <c r="AM3" s="41"/>
+      <c r="AN3" s="41"/>
+      <c r="AO3" s="41"/>
+      <c r="AP3" s="41"/>
+      <c r="AQ3" s="41"/>
+      <c r="AR3" s="41"/>
+      <c r="AS3" s="41"/>
+      <c r="AT3" s="41"/>
+      <c r="AU3" s="41"/>
+      <c r="AV3" s="41"/>
+      <c r="AW3" s="41"/>
+      <c r="AX3" s="42"/>
+      <c r="AY3" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="AZ3" s="40"/>
-      <c r="BA3" s="40"/>
-      <c r="BB3" s="44">
+      <c r="AZ3" s="43"/>
+      <c r="BA3" s="43"/>
+      <c r="BB3" s="47">
         <v>43608</v>
       </c>
-      <c r="BC3" s="42"/>
-      <c r="BD3" s="42"/>
-      <c r="BE3" s="42"/>
-      <c r="BF3" s="42"/>
-      <c r="BG3" s="42"/>
-      <c r="BH3" s="42"/>
-      <c r="BI3" s="42"/>
-      <c r="BJ3" s="42"/>
-      <c r="BK3" s="42"/>
-      <c r="BL3" s="42"/>
-      <c r="BM3" s="42"/>
-      <c r="BN3" s="42"/>
-      <c r="BO3" s="42"/>
-      <c r="BP3" s="43"/>
+      <c r="BC3" s="45"/>
+      <c r="BD3" s="45"/>
+      <c r="BE3" s="45"/>
+      <c r="BF3" s="45"/>
+      <c r="BG3" s="45"/>
+      <c r="BH3" s="45"/>
+      <c r="BI3" s="45"/>
+      <c r="BJ3" s="45"/>
+      <c r="BK3" s="45"/>
+      <c r="BL3" s="45"/>
+      <c r="BM3" s="45"/>
+      <c r="BN3" s="45"/>
+      <c r="BO3" s="45"/>
+      <c r="BP3" s="46"/>
     </row>
     <row r="4" spans="1:68" ht="14.25" customHeight="1">
-      <c r="A4" s="33"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="34" t="s">
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="37" t="s">
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="38"/>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="38"/>
-      <c r="AD4" s="38"/>
-      <c r="AE4" s="38"/>
-      <c r="AF4" s="38"/>
-      <c r="AG4" s="38"/>
-      <c r="AH4" s="38"/>
-      <c r="AI4" s="38"/>
-      <c r="AJ4" s="38"/>
-      <c r="AK4" s="38"/>
-      <c r="AL4" s="38"/>
-      <c r="AM4" s="38"/>
-      <c r="AN4" s="38"/>
-      <c r="AO4" s="38"/>
-      <c r="AP4" s="38"/>
-      <c r="AQ4" s="38"/>
-      <c r="AR4" s="38"/>
-      <c r="AS4" s="38"/>
-      <c r="AT4" s="38"/>
-      <c r="AU4" s="38"/>
-      <c r="AV4" s="38"/>
-      <c r="AW4" s="38"/>
-      <c r="AX4" s="39"/>
-      <c r="AY4" s="40" t="s">
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="41"/>
+      <c r="U4" s="41"/>
+      <c r="V4" s="41"/>
+      <c r="W4" s="41"/>
+      <c r="X4" s="41"/>
+      <c r="Y4" s="41"/>
+      <c r="Z4" s="41"/>
+      <c r="AA4" s="41"/>
+      <c r="AB4" s="41"/>
+      <c r="AC4" s="41"/>
+      <c r="AD4" s="41"/>
+      <c r="AE4" s="41"/>
+      <c r="AF4" s="41"/>
+      <c r="AG4" s="41"/>
+      <c r="AH4" s="41"/>
+      <c r="AI4" s="41"/>
+      <c r="AJ4" s="41"/>
+      <c r="AK4" s="41"/>
+      <c r="AL4" s="41"/>
+      <c r="AM4" s="41"/>
+      <c r="AN4" s="41"/>
+      <c r="AO4" s="41"/>
+      <c r="AP4" s="41"/>
+      <c r="AQ4" s="41"/>
+      <c r="AR4" s="41"/>
+      <c r="AS4" s="41"/>
+      <c r="AT4" s="41"/>
+      <c r="AU4" s="41"/>
+      <c r="AV4" s="41"/>
+      <c r="AW4" s="41"/>
+      <c r="AX4" s="42"/>
+      <c r="AY4" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="AZ4" s="40"/>
-      <c r="BA4" s="40"/>
-      <c r="BB4" s="41" t="s">
+      <c r="AZ4" s="43"/>
+      <c r="BA4" s="43"/>
+      <c r="BB4" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="BC4" s="42"/>
-      <c r="BD4" s="42"/>
-      <c r="BE4" s="42"/>
-      <c r="BF4" s="42"/>
-      <c r="BG4" s="42"/>
-      <c r="BH4" s="42"/>
-      <c r="BI4" s="42"/>
-      <c r="BJ4" s="42"/>
-      <c r="BK4" s="42"/>
-      <c r="BL4" s="42"/>
-      <c r="BM4" s="42"/>
-      <c r="BN4" s="42"/>
-      <c r="BO4" s="42"/>
-      <c r="BP4" s="43"/>
+      <c r="BC4" s="45"/>
+      <c r="BD4" s="45"/>
+      <c r="BE4" s="45"/>
+      <c r="BF4" s="45"/>
+      <c r="BG4" s="45"/>
+      <c r="BH4" s="45"/>
+      <c r="BI4" s="45"/>
+      <c r="BJ4" s="45"/>
+      <c r="BK4" s="45"/>
+      <c r="BL4" s="45"/>
+      <c r="BM4" s="45"/>
+      <c r="BN4" s="45"/>
+      <c r="BO4" s="45"/>
+      <c r="BP4" s="46"/>
     </row>
     <row r="5" spans="1:68" ht="14.25" customHeight="1">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="34" t="s">
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="37" t="s">
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="38"/>
-      <c r="S5" s="38"/>
-      <c r="T5" s="38"/>
-      <c r="U5" s="38"/>
-      <c r="V5" s="38"/>
-      <c r="W5" s="38"/>
-      <c r="X5" s="38"/>
-      <c r="Y5" s="38"/>
-      <c r="Z5" s="38"/>
-      <c r="AA5" s="38"/>
-      <c r="AB5" s="38"/>
-      <c r="AC5" s="38"/>
-      <c r="AD5" s="38"/>
-      <c r="AE5" s="38"/>
-      <c r="AF5" s="38"/>
-      <c r="AG5" s="38"/>
-      <c r="AH5" s="38"/>
-      <c r="AI5" s="38"/>
-      <c r="AJ5" s="38"/>
-      <c r="AK5" s="38"/>
-      <c r="AL5" s="38"/>
-      <c r="AM5" s="38"/>
-      <c r="AN5" s="38"/>
-      <c r="AO5" s="38"/>
-      <c r="AP5" s="38"/>
-      <c r="AQ5" s="38"/>
-      <c r="AR5" s="38"/>
-      <c r="AS5" s="38"/>
-      <c r="AT5" s="38"/>
-      <c r="AU5" s="38"/>
-      <c r="AV5" s="38"/>
-      <c r="AW5" s="38"/>
-      <c r="AX5" s="39"/>
-      <c r="AY5" s="40" t="s">
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="41"/>
+      <c r="R5" s="41"/>
+      <c r="S5" s="41"/>
+      <c r="T5" s="41"/>
+      <c r="U5" s="41"/>
+      <c r="V5" s="41"/>
+      <c r="W5" s="41"/>
+      <c r="X5" s="41"/>
+      <c r="Y5" s="41"/>
+      <c r="Z5" s="41"/>
+      <c r="AA5" s="41"/>
+      <c r="AB5" s="41"/>
+      <c r="AC5" s="41"/>
+      <c r="AD5" s="41"/>
+      <c r="AE5" s="41"/>
+      <c r="AF5" s="41"/>
+      <c r="AG5" s="41"/>
+      <c r="AH5" s="41"/>
+      <c r="AI5" s="41"/>
+      <c r="AJ5" s="41"/>
+      <c r="AK5" s="41"/>
+      <c r="AL5" s="41"/>
+      <c r="AM5" s="41"/>
+      <c r="AN5" s="41"/>
+      <c r="AO5" s="41"/>
+      <c r="AP5" s="41"/>
+      <c r="AQ5" s="41"/>
+      <c r="AR5" s="41"/>
+      <c r="AS5" s="41"/>
+      <c r="AT5" s="41"/>
+      <c r="AU5" s="41"/>
+      <c r="AV5" s="41"/>
+      <c r="AW5" s="41"/>
+      <c r="AX5" s="42"/>
+      <c r="AY5" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="AZ5" s="40"/>
-      <c r="BA5" s="40"/>
-      <c r="BB5" s="41" t="s">
+      <c r="AZ5" s="43"/>
+      <c r="BA5" s="43"/>
+      <c r="BB5" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="BC5" s="42"/>
-      <c r="BD5" s="42"/>
-      <c r="BE5" s="42"/>
-      <c r="BF5" s="42"/>
-      <c r="BG5" s="42"/>
-      <c r="BH5" s="42"/>
-      <c r="BI5" s="42"/>
-      <c r="BJ5" s="42"/>
-      <c r="BK5" s="42"/>
-      <c r="BL5" s="42"/>
-      <c r="BM5" s="42"/>
-      <c r="BN5" s="42"/>
-      <c r="BO5" s="42"/>
-      <c r="BP5" s="43"/>
+      <c r="BC5" s="45"/>
+      <c r="BD5" s="45"/>
+      <c r="BE5" s="45"/>
+      <c r="BF5" s="45"/>
+      <c r="BG5" s="45"/>
+      <c r="BH5" s="45"/>
+      <c r="BI5" s="45"/>
+      <c r="BJ5" s="45"/>
+      <c r="BK5" s="45"/>
+      <c r="BL5" s="45"/>
+      <c r="BM5" s="45"/>
+      <c r="BN5" s="45"/>
+      <c r="BO5" s="45"/>
+      <c r="BP5" s="46"/>
     </row>
     <row r="6" spans="1:68" ht="14.25" customHeight="1">
-      <c r="A6" s="33"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="34" t="s">
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="37" t="s">
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="38"/>
-      <c r="T6" s="38"/>
-      <c r="U6" s="38"/>
-      <c r="V6" s="38"/>
-      <c r="W6" s="38"/>
-      <c r="X6" s="38"/>
-      <c r="Y6" s="38"/>
-      <c r="Z6" s="38"/>
-      <c r="AA6" s="38"/>
-      <c r="AB6" s="38"/>
-      <c r="AC6" s="38"/>
-      <c r="AD6" s="38"/>
-      <c r="AE6" s="38"/>
-      <c r="AF6" s="38"/>
-      <c r="AG6" s="38"/>
-      <c r="AH6" s="38"/>
-      <c r="AI6" s="38"/>
-      <c r="AJ6" s="38"/>
-      <c r="AK6" s="38"/>
-      <c r="AL6" s="38"/>
-      <c r="AM6" s="38"/>
-      <c r="AN6" s="38"/>
-      <c r="AO6" s="38"/>
-      <c r="AP6" s="38"/>
-      <c r="AQ6" s="38"/>
-      <c r="AR6" s="38"/>
-      <c r="AS6" s="38"/>
-      <c r="AT6" s="38"/>
-      <c r="AU6" s="38"/>
-      <c r="AV6" s="38"/>
-      <c r="AW6" s="38"/>
-      <c r="AX6" s="39"/>
-      <c r="AY6" s="40" t="s">
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="41"/>
+      <c r="S6" s="41"/>
+      <c r="T6" s="41"/>
+      <c r="U6" s="41"/>
+      <c r="V6" s="41"/>
+      <c r="W6" s="41"/>
+      <c r="X6" s="41"/>
+      <c r="Y6" s="41"/>
+      <c r="Z6" s="41"/>
+      <c r="AA6" s="41"/>
+      <c r="AB6" s="41"/>
+      <c r="AC6" s="41"/>
+      <c r="AD6" s="41"/>
+      <c r="AE6" s="41"/>
+      <c r="AF6" s="41"/>
+      <c r="AG6" s="41"/>
+      <c r="AH6" s="41"/>
+      <c r="AI6" s="41"/>
+      <c r="AJ6" s="41"/>
+      <c r="AK6" s="41"/>
+      <c r="AL6" s="41"/>
+      <c r="AM6" s="41"/>
+      <c r="AN6" s="41"/>
+      <c r="AO6" s="41"/>
+      <c r="AP6" s="41"/>
+      <c r="AQ6" s="41"/>
+      <c r="AR6" s="41"/>
+      <c r="AS6" s="41"/>
+      <c r="AT6" s="41"/>
+      <c r="AU6" s="41"/>
+      <c r="AV6" s="41"/>
+      <c r="AW6" s="41"/>
+      <c r="AX6" s="42"/>
+      <c r="AY6" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="AZ6" s="40"/>
-      <c r="BA6" s="40"/>
-      <c r="BB6" s="41" t="s">
+      <c r="AZ6" s="43"/>
+      <c r="BA6" s="43"/>
+      <c r="BB6" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="BC6" s="42"/>
-      <c r="BD6" s="42"/>
-      <c r="BE6" s="42"/>
-      <c r="BF6" s="42"/>
-      <c r="BG6" s="42"/>
-      <c r="BH6" s="42"/>
-      <c r="BI6" s="42"/>
-      <c r="BJ6" s="42"/>
-      <c r="BK6" s="42"/>
-      <c r="BL6" s="42"/>
-      <c r="BM6" s="42"/>
-      <c r="BN6" s="42"/>
-      <c r="BO6" s="42"/>
-      <c r="BP6" s="43"/>
+      <c r="BC6" s="45"/>
+      <c r="BD6" s="45"/>
+      <c r="BE6" s="45"/>
+      <c r="BF6" s="45"/>
+      <c r="BG6" s="45"/>
+      <c r="BH6" s="45"/>
+      <c r="BI6" s="45"/>
+      <c r="BJ6" s="45"/>
+      <c r="BK6" s="45"/>
+      <c r="BL6" s="45"/>
+      <c r="BM6" s="45"/>
+      <c r="BN6" s="45"/>
+      <c r="BO6" s="45"/>
+      <c r="BP6" s="46"/>
     </row>
     <row r="7" spans="1:68" ht="14.25" customHeight="1">
       <c r="A7" s="5"/>
@@ -13476,16 +13476,16 @@
       <c r="X31" s="7"/>
       <c r="Y31" s="7"/>
       <c r="Z31" s="7"/>
-      <c r="AA31" s="45" t="s">
+      <c r="AA31" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="AB31" s="46"/>
-      <c r="AC31" s="46"/>
-      <c r="AD31" s="46"/>
-      <c r="AE31" s="46"/>
-      <c r="AF31" s="46"/>
-      <c r="AG31" s="46"/>
-      <c r="AH31" s="46"/>
+      <c r="AB31" s="34"/>
+      <c r="AC31" s="34"/>
+      <c r="AD31" s="34"/>
+      <c r="AE31" s="34"/>
+      <c r="AF31" s="34"/>
+      <c r="AG31" s="34"/>
+      <c r="AH31" s="34"/>
       <c r="AI31" s="7"/>
       <c r="AJ31" s="7"/>
       <c r="AK31" s="7"/>
@@ -17245,49 +17245,49 @@
     </row>
     <row r="92" spans="1:68" ht="12.75" customHeight="1">
       <c r="A92" s="22"/>
-      <c r="AQ92" s="47" t="s">
+      <c r="AQ92" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="AR92" s="47"/>
-      <c r="AS92" s="47"/>
-      <c r="AT92" s="47"/>
-      <c r="AU92" s="47"/>
+      <c r="AR92" s="35"/>
+      <c r="AS92" s="35"/>
+      <c r="AT92" s="35"/>
+      <c r="AU92" s="35"/>
       <c r="BP92" s="21"/>
     </row>
     <row r="93" spans="1:68" ht="12.75" customHeight="1">
       <c r="A93" s="22"/>
-      <c r="AQ93" s="47"/>
-      <c r="AR93" s="47"/>
-      <c r="AS93" s="47"/>
-      <c r="AT93" s="47"/>
-      <c r="AU93" s="47"/>
+      <c r="AQ93" s="35"/>
+      <c r="AR93" s="35"/>
+      <c r="AS93" s="35"/>
+      <c r="AT93" s="35"/>
+      <c r="AU93" s="35"/>
       <c r="BP93" s="21"/>
     </row>
     <row r="94" spans="1:68" ht="12.75" customHeight="1">
       <c r="A94" s="22"/>
-      <c r="AQ94" s="47"/>
-      <c r="AR94" s="47"/>
-      <c r="AS94" s="47"/>
-      <c r="AT94" s="47"/>
-      <c r="AU94" s="47"/>
+      <c r="AQ94" s="35"/>
+      <c r="AR94" s="35"/>
+      <c r="AS94" s="35"/>
+      <c r="AT94" s="35"/>
+      <c r="AU94" s="35"/>
       <c r="BP94" s="21"/>
     </row>
     <row r="95" spans="1:68" ht="12.75" customHeight="1">
       <c r="A95" s="22"/>
-      <c r="AQ95" s="47"/>
-      <c r="AR95" s="47"/>
-      <c r="AS95" s="47"/>
-      <c r="AT95" s="47"/>
-      <c r="AU95" s="47"/>
+      <c r="AQ95" s="35"/>
+      <c r="AR95" s="35"/>
+      <c r="AS95" s="35"/>
+      <c r="AT95" s="35"/>
+      <c r="AU95" s="35"/>
       <c r="BP95" s="21"/>
     </row>
     <row r="96" spans="1:68" ht="12.75" customHeight="1">
       <c r="A96" s="22"/>
-      <c r="AQ96" s="47"/>
-      <c r="AR96" s="47"/>
-      <c r="AS96" s="47"/>
-      <c r="AT96" s="47"/>
-      <c r="AU96" s="47"/>
+      <c r="AQ96" s="35"/>
+      <c r="AR96" s="35"/>
+      <c r="AS96" s="35"/>
+      <c r="AT96" s="35"/>
+      <c r="AU96" s="35"/>
       <c r="BP96" s="21"/>
     </row>
     <row r="97" spans="1:68" ht="12.75" customHeight="1">
@@ -17649,17 +17649,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="AA31:AH31"/>
-    <mergeCell ref="AQ92:AU96"/>
-    <mergeCell ref="A5:C6"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="H5:AX5"/>
-    <mergeCell ref="AY5:BA5"/>
-    <mergeCell ref="BB5:BP5"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="H6:AX6"/>
-    <mergeCell ref="AY6:BA6"/>
-    <mergeCell ref="BB6:BP6"/>
     <mergeCell ref="A2:C4"/>
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="H2:AX2"/>
@@ -17673,6 +17662,17 @@
     <mergeCell ref="H4:AX4"/>
     <mergeCell ref="AY4:BA4"/>
     <mergeCell ref="BB4:BP4"/>
+    <mergeCell ref="AY5:BA5"/>
+    <mergeCell ref="BB5:BP5"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="H6:AX6"/>
+    <mergeCell ref="AY6:BA6"/>
+    <mergeCell ref="BB6:BP6"/>
+    <mergeCell ref="AA31:AH31"/>
+    <mergeCell ref="AQ92:AU96"/>
+    <mergeCell ref="A5:C6"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="H5:AX5"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
